--- a/data/prediction_data/predictions.xlsx
+++ b/data/prediction_data/predictions.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B838"/>
+  <dimension ref="A1:B701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,19 +466,19 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1212</t>
+          <t>Wafer-204</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1229</t>
+          <t>Wafer-206</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1239</t>
+          <t>Wafer-208</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -502,7 +502,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1256</t>
+          <t>Wafer-209</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -514,7 +514,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1263</t>
+          <t>Wafer-211</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -526,7 +526,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1276</t>
+          <t>Wafer-213</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -538,19 +538,19 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1295</t>
+          <t>Wafer-214</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1023</t>
+          <t>Wafer-217</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -562,7 +562,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1051</t>
+          <t>Wafer-221</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1070</t>
+          <t>Wafer-224</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1075</t>
+          <t>Wafer-227</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1083</t>
+          <t>Wafer-232</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1086</t>
+          <t>Wafer-233</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1100</t>
+          <t>Wafer-236</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1510</t>
+          <t>Wafer-238</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Wafer-901</t>
+          <t>Wafer-241</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Wafer-915</t>
+          <t>Wafer-244</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Wafer-943</t>
+          <t>Wafer-245</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -682,7 +682,7 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Wafer-977</t>
+          <t>Wafer-246</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Wafer-801</t>
+          <t>Wafer-248</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Wafer-803</t>
+          <t>Wafer-249</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Wafer-804</t>
+          <t>Wafer-253</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Wafer-808</t>
+          <t>Wafer-256</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Wafer-809</t>
+          <t>Wafer-258</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Wafer-813</t>
+          <t>Wafer-259</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Wafer-817</t>
+          <t>Wafer-260</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
@@ -778,7 +778,7 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Wafer-824</t>
+          <t>Wafer-266</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -790,7 +790,7 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Wafer-831</t>
+          <t>Wafer-268</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -802,7 +802,7 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Wafer-848</t>
+          <t>Wafer-269</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
@@ -814,7 +814,7 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Wafer-850</t>
+          <t>Wafer-273</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
@@ -826,7 +826,7 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Wafer-859</t>
+          <t>Wafer-275</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Wafer-861</t>
+          <t>Wafer-276</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
@@ -850,7 +850,7 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Wafer-867</t>
+          <t>Wafer-277</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Wafer-878</t>
+          <t>Wafer-278</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
@@ -874,7 +874,7 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Wafer-894</t>
+          <t>Wafer-280</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
@@ -886,7 +886,7 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1420</t>
+          <t>Wafer-285</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1423</t>
+          <t>Wafer-287</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1446</t>
+          <t>Wafer-288</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
@@ -922,7 +922,7 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1472</t>
+          <t>Wafer-292</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
@@ -934,7 +934,7 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1482</t>
+          <t>Wafer-296</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
@@ -946,7 +946,7 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1489</t>
+          <t>Wafer-297</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
@@ -958,7 +958,7 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1101</t>
+          <t>Wafer-299</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
@@ -970,7 +970,7 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1116</t>
+          <t>Wafer-901</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
@@ -982,7 +982,7 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1117</t>
+          <t>Wafer-903</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1120</t>
+          <t>Wafer-904</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
@@ -1006,7 +1006,7 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1124</t>
+          <t>Wafer-912</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
@@ -1018,7 +1018,7 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1129</t>
+          <t>Wafer-914</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
@@ -1030,7 +1030,7 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1130</t>
+          <t>Wafer-918</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -1042,7 +1042,7 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1145</t>
+          <t>Wafer-920</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1149</t>
+          <t>Wafer-929</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1153</t>
+          <t>Wafer-930</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
@@ -1078,7 +1078,7 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1161</t>
+          <t>Wafer-931</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -1090,7 +1090,7 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1170</t>
+          <t>Wafer-936</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1172</t>
+          <t>Wafer-937</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -1114,7 +1114,7 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1193</t>
+          <t>Wafer-940</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
@@ -1126,19 +1126,19 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1198</t>
+          <t>Wafer-941</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Wafer-709</t>
+          <t>Wafer-942</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -1150,7 +1150,7 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Wafer-717</t>
+          <t>Wafer-945</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Wafer-733</t>
+          <t>Wafer-946</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Wafer-740</t>
+          <t>Wafer-947</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
@@ -1186,7 +1186,7 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Wafer-742</t>
+          <t>Wafer-948</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
@@ -1198,7 +1198,7 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Wafer-750</t>
+          <t>Wafer-956</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Wafer-751</t>
+          <t>Wafer-960</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Wafer-758</t>
+          <t>Wafer-962</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
@@ -1234,7 +1234,7 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Wafer-773</t>
+          <t>Wafer-963</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Wafer-800</t>
+          <t>Wafer-964</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
@@ -1258,7 +1258,7 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1310</t>
+          <t>Wafer-967</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1327</t>
+          <t>Wafer-968</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
@@ -1282,7 +1282,7 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1330</t>
+          <t>Wafer-969</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
@@ -1294,7 +1294,7 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1359</t>
+          <t>Wafer-970</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
@@ -1306,7 +1306,7 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1363</t>
+          <t>Wafer-971</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
@@ -1318,7 +1318,7 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1364</t>
+          <t>Wafer-974</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
@@ -1330,7 +1330,7 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1386</t>
+          <t>Wafer-976</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
@@ -1342,7 +1342,7 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1396</t>
+          <t>Wafer-979</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
@@ -1354,7 +1354,7 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1203</t>
+          <t>Wafer-981</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
@@ -1366,7 +1366,7 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1214</t>
+          <t>Wafer-982</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1223</t>
+          <t>Wafer-984</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
@@ -1390,7 +1390,7 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1233</t>
+          <t>Wafer-985</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
@@ -1402,7 +1402,7 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1237</t>
+          <t>Wafer-986</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
@@ -1414,7 +1414,7 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1238</t>
+          <t>Wafer-990</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
@@ -1426,7 +1426,7 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1241</t>
+          <t>Wafer-991</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1243</t>
+          <t>Wafer-992</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -1450,7 +1450,7 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1272</t>
+          <t>Wafer-997</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -1462,19 +1462,19 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1273</t>
+          <t>Wafer-998</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1281</t>
+          <t>Wafer-999</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1285</t>
+          <t>Wafer-1101</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1288</t>
+          <t>Wafer-1102</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
@@ -1510,7 +1510,7 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1294</t>
+          <t>Wafer-1103</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
@@ -1522,19 +1522,19 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1296</t>
+          <t>Wafer-1104</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1007</t>
+          <t>Wafer-1109</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1008</t>
+          <t>Wafer-1110</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1009</t>
+          <t>Wafer-1111</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -1570,7 +1570,7 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1011</t>
+          <t>Wafer-1113</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -1582,7 +1582,7 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1012</t>
+          <t>Wafer-1115</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -1594,7 +1594,7 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1016</t>
+          <t>Wafer-1118</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
@@ -1606,7 +1606,7 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1018</t>
+          <t>Wafer-1123</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
@@ -1618,7 +1618,7 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1019</t>
+          <t>Wafer-1130</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
@@ -1630,7 +1630,7 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1024</t>
+          <t>Wafer-1133</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
@@ -1642,7 +1642,7 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1030</t>
+          <t>Wafer-1136</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
@@ -1654,7 +1654,7 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1035</t>
+          <t>Wafer-1137</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -1666,7 +1666,7 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1040</t>
+          <t>Wafer-1138</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -1678,7 +1678,7 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1042</t>
+          <t>Wafer-1139</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1044</t>
+          <t>Wafer-1143</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
@@ -1702,7 +1702,7 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1049</t>
+          <t>Wafer-1145</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
@@ -1714,7 +1714,7 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1052</t>
+          <t>Wafer-1147</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
@@ -1726,7 +1726,7 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1057</t>
+          <t>Wafer-1149</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
@@ -1738,7 +1738,7 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1067</t>
+          <t>Wafer-1152</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
@@ -1750,7 +1750,7 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1071</t>
+          <t>Wafer-1157</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
@@ -1762,7 +1762,7 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1077</t>
+          <t>Wafer-1158</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
@@ -1774,7 +1774,7 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1081</t>
+          <t>Wafer-1159</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
@@ -1786,7 +1786,7 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1085</t>
+          <t>Wafer-1161</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1096</t>
+          <t>Wafer-1165</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
@@ -1810,19 +1810,19 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1521</t>
+          <t>Wafer-1167</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Wafer-911</t>
+          <t>Wafer-1169</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
@@ -1834,7 +1834,7 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Wafer-912</t>
+          <t>Wafer-1171</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
@@ -1846,7 +1846,7 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Wafer-913</t>
+          <t>Wafer-1172</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -1858,7 +1858,7 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Wafer-914</t>
+          <t>Wafer-1175</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
@@ -1870,7 +1870,7 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Wafer-917</t>
+          <t>Wafer-1178</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
@@ -1882,7 +1882,7 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Wafer-918</t>
+          <t>Wafer-1179</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
@@ -1894,7 +1894,7 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Wafer-930</t>
+          <t>Wafer-1184</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
@@ -1906,7 +1906,7 @@
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Wafer-935</t>
+          <t>Wafer-1186</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Wafer-937</t>
+          <t>Wafer-1187</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
@@ -1930,7 +1930,7 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Wafer-953</t>
+          <t>Wafer-1188</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
@@ -1942,7 +1942,7 @@
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Wafer-954</t>
+          <t>Wafer-1192</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
@@ -1954,7 +1954,7 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Wafer-962</t>
+          <t>Wafer-1193</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
@@ -1966,7 +1966,7 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Wafer-966</t>
+          <t>Wafer-1196</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
@@ -1978,7 +1978,7 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Wafer-972</t>
+          <t>Wafer-1197</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
@@ -1990,7 +1990,7 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Wafer-985</t>
+          <t>Wafer-1198</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
@@ -2002,7 +2002,7 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Wafer-987</t>
+          <t>Wafer-1202</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
@@ -2014,7 +2014,7 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Wafer-990</t>
+          <t>Wafer-1203</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
@@ -2026,7 +2026,7 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Wafer-991</t>
+          <t>Wafer-1206</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Wafer-992</t>
+          <t>Wafer-1207</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
@@ -2050,7 +2050,7 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Wafer-995</t>
+          <t>Wafer-1210</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
@@ -2062,7 +2062,7 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Wafer-807</t>
+          <t>Wafer-1214</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
@@ -2074,7 +2074,7 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Wafer-818</t>
+          <t>Wafer-1215</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
@@ -2086,7 +2086,7 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Wafer-822</t>
+          <t>Wafer-1219</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
@@ -2098,7 +2098,7 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>Wafer-835</t>
+          <t>Wafer-1222</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
@@ -2110,7 +2110,7 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Wafer-838</t>
+          <t>Wafer-1223</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
@@ -2122,7 +2122,7 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Wafer-839</t>
+          <t>Wafer-1224</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
@@ -2134,7 +2134,7 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Wafer-845</t>
+          <t>Wafer-1225</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
@@ -2146,7 +2146,7 @@
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>Wafer-849</t>
+          <t>Wafer-1226</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
@@ -2158,7 +2158,7 @@
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Wafer-852</t>
+          <t>Wafer-1227</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
@@ -2170,7 +2170,7 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Wafer-868</t>
+          <t>Wafer-1229</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
@@ -2182,7 +2182,7 @@
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Wafer-873</t>
+          <t>Wafer-1231</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
@@ -2194,7 +2194,7 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Wafer-874</t>
+          <t>Wafer-1238</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
@@ -2206,7 +2206,7 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Wafer-876</t>
+          <t>Wafer-1239</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
@@ -2218,7 +2218,7 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>Wafer-879</t>
+          <t>Wafer-1240</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
@@ -2230,19 +2230,19 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Wafer-885</t>
+          <t>Wafer-1242</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Wafer-892</t>
+          <t>Wafer-1243</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
@@ -2254,7 +2254,7 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1402</t>
+          <t>Wafer-1251</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
@@ -2266,7 +2266,7 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1406</t>
+          <t>Wafer-1252</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
@@ -2278,7 +2278,7 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1441</t>
+          <t>Wafer-1253</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
@@ -2290,7 +2290,7 @@
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1444</t>
+          <t>Wafer-1255</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
@@ -2302,7 +2302,7 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1449</t>
+          <t>Wafer-1256</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
@@ -2314,7 +2314,7 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1454</t>
+          <t>Wafer-1257</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1455</t>
+          <t>Wafer-1261</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
@@ -2338,7 +2338,7 @@
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1456</t>
+          <t>Wafer-1266</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -2350,7 +2350,7 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1477</t>
+          <t>Wafer-1273</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -2362,7 +2362,7 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1479</t>
+          <t>Wafer-1276</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -2374,7 +2374,7 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1483</t>
+          <t>Wafer-1277</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -2386,7 +2386,7 @@
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1106</t>
+          <t>Wafer-1279</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -2398,7 +2398,7 @@
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1108</t>
+          <t>Wafer-1280</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -2410,7 +2410,7 @@
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1112</t>
+          <t>Wafer-1281</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -2422,7 +2422,7 @@
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1121</t>
+          <t>Wafer-1282</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
@@ -2434,7 +2434,7 @@
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1126</t>
+          <t>Wafer-1285</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1134</t>
+          <t>Wafer-1286</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1137</t>
+          <t>Wafer-1287</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
@@ -2470,7 +2470,7 @@
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1155</t>
+          <t>Wafer-1289</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
@@ -2482,7 +2482,7 @@
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1159</t>
+          <t>Wafer-1292</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
@@ -2494,7 +2494,7 @@
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1166</t>
+          <t>Wafer-1293</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
@@ -2506,7 +2506,7 @@
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1173</t>
+          <t>Wafer-1295</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1175</t>
+          <t>Wafer-1296</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
@@ -2530,7 +2530,7 @@
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1177</t>
+          <t>Wafer-1297</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
@@ -2542,19 +2542,19 @@
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1182</t>
+          <t>Wafer-1298</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1192</t>
+          <t>Wafer-1402</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
@@ -2566,7 +2566,7 @@
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Wafer-706</t>
+          <t>Wafer-1406</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>Wafer-722</t>
+          <t>Wafer-1407</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -2590,7 +2590,7 @@
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Wafer-755</t>
+          <t>Wafer-1413</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -2602,7 +2602,7 @@
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Wafer-756</t>
+          <t>Wafer-1414</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Wafer-761</t>
+          <t>Wafer-1417</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -2626,7 +2626,7 @@
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Wafer-762</t>
+          <t>Wafer-1418</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Wafer-763</t>
+          <t>Wafer-1420</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -2650,7 +2650,7 @@
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Wafer-767</t>
+          <t>Wafer-1421</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Wafer-769</t>
+          <t>Wafer-1422</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -2674,7 +2674,7 @@
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Wafer-774</t>
+          <t>Wafer-1425</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -2686,7 +2686,7 @@
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Wafer-777</t>
+          <t>Wafer-1426</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>Wafer-779</t>
+          <t>Wafer-1427</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -2710,7 +2710,7 @@
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Wafer-780</t>
+          <t>Wafer-1429</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -2722,7 +2722,7 @@
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>Wafer-787</t>
+          <t>Wafer-1430</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -2734,7 +2734,7 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Wafer-790</t>
+          <t>Wafer-1433</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -2746,7 +2746,7 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>Wafer-798</t>
+          <t>Wafer-1434</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -2758,7 +2758,7 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Wafer-799</t>
+          <t>Wafer-1436</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -2770,7 +2770,7 @@
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1305</t>
+          <t>Wafer-1437</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -2782,7 +2782,7 @@
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1322</t>
+          <t>Wafer-1440</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -2794,7 +2794,7 @@
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1323</t>
+          <t>Wafer-1442</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
@@ -2806,7 +2806,7 @@
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1331</t>
+          <t>Wafer-1443</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
@@ -2818,7 +2818,7 @@
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1342</t>
+          <t>Wafer-1449</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
@@ -2830,7 +2830,7 @@
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1350</t>
+          <t>Wafer-1450</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
@@ -2842,7 +2842,7 @@
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1352</t>
+          <t>Wafer-1451</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
@@ -2854,7 +2854,7 @@
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1373</t>
+          <t>Wafer-1457</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
@@ -2866,7 +2866,7 @@
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1377</t>
+          <t>Wafer-1459</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1378</t>
+          <t>Wafer-1466</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
@@ -2890,7 +2890,7 @@
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1400</t>
+          <t>Wafer-1468</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
@@ -2902,7 +2902,7 @@
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1201</t>
+          <t>Wafer-1469</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
@@ -2914,7 +2914,7 @@
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1202</t>
+          <t>Wafer-1471</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
@@ -2926,7 +2926,7 @@
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1204</t>
+          <t>Wafer-1472</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1205</t>
+          <t>Wafer-1481</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
@@ -2950,7 +2950,7 @@
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1206</t>
+          <t>Wafer-1483</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
@@ -2962,7 +2962,7 @@
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1207</t>
+          <t>Wafer-1484</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
@@ -2974,7 +2974,7 @@
     <row r="211">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1208</t>
+          <t>Wafer-1485</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
@@ -2986,19 +2986,19 @@
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1209</t>
+          <t>Wafer-1486</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1210</t>
+          <t>Wafer-1487</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
@@ -3010,7 +3010,7 @@
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1211</t>
+          <t>Wafer-1491</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
@@ -3022,19 +3022,19 @@
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1213</t>
+          <t>Wafer-1492</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1215</t>
+          <t>Wafer-1493</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
@@ -3046,7 +3046,7 @@
     <row r="217">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1216</t>
+          <t>Wafer-1495</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
@@ -3058,7 +3058,7 @@
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1217</t>
+          <t>Wafer-1498</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
@@ -3070,7 +3070,7 @@
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1218</t>
+          <t>Wafer-1499</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
@@ -3082,7 +3082,7 @@
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1219</t>
+          <t>Wafer-1500</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
@@ -3094,7 +3094,7 @@
     <row r="221">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1220</t>
+          <t>Wafer-1505</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
@@ -3106,7 +3106,7 @@
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1221</t>
+          <t>Wafer-1508</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
@@ -3118,7 +3118,7 @@
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1222</t>
+          <t>Wafer-1509</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
@@ -3130,7 +3130,7 @@
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1224</t>
+          <t>Wafer-1510</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
@@ -3142,19 +3142,19 @@
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1225</t>
+          <t>Wafer-1511</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1226</t>
+          <t>Wafer-1512</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
@@ -3166,7 +3166,7 @@
     <row r="227">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1227</t>
+          <t>Wafer-1515</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
@@ -3178,7 +3178,7 @@
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1228</t>
+          <t>Wafer-1518</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
@@ -3190,7 +3190,7 @@
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1230</t>
+          <t>Wafer-1520</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
@@ -3202,7 +3202,7 @@
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1231</t>
+          <t>Wafer-1522</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
@@ -3214,7 +3214,7 @@
     <row r="231">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1232</t>
+          <t>Wafer-1523</t>
         </is>
       </c>
       <c r="B231" s="3" t="inlineStr">
@@ -3226,7 +3226,7 @@
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1234</t>
+          <t>Wafer-1525</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
@@ -3238,7 +3238,7 @@
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1235</t>
+          <t>Wafer-1529</t>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
@@ -3250,7 +3250,7 @@
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1236</t>
+          <t>Wafer-1530</t>
         </is>
       </c>
       <c r="B234" s="3" t="inlineStr">
@@ -3262,7 +3262,7 @@
     <row r="235">
       <c r="A235" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1240</t>
+          <t>Wafer-1532</t>
         </is>
       </c>
       <c r="B235" s="3" t="inlineStr">
@@ -3274,7 +3274,7 @@
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1242</t>
+          <t>Wafer-1533</t>
         </is>
       </c>
       <c r="B236" s="3" t="inlineStr">
@@ -3286,7 +3286,7 @@
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1244</t>
+          <t>Wafer-1535</t>
         </is>
       </c>
       <c r="B237" s="3" t="inlineStr">
@@ -3298,7 +3298,7 @@
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1245</t>
+          <t>Wafer-1536</t>
         </is>
       </c>
       <c r="B238" s="3" t="inlineStr">
@@ -3310,7 +3310,7 @@
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1246</t>
+          <t>Wafer-1537</t>
         </is>
       </c>
       <c r="B239" s="3" t="inlineStr">
@@ -3322,7 +3322,7 @@
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1247</t>
+          <t>Wafer-1538</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
@@ -3334,7 +3334,7 @@
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1248</t>
+          <t>Wafer-1542</t>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
@@ -3346,7 +3346,7 @@
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1249</t>
+          <t>Wafer-1544</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
@@ -3358,7 +3358,7 @@
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1250</t>
+          <t>Wafer-1550</t>
         </is>
       </c>
       <c r="B243" s="3" t="inlineStr">
@@ -3370,7 +3370,7 @@
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1251</t>
+          <t>Wafer-1552</t>
         </is>
       </c>
       <c r="B244" s="3" t="inlineStr">
@@ -3382,7 +3382,7 @@
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1252</t>
+          <t>Wafer-1553</t>
         </is>
       </c>
       <c r="B245" s="3" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1253</t>
+          <t>Wafer-1555</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
@@ -3406,7 +3406,7 @@
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1254</t>
+          <t>Wafer-1558</t>
         </is>
       </c>
       <c r="B247" s="3" t="inlineStr">
@@ -3418,7 +3418,7 @@
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1255</t>
+          <t>Wafer-1561</t>
         </is>
       </c>
       <c r="B248" s="3" t="inlineStr">
@@ -3430,7 +3430,7 @@
     <row r="249">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1257</t>
+          <t>Wafer-1563</t>
         </is>
       </c>
       <c r="B249" s="3" t="inlineStr">
@@ -3442,7 +3442,7 @@
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1258</t>
+          <t>Wafer-1565</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
@@ -3454,7 +3454,7 @@
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1259</t>
+          <t>Wafer-1569</t>
         </is>
       </c>
       <c r="B251" s="3" t="inlineStr">
@@ -3466,7 +3466,7 @@
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1260</t>
+          <t>Wafer-1572</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
@@ -3478,7 +3478,7 @@
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1261</t>
+          <t>Wafer-1576</t>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
@@ -3490,7 +3490,7 @@
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1262</t>
+          <t>Wafer-1578</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
@@ -3502,7 +3502,7 @@
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1264</t>
+          <t>Wafer-1579</t>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
@@ -3514,7 +3514,7 @@
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1265</t>
+          <t>Wafer-1582</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
@@ -3526,7 +3526,7 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1266</t>
+          <t>Wafer-1583</t>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
@@ -3538,7 +3538,7 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1267</t>
+          <t>Wafer-1584</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
@@ -3550,7 +3550,7 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1268</t>
+          <t>Wafer-1585</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
@@ -3562,7 +3562,7 @@
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1269</t>
+          <t>Wafer-1586</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
@@ -3574,7 +3574,7 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1270</t>
+          <t>Wafer-1589</t>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
@@ -3586,7 +3586,7 @@
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1271</t>
+          <t>Wafer-1593</t>
         </is>
       </c>
       <c r="B262" s="3" t="inlineStr">
@@ -3598,19 +3598,19 @@
     <row r="263">
       <c r="A263" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1274</t>
+          <t>Wafer-1594</t>
         </is>
       </c>
       <c r="B263" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1275</t>
+          <t>Wafer-1597</t>
         </is>
       </c>
       <c r="B264" s="3" t="inlineStr">
@@ -3622,7 +3622,7 @@
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1277</t>
+          <t>Wafer-1599</t>
         </is>
       </c>
       <c r="B265" s="3" t="inlineStr">
@@ -3634,7 +3634,7 @@
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1278</t>
+          <t>Wafer-1601</t>
         </is>
       </c>
       <c r="B266" s="3" t="inlineStr">
@@ -3646,19 +3646,19 @@
     <row r="267">
       <c r="A267" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1279</t>
+          <t>Wafer-1605</t>
         </is>
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1280</t>
+          <t>Wafer-1607</t>
         </is>
       </c>
       <c r="B268" s="3" t="inlineStr">
@@ -3670,7 +3670,7 @@
     <row r="269">
       <c r="A269" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1282</t>
+          <t>Wafer-1608</t>
         </is>
       </c>
       <c r="B269" s="3" t="inlineStr">
@@ -3682,7 +3682,7 @@
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1283</t>
+          <t>Wafer-1609</t>
         </is>
       </c>
       <c r="B270" s="3" t="inlineStr">
@@ -3694,7 +3694,7 @@
     <row r="271">
       <c r="A271" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1284</t>
+          <t>Wafer-1612</t>
         </is>
       </c>
       <c r="B271" s="3" t="inlineStr">
@@ -3706,7 +3706,7 @@
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1286</t>
+          <t>Wafer-1613</t>
         </is>
       </c>
       <c r="B272" s="3" t="inlineStr">
@@ -3718,7 +3718,7 @@
     <row r="273">
       <c r="A273" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1287</t>
+          <t>Wafer-1614</t>
         </is>
       </c>
       <c r="B273" s="3" t="inlineStr">
@@ -3730,7 +3730,7 @@
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1289</t>
+          <t>Wafer-1618</t>
         </is>
       </c>
       <c r="B274" s="3" t="inlineStr">
@@ -3742,7 +3742,7 @@
     <row r="275">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1290</t>
+          <t>Wafer-1622</t>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
@@ -3754,7 +3754,7 @@
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1291</t>
+          <t>Wafer-1624</t>
         </is>
       </c>
       <c r="B276" s="3" t="inlineStr">
@@ -3766,7 +3766,7 @@
     <row r="277">
       <c r="A277" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1292</t>
+          <t>Wafer-1626</t>
         </is>
       </c>
       <c r="B277" s="3" t="inlineStr">
@@ -3778,7 +3778,7 @@
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1293</t>
+          <t>Wafer-1627</t>
         </is>
       </c>
       <c r="B278" s="3" t="inlineStr">
@@ -3790,7 +3790,7 @@
     <row r="279">
       <c r="A279" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1297</t>
+          <t>Wafer-1628</t>
         </is>
       </c>
       <c r="B279" s="3" t="inlineStr">
@@ -3802,43 +3802,43 @@
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1298</t>
+          <t>Wafer-1629</t>
         </is>
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1299</t>
+          <t>Wafer-1630</t>
         </is>
       </c>
       <c r="B281" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1300</t>
+          <t>Wafer-1632</t>
         </is>
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1001</t>
+          <t>Wafer-1633</t>
         </is>
       </c>
       <c r="B283" s="3" t="inlineStr">
@@ -3850,19 +3850,19 @@
     <row r="284">
       <c r="A284" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1002</t>
+          <t>Wafer-1638</t>
         </is>
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1003</t>
+          <t>Wafer-1639</t>
         </is>
       </c>
       <c r="B285" s="3" t="inlineStr">
@@ -3874,7 +3874,7 @@
     <row r="286">
       <c r="A286" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1004</t>
+          <t>Wafer-1642</t>
         </is>
       </c>
       <c r="B286" s="3" t="inlineStr">
@@ -3886,7 +3886,7 @@
     <row r="287">
       <c r="A287" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1005</t>
+          <t>Wafer-1646</t>
         </is>
       </c>
       <c r="B287" s="3" t="inlineStr">
@@ -3898,7 +3898,7 @@
     <row r="288">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1006</t>
+          <t>Wafer-1647</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
@@ -3910,7 +3910,7 @@
     <row r="289">
       <c r="A289" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1010</t>
+          <t>Wafer-1650</t>
         </is>
       </c>
       <c r="B289" s="3" t="inlineStr">
@@ -3922,7 +3922,7 @@
     <row r="290">
       <c r="A290" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1013</t>
+          <t>Wafer-1651</t>
         </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
@@ -3934,7 +3934,7 @@
     <row r="291">
       <c r="A291" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1014</t>
+          <t>Wafer-1652</t>
         </is>
       </c>
       <c r="B291" s="3" t="inlineStr">
@@ -3946,7 +3946,7 @@
     <row r="292">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1015</t>
+          <t>Wafer-1653</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
     <row r="293">
       <c r="A293" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1017</t>
+          <t>Wafer-1654</t>
         </is>
       </c>
       <c r="B293" s="3" t="inlineStr">
@@ -3970,7 +3970,7 @@
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1020</t>
+          <t>Wafer-1656</t>
         </is>
       </c>
       <c r="B294" s="3" t="inlineStr">
@@ -3982,19 +3982,19 @@
     <row r="295">
       <c r="A295" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1021</t>
+          <t>Wafer-1657</t>
         </is>
       </c>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1022</t>
+          <t>Wafer-1659</t>
         </is>
       </c>
       <c r="B296" s="3" t="inlineStr">
@@ -4006,7 +4006,7 @@
     <row r="297">
       <c r="A297" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1025</t>
+          <t>Wafer-1660</t>
         </is>
       </c>
       <c r="B297" s="3" t="inlineStr">
@@ -4018,7 +4018,7 @@
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1026</t>
+          <t>Wafer-1662</t>
         </is>
       </c>
       <c r="B298" s="3" t="inlineStr">
@@ -4030,7 +4030,7 @@
     <row r="299">
       <c r="A299" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1027</t>
+          <t>Wafer-1667</t>
         </is>
       </c>
       <c r="B299" s="3" t="inlineStr">
@@ -4042,7 +4042,7 @@
     <row r="300">
       <c r="A300" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1028</t>
+          <t>Wafer-1668</t>
         </is>
       </c>
       <c r="B300" s="3" t="inlineStr">
@@ -4054,7 +4054,7 @@
     <row r="301">
       <c r="A301" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1029</t>
+          <t>Wafer-1669</t>
         </is>
       </c>
       <c r="B301" s="3" t="inlineStr">
@@ -4066,7 +4066,7 @@
     <row r="302">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1031</t>
+          <t>Wafer-1670</t>
         </is>
       </c>
       <c r="B302" s="3" t="inlineStr">
@@ -4078,7 +4078,7 @@
     <row r="303">
       <c r="A303" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1032</t>
+          <t>Wafer-1674</t>
         </is>
       </c>
       <c r="B303" s="3" t="inlineStr">
@@ -4090,19 +4090,19 @@
     <row r="304">
       <c r="A304" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1033</t>
+          <t>Wafer-1677</t>
         </is>
       </c>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1034</t>
+          <t>Wafer-1679</t>
         </is>
       </c>
       <c r="B305" s="3" t="inlineStr">
@@ -4114,7 +4114,7 @@
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1036</t>
+          <t>Wafer-1680</t>
         </is>
       </c>
       <c r="B306" s="3" t="inlineStr">
@@ -4126,7 +4126,7 @@
     <row r="307">
       <c r="A307" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1037</t>
+          <t>Wafer-1682</t>
         </is>
       </c>
       <c r="B307" s="3" t="inlineStr">
@@ -4138,7 +4138,7 @@
     <row r="308">
       <c r="A308" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1038</t>
+          <t>Wafer-1686</t>
         </is>
       </c>
       <c r="B308" s="3" t="inlineStr">
@@ -4150,7 +4150,7 @@
     <row r="309">
       <c r="A309" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1039</t>
+          <t>Wafer-1688</t>
         </is>
       </c>
       <c r="B309" s="3" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="310">
       <c r="A310" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1041</t>
+          <t>Wafer-1689</t>
         </is>
       </c>
       <c r="B310" s="3" t="inlineStr">
@@ -4174,7 +4174,7 @@
     <row r="311">
       <c r="A311" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1043</t>
+          <t>Wafer-1690</t>
         </is>
       </c>
       <c r="B311" s="3" t="inlineStr">
@@ -4186,7 +4186,7 @@
     <row r="312">
       <c r="A312" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1045</t>
+          <t>Wafer-1691</t>
         </is>
       </c>
       <c r="B312" s="3" t="inlineStr">
@@ -4198,7 +4198,7 @@
     <row r="313">
       <c r="A313" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1046</t>
+          <t>Wafer-1695</t>
         </is>
       </c>
       <c r="B313" s="3" t="inlineStr">
@@ -4210,7 +4210,7 @@
     <row r="314">
       <c r="A314" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1047</t>
+          <t>Wafer-1696</t>
         </is>
       </c>
       <c r="B314" s="3" t="inlineStr">
@@ -4222,7 +4222,7 @@
     <row r="315">
       <c r="A315" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1048</t>
+          <t>Wafer-1699</t>
         </is>
       </c>
       <c r="B315" s="3" t="inlineStr">
@@ -4234,7 +4234,7 @@
     <row r="316">
       <c r="A316" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1050</t>
+          <t>Wafer-203</t>
         </is>
       </c>
       <c r="B316" s="3" t="inlineStr">
@@ -4246,7 +4246,7 @@
     <row r="317">
       <c r="A317" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1053</t>
+          <t>Wafer-210</t>
         </is>
       </c>
       <c r="B317" s="3" t="inlineStr">
@@ -4258,7 +4258,7 @@
     <row r="318">
       <c r="A318" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1054</t>
+          <t>Wafer-230</t>
         </is>
       </c>
       <c r="B318" s="3" t="inlineStr">
@@ -4270,7 +4270,7 @@
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1055</t>
+          <t>Wafer-247</t>
         </is>
       </c>
       <c r="B319" s="3" t="inlineStr">
@@ -4282,7 +4282,7 @@
     <row r="320">
       <c r="A320" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1056</t>
+          <t>Wafer-250</t>
         </is>
       </c>
       <c r="B320" s="3" t="inlineStr">
@@ -4294,7 +4294,7 @@
     <row r="321">
       <c r="A321" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1058</t>
+          <t>Wafer-251</t>
         </is>
       </c>
       <c r="B321" s="3" t="inlineStr">
@@ -4306,7 +4306,7 @@
     <row r="322">
       <c r="A322" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1059</t>
+          <t>Wafer-294</t>
         </is>
       </c>
       <c r="B322" s="3" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="323">
       <c r="A323" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1060</t>
+          <t>Wafer-910</t>
         </is>
       </c>
       <c r="B323" s="3" t="inlineStr">
@@ -4330,7 +4330,7 @@
     <row r="324">
       <c r="A324" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1061</t>
+          <t>Wafer-919</t>
         </is>
       </c>
       <c r="B324" s="3" t="inlineStr">
@@ -4342,7 +4342,7 @@
     <row r="325">
       <c r="A325" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1062</t>
+          <t>Wafer-922</t>
         </is>
       </c>
       <c r="B325" s="3" t="inlineStr">
@@ -4354,7 +4354,7 @@
     <row r="326">
       <c r="A326" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1063</t>
+          <t>Wafer-924</t>
         </is>
       </c>
       <c r="B326" s="3" t="inlineStr">
@@ -4366,7 +4366,7 @@
     <row r="327">
       <c r="A327" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1064</t>
+          <t>Wafer-927</t>
         </is>
       </c>
       <c r="B327" s="3" t="inlineStr">
@@ -4378,7 +4378,7 @@
     <row r="328">
       <c r="A328" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1065</t>
+          <t>Wafer-943</t>
         </is>
       </c>
       <c r="B328" s="3" t="inlineStr">
@@ -4390,7 +4390,7 @@
     <row r="329">
       <c r="A329" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1066</t>
+          <t>Wafer-951</t>
         </is>
       </c>
       <c r="B329" s="3" t="inlineStr">
@@ -4402,7 +4402,7 @@
     <row r="330">
       <c r="A330" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1068</t>
+          <t>Wafer-957</t>
         </is>
       </c>
       <c r="B330" s="3" t="inlineStr">
@@ -4414,7 +4414,7 @@
     <row r="331">
       <c r="A331" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1069</t>
+          <t>Wafer-958</t>
         </is>
       </c>
       <c r="B331" s="3" t="inlineStr">
@@ -4426,7 +4426,7 @@
     <row r="332">
       <c r="A332" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1072</t>
+          <t>Wafer-959</t>
         </is>
       </c>
       <c r="B332" s="3" t="inlineStr">
@@ -4438,7 +4438,7 @@
     <row r="333">
       <c r="A333" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1073</t>
+          <t>Wafer-975</t>
         </is>
       </c>
       <c r="B333" s="3" t="inlineStr">
@@ -4450,7 +4450,7 @@
     <row r="334">
       <c r="A334" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1074</t>
+          <t>Wafer-1105</t>
         </is>
       </c>
       <c r="B334" s="3" t="inlineStr">
@@ -4462,7 +4462,7 @@
     <row r="335">
       <c r="A335" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1076</t>
+          <t>Wafer-1106</t>
         </is>
       </c>
       <c r="B335" s="3" t="inlineStr">
@@ -4474,7 +4474,7 @@
     <row r="336">
       <c r="A336" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1078</t>
+          <t>Wafer-1119</t>
         </is>
       </c>
       <c r="B336" s="3" t="inlineStr">
@@ -4486,7 +4486,7 @@
     <row r="337">
       <c r="A337" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1079</t>
+          <t>Wafer-1122</t>
         </is>
       </c>
       <c r="B337" s="3" t="inlineStr">
@@ -4498,7 +4498,7 @@
     <row r="338">
       <c r="A338" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1080</t>
+          <t>Wafer-1125</t>
         </is>
       </c>
       <c r="B338" s="3" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="339">
       <c r="A339" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1082</t>
+          <t>Wafer-1127</t>
         </is>
       </c>
       <c r="B339" s="3" t="inlineStr">
@@ -4522,7 +4522,7 @@
     <row r="340">
       <c r="A340" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1084</t>
+          <t>Wafer-1128</t>
         </is>
       </c>
       <c r="B340" s="3" t="inlineStr">
@@ -4534,7 +4534,7 @@
     <row r="341">
       <c r="A341" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1087</t>
+          <t>Wafer-1141</t>
         </is>
       </c>
       <c r="B341" s="3" t="inlineStr">
@@ -4546,7 +4546,7 @@
     <row r="342">
       <c r="A342" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1088</t>
+          <t>Wafer-1144</t>
         </is>
       </c>
       <c r="B342" s="3" t="inlineStr">
@@ -4558,7 +4558,7 @@
     <row r="343">
       <c r="A343" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1089</t>
+          <t>Wafer-1151</t>
         </is>
       </c>
       <c r="B343" s="3" t="inlineStr">
@@ -4570,7 +4570,7 @@
     <row r="344">
       <c r="A344" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1090</t>
+          <t>Wafer-1177</t>
         </is>
       </c>
       <c r="B344" s="3" t="inlineStr">
@@ -4582,7 +4582,7 @@
     <row r="345">
       <c r="A345" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1091</t>
+          <t>Wafer-1190</t>
         </is>
       </c>
       <c r="B345" s="3" t="inlineStr">
@@ -4594,7 +4594,7 @@
     <row r="346">
       <c r="A346" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1092</t>
+          <t>Wafer-1191</t>
         </is>
       </c>
       <c r="B346" s="3" t="inlineStr">
@@ -4606,7 +4606,7 @@
     <row r="347">
       <c r="A347" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1093</t>
+          <t>Wafer-1201</t>
         </is>
       </c>
       <c r="B347" s="3" t="inlineStr">
@@ -4618,7 +4618,7 @@
     <row r="348">
       <c r="A348" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1094</t>
+          <t>Wafer-1211</t>
         </is>
       </c>
       <c r="B348" s="3" t="inlineStr">
@@ -4630,7 +4630,7 @@
     <row r="349">
       <c r="A349" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1095</t>
+          <t>Wafer-1233</t>
         </is>
       </c>
       <c r="B349" s="3" t="inlineStr">
@@ -4642,7 +4642,7 @@
     <row r="350">
       <c r="A350" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1097</t>
+          <t>Wafer-1245</t>
         </is>
       </c>
       <c r="B350" s="3" t="inlineStr">
@@ -4654,7 +4654,7 @@
     <row r="351">
       <c r="A351" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1098</t>
+          <t>Wafer-1254</t>
         </is>
       </c>
       <c r="B351" s="3" t="inlineStr">
@@ -4666,7 +4666,7 @@
     <row r="352">
       <c r="A352" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1099</t>
+          <t>Wafer-1272</t>
         </is>
       </c>
       <c r="B352" s="3" t="inlineStr">
@@ -4678,7 +4678,7 @@
     <row r="353">
       <c r="A353" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1501</t>
+          <t>Wafer-1283</t>
         </is>
       </c>
       <c r="B353" s="3" t="inlineStr">
@@ -4690,7 +4690,7 @@
     <row r="354">
       <c r="A354" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1502</t>
+          <t>Wafer-1294</t>
         </is>
       </c>
       <c r="B354" s="3" t="inlineStr">
@@ -4702,7 +4702,7 @@
     <row r="355">
       <c r="A355" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1503</t>
+          <t>Wafer-1410</t>
         </is>
       </c>
       <c r="B355" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
     <row r="356">
       <c r="A356" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1504</t>
+          <t>Wafer-1411</t>
         </is>
       </c>
       <c r="B356" s="3" t="inlineStr">
@@ -4726,7 +4726,7 @@
     <row r="357">
       <c r="A357" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1505</t>
+          <t>Wafer-1412</t>
         </is>
       </c>
       <c r="B357" s="3" t="inlineStr">
@@ -4738,7 +4738,7 @@
     <row r="358">
       <c r="A358" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1506</t>
+          <t>Wafer-1416</t>
         </is>
       </c>
       <c r="B358" s="3" t="inlineStr">
@@ -4750,7 +4750,7 @@
     <row r="359">
       <c r="A359" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1507</t>
+          <t>Wafer-1431</t>
         </is>
       </c>
       <c r="B359" s="3" t="inlineStr">
@@ -4762,7 +4762,7 @@
     <row r="360">
       <c r="A360" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1508</t>
+          <t>Wafer-1438</t>
         </is>
       </c>
       <c r="B360" s="3" t="inlineStr">
@@ -4774,7 +4774,7 @@
     <row r="361">
       <c r="A361" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1509</t>
+          <t>Wafer-1456</t>
         </is>
       </c>
       <c r="B361" s="3" t="inlineStr">
@@ -4786,7 +4786,7 @@
     <row r="362">
       <c r="A362" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1511</t>
+          <t>Wafer-1460</t>
         </is>
       </c>
       <c r="B362" s="3" t="inlineStr">
@@ -4798,7 +4798,7 @@
     <row r="363">
       <c r="A363" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1512</t>
+          <t>Wafer-1465</t>
         </is>
       </c>
       <c r="B363" s="3" t="inlineStr">
@@ -4810,7 +4810,7 @@
     <row r="364">
       <c r="A364" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1513</t>
+          <t>Wafer-1473</t>
         </is>
       </c>
       <c r="B364" s="3" t="inlineStr">
@@ -4822,7 +4822,7 @@
     <row r="365">
       <c r="A365" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1514</t>
+          <t>Wafer-1477</t>
         </is>
       </c>
       <c r="B365" s="3" t="inlineStr">
@@ -4834,7 +4834,7 @@
     <row r="366">
       <c r="A366" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1515</t>
+          <t>Wafer-1482</t>
         </is>
       </c>
       <c r="B366" s="3" t="inlineStr">
@@ -4846,7 +4846,7 @@
     <row r="367">
       <c r="A367" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1516</t>
+          <t>Wafer-1519</t>
         </is>
       </c>
       <c r="B367" s="3" t="inlineStr">
@@ -4858,7 +4858,7 @@
     <row r="368">
       <c r="A368" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1517</t>
+          <t>Wafer-1521</t>
         </is>
       </c>
       <c r="B368" s="3" t="inlineStr">
@@ -4870,7 +4870,7 @@
     <row r="369">
       <c r="A369" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1518</t>
+          <t>Wafer-1524</t>
         </is>
       </c>
       <c r="B369" s="3" t="inlineStr">
@@ -4882,7 +4882,7 @@
     <row r="370">
       <c r="A370" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1519</t>
+          <t>Wafer-1527</t>
         </is>
       </c>
       <c r="B370" s="3" t="inlineStr">
@@ -4894,7 +4894,7 @@
     <row r="371">
       <c r="A371" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1520</t>
+          <t>Wafer-1539</t>
         </is>
       </c>
       <c r="B371" s="3" t="inlineStr">
@@ -4906,7 +4906,7 @@
     <row r="372">
       <c r="A372" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1522</t>
+          <t>Wafer-1545</t>
         </is>
       </c>
       <c r="B372" s="3" t="inlineStr">
@@ -4918,7 +4918,7 @@
     <row r="373">
       <c r="A373" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1523</t>
+          <t>Wafer-1564</t>
         </is>
       </c>
       <c r="B373" s="3" t="inlineStr">
@@ -4930,7 +4930,7 @@
     <row r="374">
       <c r="A374" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1524</t>
+          <t>Wafer-1571</t>
         </is>
       </c>
       <c r="B374" s="3" t="inlineStr">
@@ -4942,7 +4942,7 @@
     <row r="375">
       <c r="A375" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1525</t>
+          <t>Wafer-1581</t>
         </is>
       </c>
       <c r="B375" s="3" t="inlineStr">
@@ -4954,7 +4954,7 @@
     <row r="376">
       <c r="A376" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1526</t>
+          <t>Wafer-1591</t>
         </is>
       </c>
       <c r="B376" s="3" t="inlineStr">
@@ -4966,7 +4966,7 @@
     <row r="377">
       <c r="A377" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1527</t>
+          <t>Wafer-1596</t>
         </is>
       </c>
       <c r="B377" s="3" t="inlineStr">
@@ -4978,7 +4978,7 @@
     <row r="378">
       <c r="A378" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1528</t>
+          <t>Wafer-1619</t>
         </is>
       </c>
       <c r="B378" s="3" t="inlineStr">
@@ -4990,7 +4990,7 @@
     <row r="379">
       <c r="A379" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1529</t>
+          <t>Wafer-1623</t>
         </is>
       </c>
       <c r="B379" s="3" t="inlineStr">
@@ -5002,7 +5002,7 @@
     <row r="380">
       <c r="A380" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1530</t>
+          <t>Wafer-1661</t>
         </is>
       </c>
       <c r="B380" s="3" t="inlineStr">
@@ -5014,7 +5014,7 @@
     <row r="381">
       <c r="A381" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1531</t>
+          <t>Wafer-1675</t>
         </is>
       </c>
       <c r="B381" s="3" t="inlineStr">
@@ -5026,7 +5026,7 @@
     <row r="382">
       <c r="A382" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1532</t>
+          <t>Wafer-201</t>
         </is>
       </c>
       <c r="B382" s="3" t="inlineStr">
@@ -5038,7 +5038,7 @@
     <row r="383">
       <c r="A383" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1533</t>
+          <t>Wafer-202</t>
         </is>
       </c>
       <c r="B383" s="3" t="inlineStr">
@@ -5050,7 +5050,7 @@
     <row r="384">
       <c r="A384" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1534</t>
+          <t>Wafer-205</t>
         </is>
       </c>
       <c r="B384" s="3" t="inlineStr">
@@ -5062,7 +5062,7 @@
     <row r="385">
       <c r="A385" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1535</t>
+          <t>Wafer-207</t>
         </is>
       </c>
       <c r="B385" s="3" t="inlineStr">
@@ -5074,7 +5074,7 @@
     <row r="386">
       <c r="A386" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1536</t>
+          <t>Wafer-212</t>
         </is>
       </c>
       <c r="B386" s="3" t="inlineStr">
@@ -5086,7 +5086,7 @@
     <row r="387">
       <c r="A387" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1537</t>
+          <t>Wafer-215</t>
         </is>
       </c>
       <c r="B387" s="3" t="inlineStr">
@@ -5098,7 +5098,7 @@
     <row r="388">
       <c r="A388" s="3" t="inlineStr">
         <is>
-          <t>Wafer-902</t>
+          <t>Wafer-216</t>
         </is>
       </c>
       <c r="B388" s="3" t="inlineStr">
@@ -5110,7 +5110,7 @@
     <row r="389">
       <c r="A389" s="3" t="inlineStr">
         <is>
-          <t>Wafer-903</t>
+          <t>Wafer-218</t>
         </is>
       </c>
       <c r="B389" s="3" t="inlineStr">
@@ -5122,7 +5122,7 @@
     <row r="390">
       <c r="A390" s="3" t="inlineStr">
         <is>
-          <t>Wafer-904</t>
+          <t>Wafer-219</t>
         </is>
       </c>
       <c r="B390" s="3" t="inlineStr">
@@ -5134,7 +5134,7 @@
     <row r="391">
       <c r="A391" s="3" t="inlineStr">
         <is>
-          <t>Wafer-905</t>
+          <t>Wafer-220</t>
         </is>
       </c>
       <c r="B391" s="3" t="inlineStr">
@@ -5146,7 +5146,7 @@
     <row r="392">
       <c r="A392" s="3" t="inlineStr">
         <is>
-          <t>Wafer-906</t>
+          <t>Wafer-222</t>
         </is>
       </c>
       <c r="B392" s="3" t="inlineStr">
@@ -5158,7 +5158,7 @@
     <row r="393">
       <c r="A393" s="3" t="inlineStr">
         <is>
-          <t>Wafer-907</t>
+          <t>Wafer-223</t>
         </is>
       </c>
       <c r="B393" s="3" t="inlineStr">
@@ -5170,7 +5170,7 @@
     <row r="394">
       <c r="A394" s="3" t="inlineStr">
         <is>
-          <t>Wafer-908</t>
+          <t>Wafer-225</t>
         </is>
       </c>
       <c r="B394" s="3" t="inlineStr">
@@ -5182,7 +5182,7 @@
     <row r="395">
       <c r="A395" s="3" t="inlineStr">
         <is>
-          <t>Wafer-909</t>
+          <t>Wafer-226</t>
         </is>
       </c>
       <c r="B395" s="3" t="inlineStr">
@@ -5194,7 +5194,7 @@
     <row r="396">
       <c r="A396" s="3" t="inlineStr">
         <is>
-          <t>Wafer-910</t>
+          <t>Wafer-228</t>
         </is>
       </c>
       <c r="B396" s="3" t="inlineStr">
@@ -5206,7 +5206,7 @@
     <row r="397">
       <c r="A397" s="3" t="inlineStr">
         <is>
-          <t>Wafer-916</t>
+          <t>Wafer-229</t>
         </is>
       </c>
       <c r="B397" s="3" t="inlineStr">
@@ -5218,7 +5218,7 @@
     <row r="398">
       <c r="A398" s="3" t="inlineStr">
         <is>
-          <t>Wafer-919</t>
+          <t>Wafer-231</t>
         </is>
       </c>
       <c r="B398" s="3" t="inlineStr">
@@ -5230,7 +5230,7 @@
     <row r="399">
       <c r="A399" s="3" t="inlineStr">
         <is>
-          <t>Wafer-920</t>
+          <t>Wafer-234</t>
         </is>
       </c>
       <c r="B399" s="3" t="inlineStr">
@@ -5242,7 +5242,7 @@
     <row r="400">
       <c r="A400" s="3" t="inlineStr">
         <is>
-          <t>Wafer-921</t>
+          <t>Wafer-235</t>
         </is>
       </c>
       <c r="B400" s="3" t="inlineStr">
@@ -5254,7 +5254,7 @@
     <row r="401">
       <c r="A401" s="3" t="inlineStr">
         <is>
-          <t>Wafer-922</t>
+          <t>Wafer-237</t>
         </is>
       </c>
       <c r="B401" s="3" t="inlineStr">
@@ -5266,7 +5266,7 @@
     <row r="402">
       <c r="A402" s="3" t="inlineStr">
         <is>
-          <t>Wafer-923</t>
+          <t>Wafer-239</t>
         </is>
       </c>
       <c r="B402" s="3" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="403">
       <c r="A403" s="3" t="inlineStr">
         <is>
-          <t>Wafer-924</t>
+          <t>Wafer-240</t>
         </is>
       </c>
       <c r="B403" s="3" t="inlineStr">
@@ -5290,7 +5290,7 @@
     <row r="404">
       <c r="A404" s="3" t="inlineStr">
         <is>
-          <t>Wafer-925</t>
+          <t>Wafer-242</t>
         </is>
       </c>
       <c r="B404" s="3" t="inlineStr">
@@ -5302,7 +5302,7 @@
     <row r="405">
       <c r="A405" s="3" t="inlineStr">
         <is>
-          <t>Wafer-926</t>
+          <t>Wafer-243</t>
         </is>
       </c>
       <c r="B405" s="3" t="inlineStr">
@@ -5314,7 +5314,7 @@
     <row r="406">
       <c r="A406" s="3" t="inlineStr">
         <is>
-          <t>Wafer-927</t>
+          <t>Wafer-252</t>
         </is>
       </c>
       <c r="B406" s="3" t="inlineStr">
@@ -5326,7 +5326,7 @@
     <row r="407">
       <c r="A407" s="3" t="inlineStr">
         <is>
-          <t>Wafer-928</t>
+          <t>Wafer-254</t>
         </is>
       </c>
       <c r="B407" s="3" t="inlineStr">
@@ -5338,7 +5338,7 @@
     <row r="408">
       <c r="A408" s="3" t="inlineStr">
         <is>
-          <t>Wafer-929</t>
+          <t>Wafer-255</t>
         </is>
       </c>
       <c r="B408" s="3" t="inlineStr">
@@ -5350,7 +5350,7 @@
     <row r="409">
       <c r="A409" s="3" t="inlineStr">
         <is>
-          <t>Wafer-931</t>
+          <t>Wafer-257</t>
         </is>
       </c>
       <c r="B409" s="3" t="inlineStr">
@@ -5362,7 +5362,7 @@
     <row r="410">
       <c r="A410" s="3" t="inlineStr">
         <is>
-          <t>Wafer-932</t>
+          <t>Wafer-261</t>
         </is>
       </c>
       <c r="B410" s="3" t="inlineStr">
@@ -5374,7 +5374,7 @@
     <row r="411">
       <c r="A411" s="3" t="inlineStr">
         <is>
-          <t>Wafer-933</t>
+          <t>Wafer-262</t>
         </is>
       </c>
       <c r="B411" s="3" t="inlineStr">
@@ -5386,7 +5386,7 @@
     <row r="412">
       <c r="A412" s="3" t="inlineStr">
         <is>
-          <t>Wafer-934</t>
+          <t>Wafer-263</t>
         </is>
       </c>
       <c r="B412" s="3" t="inlineStr">
@@ -5398,7 +5398,7 @@
     <row r="413">
       <c r="A413" s="3" t="inlineStr">
         <is>
-          <t>Wafer-936</t>
+          <t>Wafer-264</t>
         </is>
       </c>
       <c r="B413" s="3" t="inlineStr">
@@ -5410,7 +5410,7 @@
     <row r="414">
       <c r="A414" s="3" t="inlineStr">
         <is>
-          <t>Wafer-938</t>
+          <t>Wafer-265</t>
         </is>
       </c>
       <c r="B414" s="3" t="inlineStr">
@@ -5422,7 +5422,7 @@
     <row r="415">
       <c r="A415" s="3" t="inlineStr">
         <is>
-          <t>Wafer-939</t>
+          <t>Wafer-267</t>
         </is>
       </c>
       <c r="B415" s="3" t="inlineStr">
@@ -5434,7 +5434,7 @@
     <row r="416">
       <c r="A416" s="3" t="inlineStr">
         <is>
-          <t>Wafer-940</t>
+          <t>Wafer-270</t>
         </is>
       </c>
       <c r="B416" s="3" t="inlineStr">
@@ -5446,7 +5446,7 @@
     <row r="417">
       <c r="A417" s="3" t="inlineStr">
         <is>
-          <t>Wafer-941</t>
+          <t>Wafer-271</t>
         </is>
       </c>
       <c r="B417" s="3" t="inlineStr">
@@ -5458,7 +5458,7 @@
     <row r="418">
       <c r="A418" s="3" t="inlineStr">
         <is>
-          <t>Wafer-942</t>
+          <t>Wafer-272</t>
         </is>
       </c>
       <c r="B418" s="3" t="inlineStr">
@@ -5470,7 +5470,7 @@
     <row r="419">
       <c r="A419" s="3" t="inlineStr">
         <is>
-          <t>Wafer-944</t>
+          <t>Wafer-274</t>
         </is>
       </c>
       <c r="B419" s="3" t="inlineStr">
@@ -5482,7 +5482,7 @@
     <row r="420">
       <c r="A420" s="3" t="inlineStr">
         <is>
-          <t>Wafer-945</t>
+          <t>Wafer-279</t>
         </is>
       </c>
       <c r="B420" s="3" t="inlineStr">
@@ -5494,7 +5494,7 @@
     <row r="421">
       <c r="A421" s="3" t="inlineStr">
         <is>
-          <t>Wafer-946</t>
+          <t>Wafer-281</t>
         </is>
       </c>
       <c r="B421" s="3" t="inlineStr">
@@ -5506,7 +5506,7 @@
     <row r="422">
       <c r="A422" s="3" t="inlineStr">
         <is>
-          <t>Wafer-947</t>
+          <t>Wafer-282</t>
         </is>
       </c>
       <c r="B422" s="3" t="inlineStr">
@@ -5518,7 +5518,7 @@
     <row r="423">
       <c r="A423" s="3" t="inlineStr">
         <is>
-          <t>Wafer-948</t>
+          <t>Wafer-283</t>
         </is>
       </c>
       <c r="B423" s="3" t="inlineStr">
@@ -5530,7 +5530,7 @@
     <row r="424">
       <c r="A424" s="3" t="inlineStr">
         <is>
-          <t>Wafer-949</t>
+          <t>Wafer-284</t>
         </is>
       </c>
       <c r="B424" s="3" t="inlineStr">
@@ -5542,7 +5542,7 @@
     <row r="425">
       <c r="A425" s="3" t="inlineStr">
         <is>
-          <t>Wafer-950</t>
+          <t>Wafer-286</t>
         </is>
       </c>
       <c r="B425" s="3" t="inlineStr">
@@ -5554,7 +5554,7 @@
     <row r="426">
       <c r="A426" s="3" t="inlineStr">
         <is>
-          <t>Wafer-951</t>
+          <t>Wafer-289</t>
         </is>
       </c>
       <c r="B426" s="3" t="inlineStr">
@@ -5566,7 +5566,7 @@
     <row r="427">
       <c r="A427" s="3" t="inlineStr">
         <is>
-          <t>Wafer-952</t>
+          <t>Wafer-290</t>
         </is>
       </c>
       <c r="B427" s="3" t="inlineStr">
@@ -5578,7 +5578,7 @@
     <row r="428">
       <c r="A428" s="3" t="inlineStr">
         <is>
-          <t>Wafer-955</t>
+          <t>Wafer-291</t>
         </is>
       </c>
       <c r="B428" s="3" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="429">
       <c r="A429" s="3" t="inlineStr">
         <is>
-          <t>Wafer-956</t>
+          <t>Wafer-293</t>
         </is>
       </c>
       <c r="B429" s="3" t="inlineStr">
@@ -5602,7 +5602,7 @@
     <row r="430">
       <c r="A430" s="3" t="inlineStr">
         <is>
-          <t>Wafer-957</t>
+          <t>Wafer-295</t>
         </is>
       </c>
       <c r="B430" s="3" t="inlineStr">
@@ -5614,7 +5614,7 @@
     <row r="431">
       <c r="A431" s="3" t="inlineStr">
         <is>
-          <t>Wafer-958</t>
+          <t>Wafer-298</t>
         </is>
       </c>
       <c r="B431" s="3" t="inlineStr">
@@ -5626,7 +5626,7 @@
     <row r="432">
       <c r="A432" s="3" t="inlineStr">
         <is>
-          <t>Wafer-959</t>
+          <t>Wafer-300</t>
         </is>
       </c>
       <c r="B432" s="3" t="inlineStr">
@@ -5638,7 +5638,7 @@
     <row r="433">
       <c r="A433" s="3" t="inlineStr">
         <is>
-          <t>Wafer-960</t>
+          <t>Wafer-902</t>
         </is>
       </c>
       <c r="B433" s="3" t="inlineStr">
@@ -5650,7 +5650,7 @@
     <row r="434">
       <c r="A434" s="3" t="inlineStr">
         <is>
-          <t>Wafer-961</t>
+          <t>Wafer-905</t>
         </is>
       </c>
       <c r="B434" s="3" t="inlineStr">
@@ -5662,7 +5662,7 @@
     <row r="435">
       <c r="A435" s="3" t="inlineStr">
         <is>
-          <t>Wafer-963</t>
+          <t>Wafer-906</t>
         </is>
       </c>
       <c r="B435" s="3" t="inlineStr">
@@ -5674,7 +5674,7 @@
     <row r="436">
       <c r="A436" s="3" t="inlineStr">
         <is>
-          <t>Wafer-964</t>
+          <t>Wafer-907</t>
         </is>
       </c>
       <c r="B436" s="3" t="inlineStr">
@@ -5686,7 +5686,7 @@
     <row r="437">
       <c r="A437" s="3" t="inlineStr">
         <is>
-          <t>Wafer-965</t>
+          <t>Wafer-908</t>
         </is>
       </c>
       <c r="B437" s="3" t="inlineStr">
@@ -5698,7 +5698,7 @@
     <row r="438">
       <c r="A438" s="3" t="inlineStr">
         <is>
-          <t>Wafer-967</t>
+          <t>Wafer-909</t>
         </is>
       </c>
       <c r="B438" s="3" t="inlineStr">
@@ -5710,7 +5710,7 @@
     <row r="439">
       <c r="A439" s="3" t="inlineStr">
         <is>
-          <t>Wafer-968</t>
+          <t>Wafer-911</t>
         </is>
       </c>
       <c r="B439" s="3" t="inlineStr">
@@ -5722,7 +5722,7 @@
     <row r="440">
       <c r="A440" s="3" t="inlineStr">
         <is>
-          <t>Wafer-969</t>
+          <t>Wafer-913</t>
         </is>
       </c>
       <c r="B440" s="3" t="inlineStr">
@@ -5734,7 +5734,7 @@
     <row r="441">
       <c r="A441" s="3" t="inlineStr">
         <is>
-          <t>Wafer-970</t>
+          <t>Wafer-915</t>
         </is>
       </c>
       <c r="B441" s="3" t="inlineStr">
@@ -5746,7 +5746,7 @@
     <row r="442">
       <c r="A442" s="3" t="inlineStr">
         <is>
-          <t>Wafer-971</t>
+          <t>Wafer-916</t>
         </is>
       </c>
       <c r="B442" s="3" t="inlineStr">
@@ -5758,7 +5758,7 @@
     <row r="443">
       <c r="A443" s="3" t="inlineStr">
         <is>
-          <t>Wafer-973</t>
+          <t>Wafer-917</t>
         </is>
       </c>
       <c r="B443" s="3" t="inlineStr">
@@ -5770,7 +5770,7 @@
     <row r="444">
       <c r="A444" s="3" t="inlineStr">
         <is>
-          <t>Wafer-974</t>
+          <t>Wafer-921</t>
         </is>
       </c>
       <c r="B444" s="3" t="inlineStr">
@@ -5782,7 +5782,7 @@
     <row r="445">
       <c r="A445" s="3" t="inlineStr">
         <is>
-          <t>Wafer-975</t>
+          <t>Wafer-923</t>
         </is>
       </c>
       <c r="B445" s="3" t="inlineStr">
@@ -5794,7 +5794,7 @@
     <row r="446">
       <c r="A446" s="3" t="inlineStr">
         <is>
-          <t>Wafer-976</t>
+          <t>Wafer-925</t>
         </is>
       </c>
       <c r="B446" s="3" t="inlineStr">
@@ -5806,7 +5806,7 @@
     <row r="447">
       <c r="A447" s="3" t="inlineStr">
         <is>
-          <t>Wafer-978</t>
+          <t>Wafer-926</t>
         </is>
       </c>
       <c r="B447" s="3" t="inlineStr">
@@ -5818,7 +5818,7 @@
     <row r="448">
       <c r="A448" s="3" t="inlineStr">
         <is>
-          <t>Wafer-979</t>
+          <t>Wafer-928</t>
         </is>
       </c>
       <c r="B448" s="3" t="inlineStr">
@@ -5830,7 +5830,7 @@
     <row r="449">
       <c r="A449" s="3" t="inlineStr">
         <is>
-          <t>Wafer-980</t>
+          <t>Wafer-932</t>
         </is>
       </c>
       <c r="B449" s="3" t="inlineStr">
@@ -5842,7 +5842,7 @@
     <row r="450">
       <c r="A450" s="3" t="inlineStr">
         <is>
-          <t>Wafer-981</t>
+          <t>Wafer-933</t>
         </is>
       </c>
       <c r="B450" s="3" t="inlineStr">
@@ -5854,7 +5854,7 @@
     <row r="451">
       <c r="A451" s="3" t="inlineStr">
         <is>
-          <t>Wafer-982</t>
+          <t>Wafer-934</t>
         </is>
       </c>
       <c r="B451" s="3" t="inlineStr">
@@ -5866,7 +5866,7 @@
     <row r="452">
       <c r="A452" s="3" t="inlineStr">
         <is>
-          <t>Wafer-983</t>
+          <t>Wafer-935</t>
         </is>
       </c>
       <c r="B452" s="3" t="inlineStr">
@@ -5878,7 +5878,7 @@
     <row r="453">
       <c r="A453" s="3" t="inlineStr">
         <is>
-          <t>Wafer-984</t>
+          <t>Wafer-938</t>
         </is>
       </c>
       <c r="B453" s="3" t="inlineStr">
@@ -5890,7 +5890,7 @@
     <row r="454">
       <c r="A454" s="3" t="inlineStr">
         <is>
-          <t>Wafer-986</t>
+          <t>Wafer-939</t>
         </is>
       </c>
       <c r="B454" s="3" t="inlineStr">
@@ -5902,7 +5902,7 @@
     <row r="455">
       <c r="A455" s="3" t="inlineStr">
         <is>
-          <t>Wafer-988</t>
+          <t>Wafer-944</t>
         </is>
       </c>
       <c r="B455" s="3" t="inlineStr">
@@ -5914,7 +5914,7 @@
     <row r="456">
       <c r="A456" s="3" t="inlineStr">
         <is>
-          <t>Wafer-989</t>
+          <t>Wafer-949</t>
         </is>
       </c>
       <c r="B456" s="3" t="inlineStr">
@@ -5926,7 +5926,7 @@
     <row r="457">
       <c r="A457" s="3" t="inlineStr">
         <is>
-          <t>Wafer-993</t>
+          <t>Wafer-950</t>
         </is>
       </c>
       <c r="B457" s="3" t="inlineStr">
@@ -5938,7 +5938,7 @@
     <row r="458">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>Wafer-994</t>
+          <t>Wafer-952</t>
         </is>
       </c>
       <c r="B458" s="3" t="inlineStr">
@@ -5950,7 +5950,7 @@
     <row r="459">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>Wafer-996</t>
+          <t>Wafer-953</t>
         </is>
       </c>
       <c r="B459" s="3" t="inlineStr">
@@ -5962,7 +5962,7 @@
     <row r="460">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>Wafer-997</t>
+          <t>Wafer-954</t>
         </is>
       </c>
       <c r="B460" s="3" t="inlineStr">
@@ -5974,19 +5974,19 @@
     <row r="461">
       <c r="A461" s="3" t="inlineStr">
         <is>
-          <t>Wafer-998</t>
+          <t>Wafer-955</t>
         </is>
       </c>
       <c r="B461" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="3" t="inlineStr">
         <is>
-          <t>Wafer-999</t>
+          <t>Wafer-961</t>
         </is>
       </c>
       <c r="B462" s="3" t="inlineStr">
@@ -5998,31 +5998,31 @@
     <row r="463">
       <c r="A463" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1000</t>
+          <t>Wafer-965</t>
         </is>
       </c>
       <c r="B463" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="3" t="inlineStr">
         <is>
-          <t>Wafer-802</t>
+          <t>Wafer-966</t>
         </is>
       </c>
       <c r="B464" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="3" t="inlineStr">
         <is>
-          <t>Wafer-805</t>
+          <t>Wafer-972</t>
         </is>
       </c>
       <c r="B465" s="3" t="inlineStr">
@@ -6034,7 +6034,7 @@
     <row r="466">
       <c r="A466" s="3" t="inlineStr">
         <is>
-          <t>Wafer-806</t>
+          <t>Wafer-973</t>
         </is>
       </c>
       <c r="B466" s="3" t="inlineStr">
@@ -6046,7 +6046,7 @@
     <row r="467">
       <c r="A467" s="3" t="inlineStr">
         <is>
-          <t>Wafer-810</t>
+          <t>Wafer-977</t>
         </is>
       </c>
       <c r="B467" s="3" t="inlineStr">
@@ -6058,7 +6058,7 @@
     <row r="468">
       <c r="A468" s="3" t="inlineStr">
         <is>
-          <t>Wafer-811</t>
+          <t>Wafer-978</t>
         </is>
       </c>
       <c r="B468" s="3" t="inlineStr">
@@ -6070,7 +6070,7 @@
     <row r="469">
       <c r="A469" s="3" t="inlineStr">
         <is>
-          <t>Wafer-812</t>
+          <t>Wafer-980</t>
         </is>
       </c>
       <c r="B469" s="3" t="inlineStr">
@@ -6082,7 +6082,7 @@
     <row r="470">
       <c r="A470" s="3" t="inlineStr">
         <is>
-          <t>Wafer-814</t>
+          <t>Wafer-983</t>
         </is>
       </c>
       <c r="B470" s="3" t="inlineStr">
@@ -6094,7 +6094,7 @@
     <row r="471">
       <c r="A471" s="3" t="inlineStr">
         <is>
-          <t>Wafer-815</t>
+          <t>Wafer-987</t>
         </is>
       </c>
       <c r="B471" s="3" t="inlineStr">
@@ -6106,7 +6106,7 @@
     <row r="472">
       <c r="A472" s="3" t="inlineStr">
         <is>
-          <t>Wafer-816</t>
+          <t>Wafer-988</t>
         </is>
       </c>
       <c r="B472" s="3" t="inlineStr">
@@ -6118,19 +6118,19 @@
     <row r="473">
       <c r="A473" s="3" t="inlineStr">
         <is>
-          <t>Wafer-819</t>
+          <t>Wafer-989</t>
         </is>
       </c>
       <c r="B473" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="3" t="inlineStr">
         <is>
-          <t>Wafer-820</t>
+          <t>Wafer-993</t>
         </is>
       </c>
       <c r="B474" s="3" t="inlineStr">
@@ -6142,7 +6142,7 @@
     <row r="475">
       <c r="A475" s="3" t="inlineStr">
         <is>
-          <t>Wafer-821</t>
+          <t>Wafer-994</t>
         </is>
       </c>
       <c r="B475" s="3" t="inlineStr">
@@ -6154,7 +6154,7 @@
     <row r="476">
       <c r="A476" s="3" t="inlineStr">
         <is>
-          <t>Wafer-823</t>
+          <t>Wafer-995</t>
         </is>
       </c>
       <c r="B476" s="3" t="inlineStr">
@@ -6166,7 +6166,7 @@
     <row r="477">
       <c r="A477" s="3" t="inlineStr">
         <is>
-          <t>Wafer-825</t>
+          <t>Wafer-996</t>
         </is>
       </c>
       <c r="B477" s="3" t="inlineStr">
@@ -6178,7 +6178,7 @@
     <row r="478">
       <c r="A478" s="3" t="inlineStr">
         <is>
-          <t>Wafer-826</t>
+          <t>Wafer-1000</t>
         </is>
       </c>
       <c r="B478" s="3" t="inlineStr">
@@ -6190,7 +6190,7 @@
     <row r="479">
       <c r="A479" s="3" t="inlineStr">
         <is>
-          <t>Wafer-827</t>
+          <t>Wafer-1107</t>
         </is>
       </c>
       <c r="B479" s="3" t="inlineStr">
@@ -6202,7 +6202,7 @@
     <row r="480">
       <c r="A480" s="3" t="inlineStr">
         <is>
-          <t>Wafer-828</t>
+          <t>Wafer-1108</t>
         </is>
       </c>
       <c r="B480" s="3" t="inlineStr">
@@ -6214,7 +6214,7 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>Wafer-829</t>
+          <t>Wafer-1112</t>
         </is>
       </c>
       <c r="B481" s="3" t="inlineStr">
@@ -6226,7 +6226,7 @@
     <row r="482">
       <c r="A482" s="3" t="inlineStr">
         <is>
-          <t>Wafer-830</t>
+          <t>Wafer-1114</t>
         </is>
       </c>
       <c r="B482" s="3" t="inlineStr">
@@ -6238,7 +6238,7 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>Wafer-832</t>
+          <t>Wafer-1116</t>
         </is>
       </c>
       <c r="B483" s="3" t="inlineStr">
@@ -6250,19 +6250,19 @@
     <row r="484">
       <c r="A484" s="3" t="inlineStr">
         <is>
-          <t>Wafer-833</t>
+          <t>Wafer-1117</t>
         </is>
       </c>
       <c r="B484" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="3" t="inlineStr">
         <is>
-          <t>Wafer-834</t>
+          <t>Wafer-1120</t>
         </is>
       </c>
       <c r="B485" s="3" t="inlineStr">
@@ -6274,7 +6274,7 @@
     <row r="486">
       <c r="A486" s="3" t="inlineStr">
         <is>
-          <t>Wafer-836</t>
+          <t>Wafer-1121</t>
         </is>
       </c>
       <c r="B486" s="3" t="inlineStr">
@@ -6286,7 +6286,7 @@
     <row r="487">
       <c r="A487" s="3" t="inlineStr">
         <is>
-          <t>Wafer-837</t>
+          <t>Wafer-1124</t>
         </is>
       </c>
       <c r="B487" s="3" t="inlineStr">
@@ -6298,7 +6298,7 @@
     <row r="488">
       <c r="A488" s="3" t="inlineStr">
         <is>
-          <t>Wafer-840</t>
+          <t>Wafer-1126</t>
         </is>
       </c>
       <c r="B488" s="3" t="inlineStr">
@@ -6310,7 +6310,7 @@
     <row r="489">
       <c r="A489" s="3" t="inlineStr">
         <is>
-          <t>Wafer-841</t>
+          <t>Wafer-1129</t>
         </is>
       </c>
       <c r="B489" s="3" t="inlineStr">
@@ -6322,19 +6322,19 @@
     <row r="490">
       <c r="A490" s="3" t="inlineStr">
         <is>
-          <t>Wafer-842</t>
+          <t>Wafer-1131</t>
         </is>
       </c>
       <c r="B490" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="3" t="inlineStr">
         <is>
-          <t>Wafer-843</t>
+          <t>Wafer-1132</t>
         </is>
       </c>
       <c r="B491" s="3" t="inlineStr">
@@ -6346,7 +6346,7 @@
     <row r="492">
       <c r="A492" s="3" t="inlineStr">
         <is>
-          <t>Wafer-844</t>
+          <t>Wafer-1134</t>
         </is>
       </c>
       <c r="B492" s="3" t="inlineStr">
@@ -6358,7 +6358,7 @@
     <row r="493">
       <c r="A493" s="3" t="inlineStr">
         <is>
-          <t>Wafer-846</t>
+          <t>Wafer-1135</t>
         </is>
       </c>
       <c r="B493" s="3" t="inlineStr">
@@ -6370,7 +6370,7 @@
     <row r="494">
       <c r="A494" s="3" t="inlineStr">
         <is>
-          <t>Wafer-847</t>
+          <t>Wafer-1140</t>
         </is>
       </c>
       <c r="B494" s="3" t="inlineStr">
@@ -6382,7 +6382,7 @@
     <row r="495">
       <c r="A495" s="3" t="inlineStr">
         <is>
-          <t>Wafer-851</t>
+          <t>Wafer-1142</t>
         </is>
       </c>
       <c r="B495" s="3" t="inlineStr">
@@ -6394,7 +6394,7 @@
     <row r="496">
       <c r="A496" s="3" t="inlineStr">
         <is>
-          <t>Wafer-853</t>
+          <t>Wafer-1146</t>
         </is>
       </c>
       <c r="B496" s="3" t="inlineStr">
@@ -6406,7 +6406,7 @@
     <row r="497">
       <c r="A497" s="3" t="inlineStr">
         <is>
-          <t>Wafer-854</t>
+          <t>Wafer-1148</t>
         </is>
       </c>
       <c r="B497" s="3" t="inlineStr">
@@ -6418,7 +6418,7 @@
     <row r="498">
       <c r="A498" s="3" t="inlineStr">
         <is>
-          <t>Wafer-855</t>
+          <t>Wafer-1150</t>
         </is>
       </c>
       <c r="B498" s="3" t="inlineStr">
@@ -6430,7 +6430,7 @@
     <row r="499">
       <c r="A499" s="3" t="inlineStr">
         <is>
-          <t>Wafer-856</t>
+          <t>Wafer-1153</t>
         </is>
       </c>
       <c r="B499" s="3" t="inlineStr">
@@ -6442,7 +6442,7 @@
     <row r="500">
       <c r="A500" s="3" t="inlineStr">
         <is>
-          <t>Wafer-857</t>
+          <t>Wafer-1154</t>
         </is>
       </c>
       <c r="B500" s="3" t="inlineStr">
@@ -6454,7 +6454,7 @@
     <row r="501">
       <c r="A501" s="3" t="inlineStr">
         <is>
-          <t>Wafer-858</t>
+          <t>Wafer-1155</t>
         </is>
       </c>
       <c r="B501" s="3" t="inlineStr">
@@ -6466,7 +6466,7 @@
     <row r="502">
       <c r="A502" s="3" t="inlineStr">
         <is>
-          <t>Wafer-860</t>
+          <t>Wafer-1156</t>
         </is>
       </c>
       <c r="B502" s="3" t="inlineStr">
@@ -6478,7 +6478,7 @@
     <row r="503">
       <c r="A503" s="3" t="inlineStr">
         <is>
-          <t>Wafer-862</t>
+          <t>Wafer-1160</t>
         </is>
       </c>
       <c r="B503" s="3" t="inlineStr">
@@ -6490,7 +6490,7 @@
     <row r="504">
       <c r="A504" s="3" t="inlineStr">
         <is>
-          <t>Wafer-863</t>
+          <t>Wafer-1162</t>
         </is>
       </c>
       <c r="B504" s="3" t="inlineStr">
@@ -6502,7 +6502,7 @@
     <row r="505">
       <c r="A505" s="3" t="inlineStr">
         <is>
-          <t>Wafer-864</t>
+          <t>Wafer-1163</t>
         </is>
       </c>
       <c r="B505" s="3" t="inlineStr">
@@ -6514,7 +6514,7 @@
     <row r="506">
       <c r="A506" s="3" t="inlineStr">
         <is>
-          <t>Wafer-865</t>
+          <t>Wafer-1164</t>
         </is>
       </c>
       <c r="B506" s="3" t="inlineStr">
@@ -6526,7 +6526,7 @@
     <row r="507">
       <c r="A507" s="3" t="inlineStr">
         <is>
-          <t>Wafer-866</t>
+          <t>Wafer-1166</t>
         </is>
       </c>
       <c r="B507" s="3" t="inlineStr">
@@ -6538,7 +6538,7 @@
     <row r="508">
       <c r="A508" s="3" t="inlineStr">
         <is>
-          <t>Wafer-869</t>
+          <t>Wafer-1168</t>
         </is>
       </c>
       <c r="B508" s="3" t="inlineStr">
@@ -6550,7 +6550,7 @@
     <row r="509">
       <c r="A509" s="3" t="inlineStr">
         <is>
-          <t>Wafer-870</t>
+          <t>Wafer-1170</t>
         </is>
       </c>
       <c r="B509" s="3" t="inlineStr">
@@ -6562,7 +6562,7 @@
     <row r="510">
       <c r="A510" s="3" t="inlineStr">
         <is>
-          <t>Wafer-871</t>
+          <t>Wafer-1173</t>
         </is>
       </c>
       <c r="B510" s="3" t="inlineStr">
@@ -6574,7 +6574,7 @@
     <row r="511">
       <c r="A511" s="3" t="inlineStr">
         <is>
-          <t>Wafer-872</t>
+          <t>Wafer-1174</t>
         </is>
       </c>
       <c r="B511" s="3" t="inlineStr">
@@ -6586,7 +6586,7 @@
     <row r="512">
       <c r="A512" s="3" t="inlineStr">
         <is>
-          <t>Wafer-875</t>
+          <t>Wafer-1176</t>
         </is>
       </c>
       <c r="B512" s="3" t="inlineStr">
@@ -6598,7 +6598,7 @@
     <row r="513">
       <c r="A513" s="3" t="inlineStr">
         <is>
-          <t>Wafer-877</t>
+          <t>Wafer-1180</t>
         </is>
       </c>
       <c r="B513" s="3" t="inlineStr">
@@ -6610,7 +6610,7 @@
     <row r="514">
       <c r="A514" s="3" t="inlineStr">
         <is>
-          <t>Wafer-880</t>
+          <t>Wafer-1181</t>
         </is>
       </c>
       <c r="B514" s="3" t="inlineStr">
@@ -6622,7 +6622,7 @@
     <row r="515">
       <c r="A515" s="3" t="inlineStr">
         <is>
-          <t>Wafer-881</t>
+          <t>Wafer-1182</t>
         </is>
       </c>
       <c r="B515" s="3" t="inlineStr">
@@ -6634,7 +6634,7 @@
     <row r="516">
       <c r="A516" s="3" t="inlineStr">
         <is>
-          <t>Wafer-882</t>
+          <t>Wafer-1183</t>
         </is>
       </c>
       <c r="B516" s="3" t="inlineStr">
@@ -6646,7 +6646,7 @@
     <row r="517">
       <c r="A517" s="3" t="inlineStr">
         <is>
-          <t>Wafer-883</t>
+          <t>Wafer-1185</t>
         </is>
       </c>
       <c r="B517" s="3" t="inlineStr">
@@ -6658,7 +6658,7 @@
     <row r="518">
       <c r="A518" s="3" t="inlineStr">
         <is>
-          <t>Wafer-884</t>
+          <t>Wafer-1189</t>
         </is>
       </c>
       <c r="B518" s="3" t="inlineStr">
@@ -6670,7 +6670,7 @@
     <row r="519">
       <c r="A519" s="3" t="inlineStr">
         <is>
-          <t>Wafer-886</t>
+          <t>Wafer-1194</t>
         </is>
       </c>
       <c r="B519" s="3" t="inlineStr">
@@ -6682,7 +6682,7 @@
     <row r="520">
       <c r="A520" s="3" t="inlineStr">
         <is>
-          <t>Wafer-887</t>
+          <t>Wafer-1195</t>
         </is>
       </c>
       <c r="B520" s="3" t="inlineStr">
@@ -6694,7 +6694,7 @@
     <row r="521">
       <c r="A521" s="3" t="inlineStr">
         <is>
-          <t>Wafer-888</t>
+          <t>Wafer-1199</t>
         </is>
       </c>
       <c r="B521" s="3" t="inlineStr">
@@ -6706,7 +6706,7 @@
     <row r="522">
       <c r="A522" s="3" t="inlineStr">
         <is>
-          <t>Wafer-889</t>
+          <t>Wafer-1200</t>
         </is>
       </c>
       <c r="B522" s="3" t="inlineStr">
@@ -6718,7 +6718,7 @@
     <row r="523">
       <c r="A523" s="3" t="inlineStr">
         <is>
-          <t>Wafer-890</t>
+          <t>Wafer-1204</t>
         </is>
       </c>
       <c r="B523" s="3" t="inlineStr">
@@ -6730,7 +6730,7 @@
     <row r="524">
       <c r="A524" s="3" t="inlineStr">
         <is>
-          <t>Wafer-891</t>
+          <t>Wafer-1205</t>
         </is>
       </c>
       <c r="B524" s="3" t="inlineStr">
@@ -6742,7 +6742,7 @@
     <row r="525">
       <c r="A525" s="3" t="inlineStr">
         <is>
-          <t>Wafer-893</t>
+          <t>Wafer-1208</t>
         </is>
       </c>
       <c r="B525" s="3" t="inlineStr">
@@ -6754,19 +6754,19 @@
     <row r="526">
       <c r="A526" s="3" t="inlineStr">
         <is>
-          <t>Wafer-895</t>
+          <t>Wafer-1209</t>
         </is>
       </c>
       <c r="B526" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="3" t="inlineStr">
         <is>
-          <t>Wafer-896</t>
+          <t>Wafer-1212</t>
         </is>
       </c>
       <c r="B527" s="3" t="inlineStr">
@@ -6778,19 +6778,19 @@
     <row r="528">
       <c r="A528" s="3" t="inlineStr">
         <is>
-          <t>Wafer-897</t>
+          <t>Wafer-1213</t>
         </is>
       </c>
       <c r="B528" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="3" t="inlineStr">
         <is>
-          <t>Wafer-898</t>
+          <t>Wafer-1216</t>
         </is>
       </c>
       <c r="B529" s="3" t="inlineStr">
@@ -6802,7 +6802,7 @@
     <row r="530">
       <c r="A530" s="3" t="inlineStr">
         <is>
-          <t>Wafer-899</t>
+          <t>Wafer-1217</t>
         </is>
       </c>
       <c r="B530" s="3" t="inlineStr">
@@ -6814,19 +6814,19 @@
     <row r="531">
       <c r="A531" s="3" t="inlineStr">
         <is>
-          <t>Wafer-900</t>
+          <t>Wafer-1218</t>
         </is>
       </c>
       <c r="B531" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1401</t>
+          <t>Wafer-1220</t>
         </is>
       </c>
       <c r="B532" s="3" t="inlineStr">
@@ -6838,7 +6838,7 @@
     <row r="533">
       <c r="A533" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1403</t>
+          <t>Wafer-1221</t>
         </is>
       </c>
       <c r="B533" s="3" t="inlineStr">
@@ -6850,7 +6850,7 @@
     <row r="534">
       <c r="A534" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1404</t>
+          <t>Wafer-1228</t>
         </is>
       </c>
       <c r="B534" s="3" t="inlineStr">
@@ -6862,7 +6862,7 @@
     <row r="535">
       <c r="A535" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1405</t>
+          <t>Wafer-1230</t>
         </is>
       </c>
       <c r="B535" s="3" t="inlineStr">
@@ -6874,7 +6874,7 @@
     <row r="536">
       <c r="A536" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1407</t>
+          <t>Wafer-1232</t>
         </is>
       </c>
       <c r="B536" s="3" t="inlineStr">
@@ -6886,7 +6886,7 @@
     <row r="537">
       <c r="A537" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1408</t>
+          <t>Wafer-1234</t>
         </is>
       </c>
       <c r="B537" s="3" t="inlineStr">
@@ -6898,31 +6898,31 @@
     <row r="538">
       <c r="A538" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1409</t>
+          <t>Wafer-1235</t>
         </is>
       </c>
       <c r="B538" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1410</t>
+          <t>Wafer-1236</t>
         </is>
       </c>
       <c r="B539" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1411</t>
+          <t>Wafer-1237</t>
         </is>
       </c>
       <c r="B540" s="3" t="inlineStr">
@@ -6934,7 +6934,7 @@
     <row r="541">
       <c r="A541" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1412</t>
+          <t>Wafer-1241</t>
         </is>
       </c>
       <c r="B541" s="3" t="inlineStr">
@@ -6946,7 +6946,7 @@
     <row r="542">
       <c r="A542" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1413</t>
+          <t>Wafer-1244</t>
         </is>
       </c>
       <c r="B542" s="3" t="inlineStr">
@@ -6958,19 +6958,19 @@
     <row r="543">
       <c r="A543" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1414</t>
+          <t>Wafer-1246</t>
         </is>
       </c>
       <c r="B543" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1415</t>
+          <t>Wafer-1247</t>
         </is>
       </c>
       <c r="B544" s="3" t="inlineStr">
@@ -6982,7 +6982,7 @@
     <row r="545">
       <c r="A545" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1416</t>
+          <t>Wafer-1248</t>
         </is>
       </c>
       <c r="B545" s="3" t="inlineStr">
@@ -6994,7 +6994,7 @@
     <row r="546">
       <c r="A546" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1417</t>
+          <t>Wafer-1249</t>
         </is>
       </c>
       <c r="B546" s="3" t="inlineStr">
@@ -7006,7 +7006,7 @@
     <row r="547">
       <c r="A547" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1418</t>
+          <t>Wafer-1250</t>
         </is>
       </c>
       <c r="B547" s="3" t="inlineStr">
@@ -7018,7 +7018,7 @@
     <row r="548">
       <c r="A548" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1419</t>
+          <t>Wafer-1258</t>
         </is>
       </c>
       <c r="B548" s="3" t="inlineStr">
@@ -7030,7 +7030,7 @@
     <row r="549">
       <c r="A549" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1421</t>
+          <t>Wafer-1259</t>
         </is>
       </c>
       <c r="B549" s="3" t="inlineStr">
@@ -7042,7 +7042,7 @@
     <row r="550">
       <c r="A550" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1422</t>
+          <t>Wafer-1260</t>
         </is>
       </c>
       <c r="B550" s="3" t="inlineStr">
@@ -7054,7 +7054,7 @@
     <row r="551">
       <c r="A551" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1424</t>
+          <t>Wafer-1262</t>
         </is>
       </c>
       <c r="B551" s="3" t="inlineStr">
@@ -7066,7 +7066,7 @@
     <row r="552">
       <c r="A552" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1425</t>
+          <t>Wafer-1263</t>
         </is>
       </c>
       <c r="B552" s="3" t="inlineStr">
@@ -7078,7 +7078,7 @@
     <row r="553">
       <c r="A553" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1426</t>
+          <t>Wafer-1264</t>
         </is>
       </c>
       <c r="B553" s="3" t="inlineStr">
@@ -7090,7 +7090,7 @@
     <row r="554">
       <c r="A554" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1427</t>
+          <t>Wafer-1265</t>
         </is>
       </c>
       <c r="B554" s="3" t="inlineStr">
@@ -7102,7 +7102,7 @@
     <row r="555">
       <c r="A555" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1428</t>
+          <t>Wafer-1267</t>
         </is>
       </c>
       <c r="B555" s="3" t="inlineStr">
@@ -7114,7 +7114,7 @@
     <row r="556">
       <c r="A556" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1429</t>
+          <t>Wafer-1268</t>
         </is>
       </c>
       <c r="B556" s="3" t="inlineStr">
@@ -7126,7 +7126,7 @@
     <row r="557">
       <c r="A557" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1430</t>
+          <t>Wafer-1269</t>
         </is>
       </c>
       <c r="B557" s="3" t="inlineStr">
@@ -7138,7 +7138,7 @@
     <row r="558">
       <c r="A558" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1431</t>
+          <t>Wafer-1270</t>
         </is>
       </c>
       <c r="B558" s="3" t="inlineStr">
@@ -7150,7 +7150,7 @@
     <row r="559">
       <c r="A559" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1432</t>
+          <t>Wafer-1271</t>
         </is>
       </c>
       <c r="B559" s="3" t="inlineStr">
@@ -7162,7 +7162,7 @@
     <row r="560">
       <c r="A560" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1433</t>
+          <t>Wafer-1274</t>
         </is>
       </c>
       <c r="B560" s="3" t="inlineStr">
@@ -7174,7 +7174,7 @@
     <row r="561">
       <c r="A561" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1434</t>
+          <t>Wafer-1275</t>
         </is>
       </c>
       <c r="B561" s="3" t="inlineStr">
@@ -7186,7 +7186,7 @@
     <row r="562">
       <c r="A562" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1435</t>
+          <t>Wafer-1278</t>
         </is>
       </c>
       <c r="B562" s="3" t="inlineStr">
@@ -7198,7 +7198,7 @@
     <row r="563">
       <c r="A563" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1436</t>
+          <t>Wafer-1284</t>
         </is>
       </c>
       <c r="B563" s="3" t="inlineStr">
@@ -7210,7 +7210,7 @@
     <row r="564">
       <c r="A564" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1437</t>
+          <t>Wafer-1288</t>
         </is>
       </c>
       <c r="B564" s="3" t="inlineStr">
@@ -7222,7 +7222,7 @@
     <row r="565">
       <c r="A565" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1438</t>
+          <t>Wafer-1290</t>
         </is>
       </c>
       <c r="B565" s="3" t="inlineStr">
@@ -7234,7 +7234,7 @@
     <row r="566">
       <c r="A566" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1439</t>
+          <t>Wafer-1291</t>
         </is>
       </c>
       <c r="B566" s="3" t="inlineStr">
@@ -7246,7 +7246,7 @@
     <row r="567">
       <c r="A567" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1440</t>
+          <t>Wafer-1299</t>
         </is>
       </c>
       <c r="B567" s="3" t="inlineStr">
@@ -7258,7 +7258,7 @@
     <row r="568">
       <c r="A568" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1442</t>
+          <t>Wafer-1300</t>
         </is>
       </c>
       <c r="B568" s="3" t="inlineStr">
@@ -7270,7 +7270,7 @@
     <row r="569">
       <c r="A569" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1443</t>
+          <t>Wafer-1401</t>
         </is>
       </c>
       <c r="B569" s="3" t="inlineStr">
@@ -7282,7 +7282,7 @@
     <row r="570">
       <c r="A570" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1445</t>
+          <t>Wafer-1403</t>
         </is>
       </c>
       <c r="B570" s="3" t="inlineStr">
@@ -7294,7 +7294,7 @@
     <row r="571">
       <c r="A571" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1447</t>
+          <t>Wafer-1404</t>
         </is>
       </c>
       <c r="B571" s="3" t="inlineStr">
@@ -7306,7 +7306,7 @@
     <row r="572">
       <c r="A572" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1448</t>
+          <t>Wafer-1405</t>
         </is>
       </c>
       <c r="B572" s="3" t="inlineStr">
@@ -7318,7 +7318,7 @@
     <row r="573">
       <c r="A573" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1450</t>
+          <t>Wafer-1408</t>
         </is>
       </c>
       <c r="B573" s="3" t="inlineStr">
@@ -7330,7 +7330,7 @@
     <row r="574">
       <c r="A574" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1451</t>
+          <t>Wafer-1409</t>
         </is>
       </c>
       <c r="B574" s="3" t="inlineStr">
@@ -7342,7 +7342,7 @@
     <row r="575">
       <c r="A575" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1452</t>
+          <t>Wafer-1415</t>
         </is>
       </c>
       <c r="B575" s="3" t="inlineStr">
@@ -7354,7 +7354,7 @@
     <row r="576">
       <c r="A576" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1453</t>
+          <t>Wafer-1419</t>
         </is>
       </c>
       <c r="B576" s="3" t="inlineStr">
@@ -7366,7 +7366,7 @@
     <row r="577">
       <c r="A577" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1457</t>
+          <t>Wafer-1423</t>
         </is>
       </c>
       <c r="B577" s="3" t="inlineStr">
@@ -7378,7 +7378,7 @@
     <row r="578">
       <c r="A578" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1458</t>
+          <t>Wafer-1424</t>
         </is>
       </c>
       <c r="B578" s="3" t="inlineStr">
@@ -7390,19 +7390,19 @@
     <row r="579">
       <c r="A579" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1459</t>
+          <t>Wafer-1428</t>
         </is>
       </c>
       <c r="B579" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1460</t>
+          <t>Wafer-1432</t>
         </is>
       </c>
       <c r="B580" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
     <row r="581">
       <c r="A581" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1461</t>
+          <t>Wafer-1435</t>
         </is>
       </c>
       <c r="B581" s="3" t="inlineStr">
@@ -7426,7 +7426,7 @@
     <row r="582">
       <c r="A582" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1462</t>
+          <t>Wafer-1439</t>
         </is>
       </c>
       <c r="B582" s="3" t="inlineStr">
@@ -7438,7 +7438,7 @@
     <row r="583">
       <c r="A583" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1463</t>
+          <t>Wafer-1441</t>
         </is>
       </c>
       <c r="B583" s="3" t="inlineStr">
@@ -7450,7 +7450,7 @@
     <row r="584">
       <c r="A584" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1464</t>
+          <t>Wafer-1444</t>
         </is>
       </c>
       <c r="B584" s="3" t="inlineStr">
@@ -7462,7 +7462,7 @@
     <row r="585">
       <c r="A585" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1465</t>
+          <t>Wafer-1445</t>
         </is>
       </c>
       <c r="B585" s="3" t="inlineStr">
@@ -7474,7 +7474,7 @@
     <row r="586">
       <c r="A586" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1466</t>
+          <t>Wafer-1446</t>
         </is>
       </c>
       <c r="B586" s="3" t="inlineStr">
@@ -7486,7 +7486,7 @@
     <row r="587">
       <c r="A587" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1467</t>
+          <t>Wafer-1447</t>
         </is>
       </c>
       <c r="B587" s="3" t="inlineStr">
@@ -7498,7 +7498,7 @@
     <row r="588">
       <c r="A588" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1468</t>
+          <t>Wafer-1448</t>
         </is>
       </c>
       <c r="B588" s="3" t="inlineStr">
@@ -7510,7 +7510,7 @@
     <row r="589">
       <c r="A589" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1469</t>
+          <t>Wafer-1452</t>
         </is>
       </c>
       <c r="B589" s="3" t="inlineStr">
@@ -7522,7 +7522,7 @@
     <row r="590">
       <c r="A590" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1470</t>
+          <t>Wafer-1453</t>
         </is>
       </c>
       <c r="B590" s="3" t="inlineStr">
@@ -7534,7 +7534,7 @@
     <row r="591">
       <c r="A591" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1471</t>
+          <t>Wafer-1454</t>
         </is>
       </c>
       <c r="B591" s="3" t="inlineStr">
@@ -7546,7 +7546,7 @@
     <row r="592">
       <c r="A592" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1473</t>
+          <t>Wafer-1455</t>
         </is>
       </c>
       <c r="B592" s="3" t="inlineStr">
@@ -7558,7 +7558,7 @@
     <row r="593">
       <c r="A593" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1474</t>
+          <t>Wafer-1458</t>
         </is>
       </c>
       <c r="B593" s="3" t="inlineStr">
@@ -7570,7 +7570,7 @@
     <row r="594">
       <c r="A594" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1475</t>
+          <t>Wafer-1461</t>
         </is>
       </c>
       <c r="B594" s="3" t="inlineStr">
@@ -7582,7 +7582,7 @@
     <row r="595">
       <c r="A595" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1476</t>
+          <t>Wafer-1462</t>
         </is>
       </c>
       <c r="B595" s="3" t="inlineStr">
@@ -7594,7 +7594,7 @@
     <row r="596">
       <c r="A596" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1478</t>
+          <t>Wafer-1463</t>
         </is>
       </c>
       <c r="B596" s="3" t="inlineStr">
@@ -7606,7 +7606,7 @@
     <row r="597">
       <c r="A597" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1480</t>
+          <t>Wafer-1464</t>
         </is>
       </c>
       <c r="B597" s="3" t="inlineStr">
@@ -7618,7 +7618,7 @@
     <row r="598">
       <c r="A598" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1481</t>
+          <t>Wafer-1467</t>
         </is>
       </c>
       <c r="B598" s="3" t="inlineStr">
@@ -7630,7 +7630,7 @@
     <row r="599">
       <c r="A599" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1484</t>
+          <t>Wafer-1470</t>
         </is>
       </c>
       <c r="B599" s="3" t="inlineStr">
@@ -7642,7 +7642,7 @@
     <row r="600">
       <c r="A600" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1485</t>
+          <t>Wafer-1474</t>
         </is>
       </c>
       <c r="B600" s="3" t="inlineStr">
@@ -7654,7 +7654,7 @@
     <row r="601">
       <c r="A601" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1486</t>
+          <t>Wafer-1475</t>
         </is>
       </c>
       <c r="B601" s="3" t="inlineStr">
@@ -7666,7 +7666,7 @@
     <row r="602">
       <c r="A602" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1487</t>
+          <t>Wafer-1476</t>
         </is>
       </c>
       <c r="B602" s="3" t="inlineStr">
@@ -7678,7 +7678,7 @@
     <row r="603">
       <c r="A603" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1488</t>
+          <t>Wafer-1478</t>
         </is>
       </c>
       <c r="B603" s="3" t="inlineStr">
@@ -7690,19 +7690,19 @@
     <row r="604">
       <c r="A604" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1490</t>
+          <t>Wafer-1479</t>
         </is>
       </c>
       <c r="B604" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1491</t>
+          <t>Wafer-1480</t>
         </is>
       </c>
       <c r="B605" s="3" t="inlineStr">
@@ -7714,7 +7714,7 @@
     <row r="606">
       <c r="A606" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1492</t>
+          <t>Wafer-1488</t>
         </is>
       </c>
       <c r="B606" s="3" t="inlineStr">
@@ -7726,7 +7726,7 @@
     <row r="607">
       <c r="A607" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1493</t>
+          <t>Wafer-1489</t>
         </is>
       </c>
       <c r="B607" s="3" t="inlineStr">
@@ -7738,7 +7738,7 @@
     <row r="608">
       <c r="A608" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1494</t>
+          <t>Wafer-1490</t>
         </is>
       </c>
       <c r="B608" s="3" t="inlineStr">
@@ -7750,7 +7750,7 @@
     <row r="609">
       <c r="A609" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1495</t>
+          <t>Wafer-1494</t>
         </is>
       </c>
       <c r="B609" s="3" t="inlineStr">
@@ -7786,7 +7786,7 @@
     <row r="612">
       <c r="A612" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1498</t>
+          <t>Wafer-1501</t>
         </is>
       </c>
       <c r="B612" s="3" t="inlineStr">
@@ -7798,7 +7798,7 @@
     <row r="613">
       <c r="A613" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1499</t>
+          <t>Wafer-1502</t>
         </is>
       </c>
       <c r="B613" s="3" t="inlineStr">
@@ -7810,7 +7810,7 @@
     <row r="614">
       <c r="A614" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1500</t>
+          <t>Wafer-1503</t>
         </is>
       </c>
       <c r="B614" s="3" t="inlineStr">
@@ -7822,7 +7822,7 @@
     <row r="615">
       <c r="A615" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1102</t>
+          <t>Wafer-1504</t>
         </is>
       </c>
       <c r="B615" s="3" t="inlineStr">
@@ -7834,19 +7834,19 @@
     <row r="616">
       <c r="A616" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1103</t>
+          <t>Wafer-1506</t>
         </is>
       </c>
       <c r="B616" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1104</t>
+          <t>Wafer-1507</t>
         </is>
       </c>
       <c r="B617" s="3" t="inlineStr">
@@ -7858,7 +7858,7 @@
     <row r="618">
       <c r="A618" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1105</t>
+          <t>Wafer-1513</t>
         </is>
       </c>
       <c r="B618" s="3" t="inlineStr">
@@ -7870,7 +7870,7 @@
     <row r="619">
       <c r="A619" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1107</t>
+          <t>Wafer-1514</t>
         </is>
       </c>
       <c r="B619" s="3" t="inlineStr">
@@ -7882,7 +7882,7 @@
     <row r="620">
       <c r="A620" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1109</t>
+          <t>Wafer-1516</t>
         </is>
       </c>
       <c r="B620" s="3" t="inlineStr">
@@ -7894,7 +7894,7 @@
     <row r="621">
       <c r="A621" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1110</t>
+          <t>Wafer-1517</t>
         </is>
       </c>
       <c r="B621" s="3" t="inlineStr">
@@ -7906,7 +7906,7 @@
     <row r="622">
       <c r="A622" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1111</t>
+          <t>Wafer-1526</t>
         </is>
       </c>
       <c r="B622" s="3" t="inlineStr">
@@ -7918,7 +7918,7 @@
     <row r="623">
       <c r="A623" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1113</t>
+          <t>Wafer-1528</t>
         </is>
       </c>
       <c r="B623" s="3" t="inlineStr">
@@ -7930,7 +7930,7 @@
     <row r="624">
       <c r="A624" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1114</t>
+          <t>Wafer-1531</t>
         </is>
       </c>
       <c r="B624" s="3" t="inlineStr">
@@ -7942,19 +7942,19 @@
     <row r="625">
       <c r="A625" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1115</t>
+          <t>Wafer-1534</t>
         </is>
       </c>
       <c r="B625" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1118</t>
+          <t>Wafer-1540</t>
         </is>
       </c>
       <c r="B626" s="3" t="inlineStr">
@@ -7966,7 +7966,7 @@
     <row r="627">
       <c r="A627" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1119</t>
+          <t>Wafer-1541</t>
         </is>
       </c>
       <c r="B627" s="3" t="inlineStr">
@@ -7978,19 +7978,19 @@
     <row r="628">
       <c r="A628" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1122</t>
+          <t>Wafer-1543</t>
         </is>
       </c>
       <c r="B628" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1123</t>
+          <t>Wafer-1546</t>
         </is>
       </c>
       <c r="B629" s="3" t="inlineStr">
@@ -8002,7 +8002,7 @@
     <row r="630">
       <c r="A630" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1125</t>
+          <t>Wafer-1547</t>
         </is>
       </c>
       <c r="B630" s="3" t="inlineStr">
@@ -8014,7 +8014,7 @@
     <row r="631">
       <c r="A631" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1127</t>
+          <t>Wafer-1548</t>
         </is>
       </c>
       <c r="B631" s="3" t="inlineStr">
@@ -8026,7 +8026,7 @@
     <row r="632">
       <c r="A632" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1128</t>
+          <t>Wafer-1549</t>
         </is>
       </c>
       <c r="B632" s="3" t="inlineStr">
@@ -8038,7 +8038,7 @@
     <row r="633">
       <c r="A633" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1131</t>
+          <t>Wafer-1551</t>
         </is>
       </c>
       <c r="B633" s="3" t="inlineStr">
@@ -8050,7 +8050,7 @@
     <row r="634">
       <c r="A634" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1132</t>
+          <t>Wafer-1554</t>
         </is>
       </c>
       <c r="B634" s="3" t="inlineStr">
@@ -8062,7 +8062,7 @@
     <row r="635">
       <c r="A635" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1133</t>
+          <t>Wafer-1556</t>
         </is>
       </c>
       <c r="B635" s="3" t="inlineStr">
@@ -8074,7 +8074,7 @@
     <row r="636">
       <c r="A636" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1135</t>
+          <t>Wafer-1557</t>
         </is>
       </c>
       <c r="B636" s="3" t="inlineStr">
@@ -8086,7 +8086,7 @@
     <row r="637">
       <c r="A637" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1136</t>
+          <t>Wafer-1559</t>
         </is>
       </c>
       <c r="B637" s="3" t="inlineStr">
@@ -8098,7 +8098,7 @@
     <row r="638">
       <c r="A638" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1138</t>
+          <t>Wafer-1560</t>
         </is>
       </c>
       <c r="B638" s="3" t="inlineStr">
@@ -8110,7 +8110,7 @@
     <row r="639">
       <c r="A639" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1139</t>
+          <t>Wafer-1562</t>
         </is>
       </c>
       <c r="B639" s="3" t="inlineStr">
@@ -8122,7 +8122,7 @@
     <row r="640">
       <c r="A640" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1140</t>
+          <t>Wafer-1566</t>
         </is>
       </c>
       <c r="B640" s="3" t="inlineStr">
@@ -8134,7 +8134,7 @@
     <row r="641">
       <c r="A641" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1141</t>
+          <t>Wafer-1567</t>
         </is>
       </c>
       <c r="B641" s="3" t="inlineStr">
@@ -8146,7 +8146,7 @@
     <row r="642">
       <c r="A642" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1142</t>
+          <t>Wafer-1568</t>
         </is>
       </c>
       <c r="B642" s="3" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="643">
       <c r="A643" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1143</t>
+          <t>Wafer-1570</t>
         </is>
       </c>
       <c r="B643" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
     <row r="644">
       <c r="A644" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1144</t>
+          <t>Wafer-1573</t>
         </is>
       </c>
       <c r="B644" s="3" t="inlineStr">
@@ -8182,7 +8182,7 @@
     <row r="645">
       <c r="A645" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1146</t>
+          <t>Wafer-1574</t>
         </is>
       </c>
       <c r="B645" s="3" t="inlineStr">
@@ -8194,7 +8194,7 @@
     <row r="646">
       <c r="A646" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1147</t>
+          <t>Wafer-1575</t>
         </is>
       </c>
       <c r="B646" s="3" t="inlineStr">
@@ -8206,7 +8206,7 @@
     <row r="647">
       <c r="A647" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1148</t>
+          <t>Wafer-1577</t>
         </is>
       </c>
       <c r="B647" s="3" t="inlineStr">
@@ -8218,7 +8218,7 @@
     <row r="648">
       <c r="A648" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1150</t>
+          <t>Wafer-1580</t>
         </is>
       </c>
       <c r="B648" s="3" t="inlineStr">
@@ -8230,7 +8230,7 @@
     <row r="649">
       <c r="A649" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1151</t>
+          <t>Wafer-1587</t>
         </is>
       </c>
       <c r="B649" s="3" t="inlineStr">
@@ -8242,7 +8242,7 @@
     <row r="650">
       <c r="A650" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1152</t>
+          <t>Wafer-1588</t>
         </is>
       </c>
       <c r="B650" s="3" t="inlineStr">
@@ -8254,7 +8254,7 @@
     <row r="651">
       <c r="A651" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1154</t>
+          <t>Wafer-1590</t>
         </is>
       </c>
       <c r="B651" s="3" t="inlineStr">
@@ -8266,19 +8266,19 @@
     <row r="652">
       <c r="A652" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1156</t>
+          <t>Wafer-1592</t>
         </is>
       </c>
       <c r="B652" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1157</t>
+          <t>Wafer-1595</t>
         </is>
       </c>
       <c r="B653" s="3" t="inlineStr">
@@ -8290,7 +8290,7 @@
     <row r="654">
       <c r="A654" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1158</t>
+          <t>Wafer-1598</t>
         </is>
       </c>
       <c r="B654" s="3" t="inlineStr">
@@ -8302,19 +8302,19 @@
     <row r="655">
       <c r="A655" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1160</t>
+          <t>Wafer-1600</t>
         </is>
       </c>
       <c r="B655" s="3" t="inlineStr">
         <is>
-          <t>Not Working</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1162</t>
+          <t>Wafer-1602</t>
         </is>
       </c>
       <c r="B656" s="3" t="inlineStr">
@@ -8326,7 +8326,7 @@
     <row r="657">
       <c r="A657" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1163</t>
+          <t>Wafer-1603</t>
         </is>
       </c>
       <c r="B657" s="3" t="inlineStr">
@@ -8338,7 +8338,7 @@
     <row r="658">
       <c r="A658" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1164</t>
+          <t>Wafer-1604</t>
         </is>
       </c>
       <c r="B658" s="3" t="inlineStr">
@@ -8350,7 +8350,7 @@
     <row r="659">
       <c r="A659" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1165</t>
+          <t>Wafer-1606</t>
         </is>
       </c>
       <c r="B659" s="3" t="inlineStr">
@@ -8362,7 +8362,7 @@
     <row r="660">
       <c r="A660" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1167</t>
+          <t>Wafer-1610</t>
         </is>
       </c>
       <c r="B660" s="3" t="inlineStr">
@@ -8374,7 +8374,7 @@
     <row r="661">
       <c r="A661" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1168</t>
+          <t>Wafer-1611</t>
         </is>
       </c>
       <c r="B661" s="3" t="inlineStr">
@@ -8386,7 +8386,7 @@
     <row r="662">
       <c r="A662" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1169</t>
+          <t>Wafer-1615</t>
         </is>
       </c>
       <c r="B662" s="3" t="inlineStr">
@@ -8398,7 +8398,7 @@
     <row r="663">
       <c r="A663" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1171</t>
+          <t>Wafer-1616</t>
         </is>
       </c>
       <c r="B663" s="3" t="inlineStr">
@@ -8410,7 +8410,7 @@
     <row r="664">
       <c r="A664" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1174</t>
+          <t>Wafer-1617</t>
         </is>
       </c>
       <c r="B664" s="3" t="inlineStr">
@@ -8422,7 +8422,7 @@
     <row r="665">
       <c r="A665" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1176</t>
+          <t>Wafer-1620</t>
         </is>
       </c>
       <c r="B665" s="3" t="inlineStr">
@@ -8434,7 +8434,7 @@
     <row r="666">
       <c r="A666" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1178</t>
+          <t>Wafer-1621</t>
         </is>
       </c>
       <c r="B666" s="3" t="inlineStr">
@@ -8446,7 +8446,7 @@
     <row r="667">
       <c r="A667" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1179</t>
+          <t>Wafer-1625</t>
         </is>
       </c>
       <c r="B667" s="3" t="inlineStr">
@@ -8458,7 +8458,7 @@
     <row r="668">
       <c r="A668" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1180</t>
+          <t>Wafer-1631</t>
         </is>
       </c>
       <c r="B668" s="3" t="inlineStr">
@@ -8470,7 +8470,7 @@
     <row r="669">
       <c r="A669" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1181</t>
+          <t>Wafer-1634</t>
         </is>
       </c>
       <c r="B669" s="3" t="inlineStr">
@@ -8482,7 +8482,7 @@
     <row r="670">
       <c r="A670" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1183</t>
+          <t>Wafer-1635</t>
         </is>
       </c>
       <c r="B670" s="3" t="inlineStr">
@@ -8494,7 +8494,7 @@
     <row r="671">
       <c r="A671" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1184</t>
+          <t>Wafer-1636</t>
         </is>
       </c>
       <c r="B671" s="3" t="inlineStr">
@@ -8506,7 +8506,7 @@
     <row r="672">
       <c r="A672" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1185</t>
+          <t>Wafer-1637</t>
         </is>
       </c>
       <c r="B672" s="3" t="inlineStr">
@@ -8518,7 +8518,7 @@
     <row r="673">
       <c r="A673" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1186</t>
+          <t>Wafer-1640</t>
         </is>
       </c>
       <c r="B673" s="3" t="inlineStr">
@@ -8530,7 +8530,7 @@
     <row r="674">
       <c r="A674" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1187</t>
+          <t>Wafer-1641</t>
         </is>
       </c>
       <c r="B674" s="3" t="inlineStr">
@@ -8542,7 +8542,7 @@
     <row r="675">
       <c r="A675" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1188</t>
+          <t>Wafer-1643</t>
         </is>
       </c>
       <c r="B675" s="3" t="inlineStr">
@@ -8554,7 +8554,7 @@
     <row r="676">
       <c r="A676" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1189</t>
+          <t>Wafer-1644</t>
         </is>
       </c>
       <c r="B676" s="3" t="inlineStr">
@@ -8566,7 +8566,7 @@
     <row r="677">
       <c r="A677" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1190</t>
+          <t>Wafer-1645</t>
         </is>
       </c>
       <c r="B677" s="3" t="inlineStr">
@@ -8578,7 +8578,7 @@
     <row r="678">
       <c r="A678" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1191</t>
+          <t>Wafer-1648</t>
         </is>
       </c>
       <c r="B678" s="3" t="inlineStr">
@@ -8590,7 +8590,7 @@
     <row r="679">
       <c r="A679" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1194</t>
+          <t>Wafer-1649</t>
         </is>
       </c>
       <c r="B679" s="3" t="inlineStr">
@@ -8602,7 +8602,7 @@
     <row r="680">
       <c r="A680" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1195</t>
+          <t>Wafer-1655</t>
         </is>
       </c>
       <c r="B680" s="3" t="inlineStr">
@@ -8614,7 +8614,7 @@
     <row r="681">
       <c r="A681" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1196</t>
+          <t>Wafer-1658</t>
         </is>
       </c>
       <c r="B681" s="3" t="inlineStr">
@@ -8626,7 +8626,7 @@
     <row r="682">
       <c r="A682" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1197</t>
+          <t>Wafer-1663</t>
         </is>
       </c>
       <c r="B682" s="3" t="inlineStr">
@@ -8638,19 +8638,19 @@
     <row r="683">
       <c r="A683" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1199</t>
+          <t>Wafer-1664</t>
         </is>
       </c>
       <c r="B683" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1200</t>
+          <t>Wafer-1665</t>
         </is>
       </c>
       <c r="B684" s="3" t="inlineStr">
@@ -8662,7 +8662,7 @@
     <row r="685">
       <c r="A685" s="3" t="inlineStr">
         <is>
-          <t>Wafer-701</t>
+          <t>Wafer-1666</t>
         </is>
       </c>
       <c r="B685" s="3" t="inlineStr">
@@ -8674,7 +8674,7 @@
     <row r="686">
       <c r="A686" s="3" t="inlineStr">
         <is>
-          <t>Wafer-702</t>
+          <t>Wafer-1671</t>
         </is>
       </c>
       <c r="B686" s="3" t="inlineStr">
@@ -8686,7 +8686,7 @@
     <row r="687">
       <c r="A687" s="3" t="inlineStr">
         <is>
-          <t>Wafer-703</t>
+          <t>Wafer-1672</t>
         </is>
       </c>
       <c r="B687" s="3" t="inlineStr">
@@ -8698,7 +8698,7 @@
     <row r="688">
       <c r="A688" s="3" t="inlineStr">
         <is>
-          <t>Wafer-704</t>
+          <t>Wafer-1673</t>
         </is>
       </c>
       <c r="B688" s="3" t="inlineStr">
@@ -8710,7 +8710,7 @@
     <row r="689">
       <c r="A689" s="3" t="inlineStr">
         <is>
-          <t>Wafer-705</t>
+          <t>Wafer-1676</t>
         </is>
       </c>
       <c r="B689" s="3" t="inlineStr">
@@ -8722,7 +8722,7 @@
     <row r="690">
       <c r="A690" s="3" t="inlineStr">
         <is>
-          <t>Wafer-707</t>
+          <t>Wafer-1678</t>
         </is>
       </c>
       <c r="B690" s="3" t="inlineStr">
@@ -8734,7 +8734,7 @@
     <row r="691">
       <c r="A691" s="3" t="inlineStr">
         <is>
-          <t>Wafer-708</t>
+          <t>Wafer-1681</t>
         </is>
       </c>
       <c r="B691" s="3" t="inlineStr">
@@ -8746,7 +8746,7 @@
     <row r="692">
       <c r="A692" s="3" t="inlineStr">
         <is>
-          <t>Wafer-710</t>
+          <t>Wafer-1683</t>
         </is>
       </c>
       <c r="B692" s="3" t="inlineStr">
@@ -8758,7 +8758,7 @@
     <row r="693">
       <c r="A693" s="3" t="inlineStr">
         <is>
-          <t>Wafer-711</t>
+          <t>Wafer-1684</t>
         </is>
       </c>
       <c r="B693" s="3" t="inlineStr">
@@ -8770,7 +8770,7 @@
     <row r="694">
       <c r="A694" s="3" t="inlineStr">
         <is>
-          <t>Wafer-712</t>
+          <t>Wafer-1685</t>
         </is>
       </c>
       <c r="B694" s="3" t="inlineStr">
@@ -8782,7 +8782,7 @@
     <row r="695">
       <c r="A695" s="3" t="inlineStr">
         <is>
-          <t>Wafer-713</t>
+          <t>Wafer-1687</t>
         </is>
       </c>
       <c r="B695" s="3" t="inlineStr">
@@ -8794,7 +8794,7 @@
     <row r="696">
       <c r="A696" s="3" t="inlineStr">
         <is>
-          <t>Wafer-714</t>
+          <t>Wafer-1692</t>
         </is>
       </c>
       <c r="B696" s="3" t="inlineStr">
@@ -8806,7 +8806,7 @@
     <row r="697">
       <c r="A697" s="3" t="inlineStr">
         <is>
-          <t>Wafer-715</t>
+          <t>Wafer-1693</t>
         </is>
       </c>
       <c r="B697" s="3" t="inlineStr">
@@ -8818,7 +8818,7 @@
     <row r="698">
       <c r="A698" s="3" t="inlineStr">
         <is>
-          <t>Wafer-716</t>
+          <t>Wafer-1694</t>
         </is>
       </c>
       <c r="B698" s="3" t="inlineStr">
@@ -8830,7 +8830,7 @@
     <row r="699">
       <c r="A699" s="3" t="inlineStr">
         <is>
-          <t>Wafer-718</t>
+          <t>Wafer-1697</t>
         </is>
       </c>
       <c r="B699" s="3" t="inlineStr">
@@ -8842,7 +8842,7 @@
     <row r="700">
       <c r="A700" s="3" t="inlineStr">
         <is>
-          <t>Wafer-719</t>
+          <t>Wafer-1698</t>
         </is>
       </c>
       <c r="B700" s="3" t="inlineStr">
@@ -8854,1654 +8854,10 @@
     <row r="701">
       <c r="A701" s="3" t="inlineStr">
         <is>
-          <t>Wafer-720</t>
+          <t>Wafer-1700</t>
         </is>
       </c>
       <c r="B701" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-721</t>
-        </is>
-      </c>
-      <c r="B702" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-723</t>
-        </is>
-      </c>
-      <c r="B703" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-724</t>
-        </is>
-      </c>
-      <c r="B704" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-725</t>
-        </is>
-      </c>
-      <c r="B705" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-726</t>
-        </is>
-      </c>
-      <c r="B706" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-727</t>
-        </is>
-      </c>
-      <c r="B707" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-728</t>
-        </is>
-      </c>
-      <c r="B708" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-729</t>
-        </is>
-      </c>
-      <c r="B709" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-730</t>
-        </is>
-      </c>
-      <c r="B710" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-731</t>
-        </is>
-      </c>
-      <c r="B711" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-732</t>
-        </is>
-      </c>
-      <c r="B712" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-734</t>
-        </is>
-      </c>
-      <c r="B713" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-735</t>
-        </is>
-      </c>
-      <c r="B714" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-736</t>
-        </is>
-      </c>
-      <c r="B715" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-737</t>
-        </is>
-      </c>
-      <c r="B716" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-738</t>
-        </is>
-      </c>
-      <c r="B717" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-739</t>
-        </is>
-      </c>
-      <c r="B718" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-741</t>
-        </is>
-      </c>
-      <c r="B719" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-743</t>
-        </is>
-      </c>
-      <c r="B720" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-744</t>
-        </is>
-      </c>
-      <c r="B721" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-745</t>
-        </is>
-      </c>
-      <c r="B722" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-746</t>
-        </is>
-      </c>
-      <c r="B723" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-747</t>
-        </is>
-      </c>
-      <c r="B724" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-748</t>
-        </is>
-      </c>
-      <c r="B725" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-749</t>
-        </is>
-      </c>
-      <c r="B726" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-752</t>
-        </is>
-      </c>
-      <c r="B727" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-753</t>
-        </is>
-      </c>
-      <c r="B728" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-754</t>
-        </is>
-      </c>
-      <c r="B729" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-757</t>
-        </is>
-      </c>
-      <c r="B730" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-759</t>
-        </is>
-      </c>
-      <c r="B731" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-760</t>
-        </is>
-      </c>
-      <c r="B732" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-764</t>
-        </is>
-      </c>
-      <c r="B733" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-765</t>
-        </is>
-      </c>
-      <c r="B734" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-766</t>
-        </is>
-      </c>
-      <c r="B735" s="3" t="inlineStr">
-        <is>
-          <t>Not Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-768</t>
-        </is>
-      </c>
-      <c r="B736" s="3" t="inlineStr">
-        <is>
-          <t>Not Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-770</t>
-        </is>
-      </c>
-      <c r="B737" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-771</t>
-        </is>
-      </c>
-      <c r="B738" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-772</t>
-        </is>
-      </c>
-      <c r="B739" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-775</t>
-        </is>
-      </c>
-      <c r="B740" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-776</t>
-        </is>
-      </c>
-      <c r="B741" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-778</t>
-        </is>
-      </c>
-      <c r="B742" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-781</t>
-        </is>
-      </c>
-      <c r="B743" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-782</t>
-        </is>
-      </c>
-      <c r="B744" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-783</t>
-        </is>
-      </c>
-      <c r="B745" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-784</t>
-        </is>
-      </c>
-      <c r="B746" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-785</t>
-        </is>
-      </c>
-      <c r="B747" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-786</t>
-        </is>
-      </c>
-      <c r="B748" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-788</t>
-        </is>
-      </c>
-      <c r="B749" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-789</t>
-        </is>
-      </c>
-      <c r="B750" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-791</t>
-        </is>
-      </c>
-      <c r="B751" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-792</t>
-        </is>
-      </c>
-      <c r="B752" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-793</t>
-        </is>
-      </c>
-      <c r="B753" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-794</t>
-        </is>
-      </c>
-      <c r="B754" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-795</t>
-        </is>
-      </c>
-      <c r="B755" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-796</t>
-        </is>
-      </c>
-      <c r="B756" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-797</t>
-        </is>
-      </c>
-      <c r="B757" s="3" t="inlineStr">
-        <is>
-          <t>Not Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1301</t>
-        </is>
-      </c>
-      <c r="B758" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1302</t>
-        </is>
-      </c>
-      <c r="B759" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1303</t>
-        </is>
-      </c>
-      <c r="B760" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1304</t>
-        </is>
-      </c>
-      <c r="B761" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1306</t>
-        </is>
-      </c>
-      <c r="B762" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1307</t>
-        </is>
-      </c>
-      <c r="B763" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1308</t>
-        </is>
-      </c>
-      <c r="B764" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1309</t>
-        </is>
-      </c>
-      <c r="B765" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1311</t>
-        </is>
-      </c>
-      <c r="B766" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1312</t>
-        </is>
-      </c>
-      <c r="B767" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1313</t>
-        </is>
-      </c>
-      <c r="B768" s="3" t="inlineStr">
-        <is>
-          <t>Not Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1314</t>
-        </is>
-      </c>
-      <c r="B769" s="3" t="inlineStr">
-        <is>
-          <t>Not Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1315</t>
-        </is>
-      </c>
-      <c r="B770" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1316</t>
-        </is>
-      </c>
-      <c r="B771" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1317</t>
-        </is>
-      </c>
-      <c r="B772" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1318</t>
-        </is>
-      </c>
-      <c r="B773" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1319</t>
-        </is>
-      </c>
-      <c r="B774" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1320</t>
-        </is>
-      </c>
-      <c r="B775" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1321</t>
-        </is>
-      </c>
-      <c r="B776" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1324</t>
-        </is>
-      </c>
-      <c r="B777" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1325</t>
-        </is>
-      </c>
-      <c r="B778" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1326</t>
-        </is>
-      </c>
-      <c r="B779" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1328</t>
-        </is>
-      </c>
-      <c r="B780" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1329</t>
-        </is>
-      </c>
-      <c r="B781" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1332</t>
-        </is>
-      </c>
-      <c r="B782" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1333</t>
-        </is>
-      </c>
-      <c r="B783" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1334</t>
-        </is>
-      </c>
-      <c r="B784" s="3" t="inlineStr">
-        <is>
-          <t>Not Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1335</t>
-        </is>
-      </c>
-      <c r="B785" s="3" t="inlineStr">
-        <is>
-          <t>Not Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1336</t>
-        </is>
-      </c>
-      <c r="B786" s="3" t="inlineStr">
-        <is>
-          <t>Not Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1337</t>
-        </is>
-      </c>
-      <c r="B787" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1338</t>
-        </is>
-      </c>
-      <c r="B788" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1339</t>
-        </is>
-      </c>
-      <c r="B789" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1340</t>
-        </is>
-      </c>
-      <c r="B790" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1341</t>
-        </is>
-      </c>
-      <c r="B791" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1343</t>
-        </is>
-      </c>
-      <c r="B792" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1344</t>
-        </is>
-      </c>
-      <c r="B793" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1345</t>
-        </is>
-      </c>
-      <c r="B794" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1346</t>
-        </is>
-      </c>
-      <c r="B795" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1347</t>
-        </is>
-      </c>
-      <c r="B796" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1348</t>
-        </is>
-      </c>
-      <c r="B797" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1349</t>
-        </is>
-      </c>
-      <c r="B798" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1351</t>
-        </is>
-      </c>
-      <c r="B799" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1353</t>
-        </is>
-      </c>
-      <c r="B800" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1354</t>
-        </is>
-      </c>
-      <c r="B801" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1355</t>
-        </is>
-      </c>
-      <c r="B802" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1356</t>
-        </is>
-      </c>
-      <c r="B803" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1357</t>
-        </is>
-      </c>
-      <c r="B804" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1358</t>
-        </is>
-      </c>
-      <c r="B805" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1360</t>
-        </is>
-      </c>
-      <c r="B806" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1361</t>
-        </is>
-      </c>
-      <c r="B807" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1362</t>
-        </is>
-      </c>
-      <c r="B808" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1365</t>
-        </is>
-      </c>
-      <c r="B809" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1366</t>
-        </is>
-      </c>
-      <c r="B810" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1367</t>
-        </is>
-      </c>
-      <c r="B811" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1368</t>
-        </is>
-      </c>
-      <c r="B812" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1369</t>
-        </is>
-      </c>
-      <c r="B813" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1370</t>
-        </is>
-      </c>
-      <c r="B814" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1371</t>
-        </is>
-      </c>
-      <c r="B815" s="3" t="inlineStr">
-        <is>
-          <t>Not Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1372</t>
-        </is>
-      </c>
-      <c r="B816" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1374</t>
-        </is>
-      </c>
-      <c r="B817" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1375</t>
-        </is>
-      </c>
-      <c r="B818" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1376</t>
-        </is>
-      </c>
-      <c r="B819" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1379</t>
-        </is>
-      </c>
-      <c r="B820" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1380</t>
-        </is>
-      </c>
-      <c r="B821" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1381</t>
-        </is>
-      </c>
-      <c r="B822" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1382</t>
-        </is>
-      </c>
-      <c r="B823" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1383</t>
-        </is>
-      </c>
-      <c r="B824" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1384</t>
-        </is>
-      </c>
-      <c r="B825" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1385</t>
-        </is>
-      </c>
-      <c r="B826" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1387</t>
-        </is>
-      </c>
-      <c r="B827" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1388</t>
-        </is>
-      </c>
-      <c r="B828" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1389</t>
-        </is>
-      </c>
-      <c r="B829" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1390</t>
-        </is>
-      </c>
-      <c r="B830" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1391</t>
-        </is>
-      </c>
-      <c r="B831" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1392</t>
-        </is>
-      </c>
-      <c r="B832" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1393</t>
-        </is>
-      </c>
-      <c r="B833" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1394</t>
-        </is>
-      </c>
-      <c r="B834" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1395</t>
-        </is>
-      </c>
-      <c r="B835" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1397</t>
-        </is>
-      </c>
-      <c r="B836" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1398</t>
-        </is>
-      </c>
-      <c r="B837" s="3" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" s="3" t="inlineStr">
-        <is>
-          <t>Wafer-1399</t>
-        </is>
-      </c>
-      <c r="B838" s="3" t="inlineStr">
         <is>
           <t>Working</t>
         </is>

--- a/data/prediction_data/predictions.xlsx
+++ b/data/prediction_data/predictions.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Wafer-204</t>
+          <t>Wafer-223</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -478,7 +478,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Wafer-206</t>
+          <t>Wafer-226</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Wafer-208</t>
+          <t>Wafer-228</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -502,7 +502,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Wafer-209</t>
+          <t>Wafer-233</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -514,7 +514,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Wafer-211</t>
+          <t>Wafer-234</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -526,7 +526,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Wafer-213</t>
+          <t>Wafer-235</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -538,7 +538,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Wafer-214</t>
+          <t>Wafer-239</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Wafer-217</t>
+          <t>Wafer-242</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -562,7 +562,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Wafer-221</t>
+          <t>Wafer-258</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Wafer-224</t>
+          <t>Wafer-264</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Wafer-227</t>
+          <t>Wafer-270</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Wafer-232</t>
+          <t>Wafer-282</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Wafer-233</t>
+          <t>Wafer-901</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Wafer-236</t>
+          <t>Wafer-904</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Wafer-238</t>
+          <t>Wafer-908</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Wafer-241</t>
+          <t>Wafer-920</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Wafer-244</t>
+          <t>Wafer-929</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Wafer-245</t>
+          <t>Wafer-936</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -682,7 +682,7 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Wafer-246</t>
+          <t>Wafer-945</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Wafer-248</t>
+          <t>Wafer-948</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Wafer-249</t>
+          <t>Wafer-951</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -718,19 +718,19 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Wafer-253</t>
+          <t>Wafer-955</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Wafer-256</t>
+          <t>Wafer-958</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Wafer-258</t>
+          <t>Wafer-967</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Wafer-259</t>
+          <t>Wafer-974</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Wafer-260</t>
+          <t>Wafer-975</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
@@ -778,7 +778,7 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Wafer-266</t>
+          <t>Wafer-976</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -790,7 +790,7 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Wafer-268</t>
+          <t>Wafer-979</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -802,7 +802,7 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Wafer-269</t>
+          <t>Wafer-981</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
@@ -814,7 +814,7 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Wafer-273</t>
+          <t>Wafer-983</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
@@ -826,19 +826,19 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Wafer-275</t>
+          <t>Wafer-989</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Wafer-276</t>
+          <t>Wafer-991</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
@@ -850,7 +850,7 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Wafer-277</t>
+          <t>Wafer-995</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Wafer-278</t>
+          <t>Wafer-999</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
@@ -874,7 +874,7 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Wafer-280</t>
+          <t>Wafer-1000</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
@@ -886,7 +886,7 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Wafer-285</t>
+          <t>Wafer-1103</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Wafer-287</t>
+          <t>Wafer-1109</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Wafer-288</t>
+          <t>Wafer-1113</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
@@ -922,7 +922,7 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Wafer-292</t>
+          <t>Wafer-1115</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
@@ -934,19 +934,19 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Wafer-296</t>
+          <t>Wafer-1117</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Wafer-297</t>
+          <t>Wafer-1119</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
@@ -958,7 +958,7 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Wafer-299</t>
+          <t>Wafer-1142</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
@@ -970,7 +970,7 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Wafer-901</t>
+          <t>Wafer-1145</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
@@ -982,7 +982,7 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Wafer-903</t>
+          <t>Wafer-1149</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Wafer-904</t>
+          <t>Wafer-1153</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
@@ -1006,7 +1006,7 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Wafer-912</t>
+          <t>Wafer-1163</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
@@ -1018,7 +1018,7 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Wafer-914</t>
+          <t>Wafer-1164</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
@@ -1030,7 +1030,7 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Wafer-918</t>
+          <t>Wafer-1165</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -1042,19 +1042,19 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Wafer-920</t>
+          <t>Wafer-1167</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Wafer-929</t>
+          <t>Wafer-1169</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Wafer-930</t>
+          <t>Wafer-1172</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
@@ -1078,7 +1078,7 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Wafer-931</t>
+          <t>Wafer-1177</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -1090,7 +1090,7 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Wafer-936</t>
+          <t>Wafer-1183</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Wafer-937</t>
+          <t>Wafer-1186</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -1114,7 +1114,7 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Wafer-940</t>
+          <t>Wafer-1189</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
@@ -1126,7 +1126,7 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Wafer-941</t>
+          <t>Wafer-1197</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Wafer-942</t>
+          <t>Wafer-1220</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -1150,7 +1150,7 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Wafer-945</t>
+          <t>Wafer-1234</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -1162,19 +1162,19 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Wafer-946</t>
+          <t>Wafer-1236</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Wafer-947</t>
+          <t>Wafer-1237</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
@@ -1186,7 +1186,7 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Wafer-948</t>
+          <t>Wafer-1246</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
@@ -1198,7 +1198,7 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Wafer-956</t>
+          <t>Wafer-1286</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Wafer-960</t>
+          <t>Wafer-1294</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Wafer-962</t>
+          <t>Wafer-1295</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
@@ -1234,7 +1234,7 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Wafer-963</t>
+          <t>Wafer-1401</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Wafer-964</t>
+          <t>Wafer-1406</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
@@ -1258,7 +1258,7 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Wafer-967</t>
+          <t>Wafer-1420</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
@@ -1270,19 +1270,19 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Wafer-968</t>
+          <t>Wafer-1428</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Wafer-969</t>
+          <t>Wafer-1440</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
@@ -1294,7 +1294,7 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Wafer-970</t>
+          <t>Wafer-1445</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
@@ -1306,7 +1306,7 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Wafer-971</t>
+          <t>Wafer-1452</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
@@ -1318,7 +1318,7 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Wafer-974</t>
+          <t>Wafer-1458</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
@@ -1330,7 +1330,7 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Wafer-976</t>
+          <t>Wafer-1460</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
@@ -1342,7 +1342,7 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>Wafer-979</t>
+          <t>Wafer-1461</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
@@ -1354,7 +1354,7 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>Wafer-981</t>
+          <t>Wafer-1464</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
@@ -1366,7 +1366,7 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Wafer-982</t>
+          <t>Wafer-1466</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>Wafer-984</t>
+          <t>Wafer-1471</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
@@ -1390,7 +1390,7 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>Wafer-985</t>
+          <t>Wafer-1474</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
@@ -1402,7 +1402,7 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Wafer-986</t>
+          <t>Wafer-1475</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
@@ -1414,19 +1414,19 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Wafer-990</t>
+          <t>Wafer-1479</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>Wafer-991</t>
+          <t>Wafer-1491</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Wafer-992</t>
+          <t>Wafer-1492</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -1450,7 +1450,7 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>Wafer-997</t>
+          <t>Wafer-1494</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -1462,7 +1462,7 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Wafer-998</t>
+          <t>Wafer-1501</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
@@ -1474,19 +1474,19 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>Wafer-999</t>
+          <t>Wafer-1506</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1101</t>
+          <t>Wafer-1507</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1102</t>
+          <t>Wafer-1514</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
@@ -1510,7 +1510,7 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1103</t>
+          <t>Wafer-1520</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
@@ -1522,7 +1522,7 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1104</t>
+          <t>Wafer-1525</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
@@ -1534,7 +1534,7 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1109</t>
+          <t>Wafer-1527</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1110</t>
+          <t>Wafer-1548</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1111</t>
+          <t>Wafer-1550</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -1570,7 +1570,7 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1113</t>
+          <t>Wafer-1565</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -1582,7 +1582,7 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1115</t>
+          <t>Wafer-1577</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -1594,7 +1594,7 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1118</t>
+          <t>Wafer-1583</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
@@ -1606,7 +1606,7 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1123</t>
+          <t>Wafer-1587</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
@@ -1618,7 +1618,7 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1130</t>
+          <t>Wafer-1594</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
@@ -1630,7 +1630,7 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1133</t>
+          <t>Wafer-1596</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
@@ -1642,7 +1642,7 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1136</t>
+          <t>Wafer-1604</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
@@ -1654,19 +1654,19 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1137</t>
+          <t>Wafer-1605</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1138</t>
+          <t>Wafer-1607</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -1678,7 +1678,7 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1139</t>
+          <t>Wafer-1615</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1143</t>
+          <t>Wafer-1620</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
@@ -1702,7 +1702,7 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1145</t>
+          <t>Wafer-1629</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
@@ -1714,7 +1714,7 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1147</t>
+          <t>Wafer-1632</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
@@ -1726,19 +1726,19 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1149</t>
+          <t>Wafer-1638</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1152</t>
+          <t>Wafer-1641</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
@@ -1750,31 +1750,31 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1157</t>
+          <t>Wafer-1657</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1158</t>
+          <t>Wafer-1664</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1159</t>
+          <t>Wafer-1675</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
@@ -1786,7 +1786,7 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1161</t>
+          <t>Wafer-1676</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
@@ -1798,31 +1798,31 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1165</t>
+          <t>Wafer-1677</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>NotWorking</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1167</t>
+          <t>Wafer-1678</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1169</t>
+          <t>Wafer-1682</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
@@ -1834,7 +1834,7 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1171</t>
+          <t>Wafer-1683</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
@@ -1846,7 +1846,7 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1172</t>
+          <t>Wafer-1684</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -1858,7 +1858,7 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1175</t>
+          <t>Wafer-201</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
@@ -1870,7 +1870,7 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1178</t>
+          <t>Wafer-209</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
@@ -1882,7 +1882,7 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1179</t>
+          <t>Wafer-211</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
@@ -1894,7 +1894,7 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1184</t>
+          <t>Wafer-213</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
@@ -1906,7 +1906,7 @@
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1186</t>
+          <t>Wafer-216</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1187</t>
+          <t>Wafer-218</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
@@ -1930,7 +1930,7 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1188</t>
+          <t>Wafer-230</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
@@ -1942,7 +1942,7 @@
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1192</t>
+          <t>Wafer-232</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
@@ -1954,7 +1954,7 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1193</t>
+          <t>Wafer-245</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
@@ -1966,7 +1966,7 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1196</t>
+          <t>Wafer-246</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
@@ -1978,7 +1978,7 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1197</t>
+          <t>Wafer-248</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
@@ -1990,7 +1990,7 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1198</t>
+          <t>Wafer-256</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
@@ -2002,7 +2002,7 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1202</t>
+          <t>Wafer-261</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
@@ -2014,7 +2014,7 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1203</t>
+          <t>Wafer-276</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
@@ -2026,7 +2026,7 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1206</t>
+          <t>Wafer-277</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1207</t>
+          <t>Wafer-280</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
@@ -2050,7 +2050,7 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1210</t>
+          <t>Wafer-281</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
@@ -2062,7 +2062,7 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1214</t>
+          <t>Wafer-290</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
@@ -2074,7 +2074,7 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1215</t>
+          <t>Wafer-291</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
@@ -2086,7 +2086,7 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1219</t>
+          <t>Wafer-902</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
@@ -2098,7 +2098,7 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1222</t>
+          <t>Wafer-905</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
@@ -2110,7 +2110,7 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1223</t>
+          <t>Wafer-906</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
@@ -2122,7 +2122,7 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1224</t>
+          <t>Wafer-907</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
@@ -2134,7 +2134,7 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1225</t>
+          <t>Wafer-910</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
@@ -2146,7 +2146,7 @@
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1226</t>
+          <t>Wafer-923</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
@@ -2158,7 +2158,7 @@
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1227</t>
+          <t>Wafer-926</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
@@ -2170,7 +2170,7 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1229</t>
+          <t>Wafer-931</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
@@ -2182,7 +2182,7 @@
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1231</t>
+          <t>Wafer-937</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
@@ -2194,7 +2194,7 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1238</t>
+          <t>Wafer-939</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
@@ -2206,7 +2206,7 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1239</t>
+          <t>Wafer-947</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
@@ -2218,7 +2218,7 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1240</t>
+          <t>Wafer-962</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1242</t>
+          <t>Wafer-964</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
@@ -2242,7 +2242,7 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1243</t>
+          <t>Wafer-965</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
@@ -2254,7 +2254,7 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1251</t>
+          <t>Wafer-968</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
@@ -2266,7 +2266,7 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1252</t>
+          <t>Wafer-969</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
@@ -2278,7 +2278,7 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1253</t>
+          <t>Wafer-980</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
@@ -2290,7 +2290,7 @@
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1255</t>
+          <t>Wafer-984</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
@@ -2302,7 +2302,7 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1256</t>
+          <t>Wafer-988</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
@@ -2314,7 +2314,7 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1257</t>
+          <t>Wafer-997</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1261</t>
+          <t>Wafer-1108</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
@@ -2338,7 +2338,7 @@
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1266</t>
+          <t>Wafer-1111</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -2350,7 +2350,7 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1273</t>
+          <t>Wafer-1123</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -2362,7 +2362,7 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1276</t>
+          <t>Wafer-1124</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -2374,7 +2374,7 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1277</t>
+          <t>Wafer-1127</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -2386,7 +2386,7 @@
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1279</t>
+          <t>Wafer-1131</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -2398,7 +2398,7 @@
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1280</t>
+          <t>Wafer-1136</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -2410,7 +2410,7 @@
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1281</t>
+          <t>Wafer-1139</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -2422,7 +2422,7 @@
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1282</t>
+          <t>Wafer-1141</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
@@ -2434,7 +2434,7 @@
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1285</t>
+          <t>Wafer-1146</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
@@ -2446,7 +2446,7 @@
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1286</t>
+          <t>Wafer-1147</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1287</t>
+          <t>Wafer-1154</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
@@ -2470,7 +2470,7 @@
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1289</t>
+          <t>Wafer-1155</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
@@ -2482,7 +2482,7 @@
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1292</t>
+          <t>Wafer-1158</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
@@ -2494,7 +2494,7 @@
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1293</t>
+          <t>Wafer-1159</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
@@ -2506,7 +2506,7 @@
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1295</t>
+          <t>Wafer-1166</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1296</t>
+          <t>Wafer-1170</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
@@ -2530,7 +2530,7 @@
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1297</t>
+          <t>Wafer-1171</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
@@ -2542,7 +2542,7 @@
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1298</t>
+          <t>Wafer-1185</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
@@ -2554,7 +2554,7 @@
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1402</t>
+          <t>Wafer-1188</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
@@ -2566,7 +2566,7 @@
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1406</t>
+          <t>Wafer-1191</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1407</t>
+          <t>Wafer-1194</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -2590,7 +2590,7 @@
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1413</t>
+          <t>Wafer-1198</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -2602,7 +2602,7 @@
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1414</t>
+          <t>Wafer-1202</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1417</t>
+          <t>Wafer-1210</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -2626,7 +2626,7 @@
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1418</t>
+          <t>Wafer-1213</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1420</t>
+          <t>Wafer-1214</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -2650,7 +2650,7 @@
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1421</t>
+          <t>Wafer-1219</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -2662,7 +2662,7 @@
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1422</t>
+          <t>Wafer-1227</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -2674,7 +2674,7 @@
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1425</t>
+          <t>Wafer-1229</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -2686,7 +2686,7 @@
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1426</t>
+          <t>Wafer-1247</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1427</t>
+          <t>Wafer-1257</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -2710,7 +2710,7 @@
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1429</t>
+          <t>Wafer-1261</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -2722,7 +2722,7 @@
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1430</t>
+          <t>Wafer-1267</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -2734,7 +2734,7 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1433</t>
+          <t>Wafer-1273</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -2746,7 +2746,7 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1434</t>
+          <t>Wafer-1274</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -2758,7 +2758,7 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1436</t>
+          <t>Wafer-1278</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -2770,7 +2770,7 @@
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1437</t>
+          <t>Wafer-1288</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -2782,7 +2782,7 @@
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1440</t>
+          <t>Wafer-1290</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -2794,7 +2794,7 @@
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1442</t>
+          <t>Wafer-1293</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
@@ -2806,7 +2806,7 @@
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1443</t>
+          <t>Wafer-1296</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
@@ -2818,7 +2818,7 @@
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1449</t>
+          <t>Wafer-1402</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
@@ -2830,7 +2830,7 @@
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1450</t>
+          <t>Wafer-1410</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
@@ -2842,7 +2842,7 @@
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1451</t>
+          <t>Wafer-1411</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
@@ -2854,7 +2854,7 @@
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1457</t>
+          <t>Wafer-1417</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
@@ -2866,7 +2866,7 @@
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1459</t>
+          <t>Wafer-1421</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1466</t>
+          <t>Wafer-1422</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
@@ -2890,7 +2890,7 @@
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1468</t>
+          <t>Wafer-1427</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
@@ -2902,7 +2902,7 @@
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1469</t>
+          <t>Wafer-1429</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
@@ -2914,7 +2914,7 @@
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1471</t>
+          <t>Wafer-1431</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
@@ -2926,7 +2926,7 @@
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1472</t>
+          <t>Wafer-1432</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1481</t>
+          <t>Wafer-1438</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
@@ -2950,7 +2950,7 @@
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1483</t>
+          <t>Wafer-1439</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
@@ -2962,7 +2962,7 @@
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1484</t>
+          <t>Wafer-1444</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
@@ -2974,7 +2974,7 @@
     <row r="211">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1485</t>
+          <t>Wafer-1449</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
@@ -2986,7 +2986,7 @@
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1486</t>
+          <t>Wafer-1451</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
@@ -2998,7 +2998,7 @@
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1487</t>
+          <t>Wafer-1454</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
@@ -3010,7 +3010,7 @@
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1491</t>
+          <t>Wafer-1456</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
@@ -3022,7 +3022,7 @@
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1492</t>
+          <t>Wafer-1459</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
@@ -3034,7 +3034,7 @@
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1493</t>
+          <t>Wafer-1465</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
@@ -3046,7 +3046,7 @@
     <row r="217">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1495</t>
+          <t>Wafer-1469</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
@@ -3058,7 +3058,7 @@
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1498</t>
+          <t>Wafer-1480</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
@@ -3070,7 +3070,7 @@
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1499</t>
+          <t>Wafer-1482</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
@@ -3082,7 +3082,7 @@
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1500</t>
+          <t>Wafer-1484</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
@@ -3094,7 +3094,7 @@
     <row r="221">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1505</t>
+          <t>Wafer-1487</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
@@ -3106,7 +3106,7 @@
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1508</t>
+          <t>Wafer-1493</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
@@ -3118,7 +3118,7 @@
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1509</t>
+          <t>Wafer-1495</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
@@ -3130,7 +3130,7 @@
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1510</t>
+          <t>Wafer-1498</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
@@ -3142,7 +3142,7 @@
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1511</t>
+          <t>Wafer-1500</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr">
@@ -3154,7 +3154,7 @@
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1512</t>
+          <t>Wafer-1505</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
@@ -3166,7 +3166,7 @@
     <row r="227">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1515</t>
+          <t>Wafer-1509</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
@@ -3178,7 +3178,7 @@
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1518</t>
+          <t>Wafer-1512</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
@@ -3190,7 +3190,7 @@
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1520</t>
+          <t>Wafer-1517</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
@@ -3202,7 +3202,7 @@
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1522</t>
+          <t>Wafer-1519</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
@@ -3226,7 +3226,7 @@
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1525</t>
+          <t>Wafer-1528</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
@@ -3238,7 +3238,7 @@
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1529</t>
+          <t>Wafer-1535</t>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
@@ -3250,7 +3250,7 @@
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1530</t>
+          <t>Wafer-1536</t>
         </is>
       </c>
       <c r="B234" s="3" t="inlineStr">
@@ -3262,7 +3262,7 @@
     <row r="235">
       <c r="A235" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1532</t>
+          <t>Wafer-1538</t>
         </is>
       </c>
       <c r="B235" s="3" t="inlineStr">
@@ -3274,7 +3274,7 @@
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1533</t>
+          <t>Wafer-1547</t>
         </is>
       </c>
       <c r="B236" s="3" t="inlineStr">
@@ -3286,7 +3286,7 @@
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1535</t>
+          <t>Wafer-1554</t>
         </is>
       </c>
       <c r="B237" s="3" t="inlineStr">
@@ -3298,7 +3298,7 @@
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1536</t>
+          <t>Wafer-1555</t>
         </is>
       </c>
       <c r="B238" s="3" t="inlineStr">
@@ -3310,7 +3310,7 @@
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1537</t>
+          <t>Wafer-1567</t>
         </is>
       </c>
       <c r="B239" s="3" t="inlineStr">
@@ -3322,7 +3322,7 @@
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1538</t>
+          <t>Wafer-1570</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
@@ -3334,7 +3334,7 @@
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1542</t>
+          <t>Wafer-1572</t>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
@@ -3346,7 +3346,7 @@
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1544</t>
+          <t>Wafer-1576</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
@@ -3358,7 +3358,7 @@
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1550</t>
+          <t>Wafer-1580</t>
         </is>
       </c>
       <c r="B243" s="3" t="inlineStr">
@@ -3370,7 +3370,7 @@
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1552</t>
+          <t>Wafer-1584</t>
         </is>
       </c>
       <c r="B244" s="3" t="inlineStr">
@@ -3382,7 +3382,7 @@
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1553</t>
+          <t>Wafer-1586</t>
         </is>
       </c>
       <c r="B245" s="3" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1555</t>
+          <t>Wafer-1590</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
@@ -3406,7 +3406,7 @@
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1558</t>
+          <t>Wafer-1591</t>
         </is>
       </c>
       <c r="B247" s="3" t="inlineStr">
@@ -3418,7 +3418,7 @@
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1561</t>
+          <t>Wafer-1595</t>
         </is>
       </c>
       <c r="B248" s="3" t="inlineStr">
@@ -3430,7 +3430,7 @@
     <row r="249">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1563</t>
+          <t>Wafer-1598</t>
         </is>
       </c>
       <c r="B249" s="3" t="inlineStr">
@@ -3442,7 +3442,7 @@
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1565</t>
+          <t>Wafer-1606</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
@@ -3454,7 +3454,7 @@
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1569</t>
+          <t>Wafer-1608</t>
         </is>
       </c>
       <c r="B251" s="3" t="inlineStr">
@@ -3466,7 +3466,7 @@
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1572</t>
+          <t>Wafer-1621</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
@@ -3478,7 +3478,7 @@
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1576</t>
+          <t>Wafer-1625</t>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
@@ -3490,7 +3490,7 @@
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1578</t>
+          <t>Wafer-1626</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
@@ -3502,7 +3502,7 @@
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1579</t>
+          <t>Wafer-1635</t>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
@@ -3514,7 +3514,7 @@
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1582</t>
+          <t>Wafer-1643</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
@@ -3526,7 +3526,7 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1583</t>
+          <t>Wafer-1644</t>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
@@ -3538,7 +3538,7 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1584</t>
+          <t>Wafer-1647</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
@@ -3550,7 +3550,7 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1585</t>
+          <t>Wafer-1651</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
@@ -3562,7 +3562,7 @@
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1586</t>
+          <t>Wafer-1659</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
@@ -3574,7 +3574,7 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1589</t>
+          <t>Wafer-1660</t>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
@@ -3586,7 +3586,7 @@
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1593</t>
+          <t>Wafer-1667</t>
         </is>
       </c>
       <c r="B262" s="3" t="inlineStr">
@@ -3598,7 +3598,7 @@
     <row r="263">
       <c r="A263" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1594</t>
+          <t>Wafer-1669</t>
         </is>
       </c>
       <c r="B263" s="3" t="inlineStr">
@@ -3610,7 +3610,7 @@
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1597</t>
+          <t>Wafer-1673</t>
         </is>
       </c>
       <c r="B264" s="3" t="inlineStr">
@@ -3622,7 +3622,7 @@
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1599</t>
+          <t>Wafer-1674</t>
         </is>
       </c>
       <c r="B265" s="3" t="inlineStr">
@@ -3634,7 +3634,7 @@
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1601</t>
+          <t>Wafer-1679</t>
         </is>
       </c>
       <c r="B266" s="3" t="inlineStr">
@@ -3646,19 +3646,19 @@
     <row r="267">
       <c r="A267" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1605</t>
+          <t>Wafer-1685</t>
         </is>
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1607</t>
+          <t>Wafer-1686</t>
         </is>
       </c>
       <c r="B268" s="3" t="inlineStr">
@@ -3670,7 +3670,7 @@
     <row r="269">
       <c r="A269" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1608</t>
+          <t>Wafer-1687</t>
         </is>
       </c>
       <c r="B269" s="3" t="inlineStr">
@@ -3682,7 +3682,7 @@
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1609</t>
+          <t>Wafer-1688</t>
         </is>
       </c>
       <c r="B270" s="3" t="inlineStr">
@@ -3694,7 +3694,7 @@
     <row r="271">
       <c r="A271" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1612</t>
+          <t>Wafer-1689</t>
         </is>
       </c>
       <c r="B271" s="3" t="inlineStr">
@@ -3706,7 +3706,7 @@
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1613</t>
+          <t>Wafer-1691</t>
         </is>
       </c>
       <c r="B272" s="3" t="inlineStr">
@@ -3718,7 +3718,7 @@
     <row r="273">
       <c r="A273" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1614</t>
+          <t>Wafer-1692</t>
         </is>
       </c>
       <c r="B273" s="3" t="inlineStr">
@@ -3730,7 +3730,7 @@
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1618</t>
+          <t>Wafer-202</t>
         </is>
       </c>
       <c r="B274" s="3" t="inlineStr">
@@ -3742,7 +3742,7 @@
     <row r="275">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1622</t>
+          <t>Wafer-203</t>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
@@ -3754,7 +3754,7 @@
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1624</t>
+          <t>Wafer-204</t>
         </is>
       </c>
       <c r="B276" s="3" t="inlineStr">
@@ -3766,7 +3766,7 @@
     <row r="277">
       <c r="A277" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1626</t>
+          <t>Wafer-205</t>
         </is>
       </c>
       <c r="B277" s="3" t="inlineStr">
@@ -3778,7 +3778,7 @@
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1627</t>
+          <t>Wafer-206</t>
         </is>
       </c>
       <c r="B278" s="3" t="inlineStr">
@@ -3790,7 +3790,7 @@
     <row r="279">
       <c r="A279" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1628</t>
+          <t>Wafer-207</t>
         </is>
       </c>
       <c r="B279" s="3" t="inlineStr">
@@ -3802,7 +3802,7 @@
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1629</t>
+          <t>Wafer-208</t>
         </is>
       </c>
       <c r="B280" s="3" t="inlineStr">
@@ -3814,7 +3814,7 @@
     <row r="281">
       <c r="A281" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1630</t>
+          <t>Wafer-210</t>
         </is>
       </c>
       <c r="B281" s="3" t="inlineStr">
@@ -3826,7 +3826,7 @@
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1632</t>
+          <t>Wafer-212</t>
         </is>
       </c>
       <c r="B282" s="3" t="inlineStr">
@@ -3838,7 +3838,7 @@
     <row r="283">
       <c r="A283" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1633</t>
+          <t>Wafer-214</t>
         </is>
       </c>
       <c r="B283" s="3" t="inlineStr">
@@ -3850,19 +3850,19 @@
     <row r="284">
       <c r="A284" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1638</t>
+          <t>Wafer-215</t>
         </is>
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1639</t>
+          <t>Wafer-217</t>
         </is>
       </c>
       <c r="B285" s="3" t="inlineStr">
@@ -3874,7 +3874,7 @@
     <row r="286">
       <c r="A286" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1642</t>
+          <t>Wafer-219</t>
         </is>
       </c>
       <c r="B286" s="3" t="inlineStr">
@@ -3886,7 +3886,7 @@
     <row r="287">
       <c r="A287" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1646</t>
+          <t>Wafer-220</t>
         </is>
       </c>
       <c r="B287" s="3" t="inlineStr">
@@ -3898,7 +3898,7 @@
     <row r="288">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1647</t>
+          <t>Wafer-221</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
@@ -3910,7 +3910,7 @@
     <row r="289">
       <c r="A289" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1650</t>
+          <t>Wafer-222</t>
         </is>
       </c>
       <c r="B289" s="3" t="inlineStr">
@@ -3922,7 +3922,7 @@
     <row r="290">
       <c r="A290" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1651</t>
+          <t>Wafer-224</t>
         </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
@@ -3934,7 +3934,7 @@
     <row r="291">
       <c r="A291" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1652</t>
+          <t>Wafer-225</t>
         </is>
       </c>
       <c r="B291" s="3" t="inlineStr">
@@ -3946,7 +3946,7 @@
     <row r="292">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1653</t>
+          <t>Wafer-227</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
@@ -3958,7 +3958,7 @@
     <row r="293">
       <c r="A293" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1654</t>
+          <t>Wafer-229</t>
         </is>
       </c>
       <c r="B293" s="3" t="inlineStr">
@@ -3970,7 +3970,7 @@
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1656</t>
+          <t>Wafer-231</t>
         </is>
       </c>
       <c r="B294" s="3" t="inlineStr">
@@ -3982,19 +3982,19 @@
     <row r="295">
       <c r="A295" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1657</t>
+          <t>Wafer-236</t>
         </is>
       </c>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1659</t>
+          <t>Wafer-237</t>
         </is>
       </c>
       <c r="B296" s="3" t="inlineStr">
@@ -4006,7 +4006,7 @@
     <row r="297">
       <c r="A297" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1660</t>
+          <t>Wafer-238</t>
         </is>
       </c>
       <c r="B297" s="3" t="inlineStr">
@@ -4018,7 +4018,7 @@
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1662</t>
+          <t>Wafer-240</t>
         </is>
       </c>
       <c r="B298" s="3" t="inlineStr">
@@ -4030,7 +4030,7 @@
     <row r="299">
       <c r="A299" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1667</t>
+          <t>Wafer-241</t>
         </is>
       </c>
       <c r="B299" s="3" t="inlineStr">
@@ -4042,7 +4042,7 @@
     <row r="300">
       <c r="A300" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1668</t>
+          <t>Wafer-243</t>
         </is>
       </c>
       <c r="B300" s="3" t="inlineStr">
@@ -4054,7 +4054,7 @@
     <row r="301">
       <c r="A301" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1669</t>
+          <t>Wafer-244</t>
         </is>
       </c>
       <c r="B301" s="3" t="inlineStr">
@@ -4066,7 +4066,7 @@
     <row r="302">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1670</t>
+          <t>Wafer-247</t>
         </is>
       </c>
       <c r="B302" s="3" t="inlineStr">
@@ -4078,7 +4078,7 @@
     <row r="303">
       <c r="A303" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1674</t>
+          <t>Wafer-249</t>
         </is>
       </c>
       <c r="B303" s="3" t="inlineStr">
@@ -4090,19 +4090,19 @@
     <row r="304">
       <c r="A304" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1677</t>
+          <t>Wafer-250</t>
         </is>
       </c>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1679</t>
+          <t>Wafer-251</t>
         </is>
       </c>
       <c r="B305" s="3" t="inlineStr">
@@ -4114,7 +4114,7 @@
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1680</t>
+          <t>Wafer-252</t>
         </is>
       </c>
       <c r="B306" s="3" t="inlineStr">
@@ -4126,7 +4126,7 @@
     <row r="307">
       <c r="A307" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1682</t>
+          <t>Wafer-253</t>
         </is>
       </c>
       <c r="B307" s="3" t="inlineStr">
@@ -4138,7 +4138,7 @@
     <row r="308">
       <c r="A308" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1686</t>
+          <t>Wafer-254</t>
         </is>
       </c>
       <c r="B308" s="3" t="inlineStr">
@@ -4150,7 +4150,7 @@
     <row r="309">
       <c r="A309" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1688</t>
+          <t>Wafer-255</t>
         </is>
       </c>
       <c r="B309" s="3" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="310">
       <c r="A310" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1689</t>
+          <t>Wafer-257</t>
         </is>
       </c>
       <c r="B310" s="3" t="inlineStr">
@@ -4174,7 +4174,7 @@
     <row r="311">
       <c r="A311" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1690</t>
+          <t>Wafer-259</t>
         </is>
       </c>
       <c r="B311" s="3" t="inlineStr">
@@ -4186,7 +4186,7 @@
     <row r="312">
       <c r="A312" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1691</t>
+          <t>Wafer-260</t>
         </is>
       </c>
       <c r="B312" s="3" t="inlineStr">
@@ -4198,7 +4198,7 @@
     <row r="313">
       <c r="A313" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1695</t>
+          <t>Wafer-262</t>
         </is>
       </c>
       <c r="B313" s="3" t="inlineStr">
@@ -4210,7 +4210,7 @@
     <row r="314">
       <c r="A314" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1696</t>
+          <t>Wafer-263</t>
         </is>
       </c>
       <c r="B314" s="3" t="inlineStr">
@@ -4222,7 +4222,7 @@
     <row r="315">
       <c r="A315" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1699</t>
+          <t>Wafer-265</t>
         </is>
       </c>
       <c r="B315" s="3" t="inlineStr">
@@ -4234,7 +4234,7 @@
     <row r="316">
       <c r="A316" s="3" t="inlineStr">
         <is>
-          <t>Wafer-203</t>
+          <t>Wafer-266</t>
         </is>
       </c>
       <c r="B316" s="3" t="inlineStr">
@@ -4246,7 +4246,7 @@
     <row r="317">
       <c r="A317" s="3" t="inlineStr">
         <is>
-          <t>Wafer-210</t>
+          <t>Wafer-267</t>
         </is>
       </c>
       <c r="B317" s="3" t="inlineStr">
@@ -4258,7 +4258,7 @@
     <row r="318">
       <c r="A318" s="3" t="inlineStr">
         <is>
-          <t>Wafer-230</t>
+          <t>Wafer-268</t>
         </is>
       </c>
       <c r="B318" s="3" t="inlineStr">
@@ -4270,7 +4270,7 @@
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
         <is>
-          <t>Wafer-247</t>
+          <t>Wafer-269</t>
         </is>
       </c>
       <c r="B319" s="3" t="inlineStr">
@@ -4282,7 +4282,7 @@
     <row r="320">
       <c r="A320" s="3" t="inlineStr">
         <is>
-          <t>Wafer-250</t>
+          <t>Wafer-271</t>
         </is>
       </c>
       <c r="B320" s="3" t="inlineStr">
@@ -4294,7 +4294,7 @@
     <row r="321">
       <c r="A321" s="3" t="inlineStr">
         <is>
-          <t>Wafer-251</t>
+          <t>Wafer-272</t>
         </is>
       </c>
       <c r="B321" s="3" t="inlineStr">
@@ -4306,7 +4306,7 @@
     <row r="322">
       <c r="A322" s="3" t="inlineStr">
         <is>
-          <t>Wafer-294</t>
+          <t>Wafer-273</t>
         </is>
       </c>
       <c r="B322" s="3" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="323">
       <c r="A323" s="3" t="inlineStr">
         <is>
-          <t>Wafer-910</t>
+          <t>Wafer-274</t>
         </is>
       </c>
       <c r="B323" s="3" t="inlineStr">
@@ -4330,7 +4330,7 @@
     <row r="324">
       <c r="A324" s="3" t="inlineStr">
         <is>
-          <t>Wafer-919</t>
+          <t>Wafer-275</t>
         </is>
       </c>
       <c r="B324" s="3" t="inlineStr">
@@ -4342,7 +4342,7 @@
     <row r="325">
       <c r="A325" s="3" t="inlineStr">
         <is>
-          <t>Wafer-922</t>
+          <t>Wafer-278</t>
         </is>
       </c>
       <c r="B325" s="3" t="inlineStr">
@@ -4354,7 +4354,7 @@
     <row r="326">
       <c r="A326" s="3" t="inlineStr">
         <is>
-          <t>Wafer-924</t>
+          <t>Wafer-279</t>
         </is>
       </c>
       <c r="B326" s="3" t="inlineStr">
@@ -4366,7 +4366,7 @@
     <row r="327">
       <c r="A327" s="3" t="inlineStr">
         <is>
-          <t>Wafer-927</t>
+          <t>Wafer-283</t>
         </is>
       </c>
       <c r="B327" s="3" t="inlineStr">
@@ -4378,7 +4378,7 @@
     <row r="328">
       <c r="A328" s="3" t="inlineStr">
         <is>
-          <t>Wafer-943</t>
+          <t>Wafer-284</t>
         </is>
       </c>
       <c r="B328" s="3" t="inlineStr">
@@ -4390,7 +4390,7 @@
     <row r="329">
       <c r="A329" s="3" t="inlineStr">
         <is>
-          <t>Wafer-951</t>
+          <t>Wafer-285</t>
         </is>
       </c>
       <c r="B329" s="3" t="inlineStr">
@@ -4402,7 +4402,7 @@
     <row r="330">
       <c r="A330" s="3" t="inlineStr">
         <is>
-          <t>Wafer-957</t>
+          <t>Wafer-286</t>
         </is>
       </c>
       <c r="B330" s="3" t="inlineStr">
@@ -4414,7 +4414,7 @@
     <row r="331">
       <c r="A331" s="3" t="inlineStr">
         <is>
-          <t>Wafer-958</t>
+          <t>Wafer-287</t>
         </is>
       </c>
       <c r="B331" s="3" t="inlineStr">
@@ -4426,7 +4426,7 @@
     <row r="332">
       <c r="A332" s="3" t="inlineStr">
         <is>
-          <t>Wafer-959</t>
+          <t>Wafer-288</t>
         </is>
       </c>
       <c r="B332" s="3" t="inlineStr">
@@ -4438,7 +4438,7 @@
     <row r="333">
       <c r="A333" s="3" t="inlineStr">
         <is>
-          <t>Wafer-975</t>
+          <t>Wafer-289</t>
         </is>
       </c>
       <c r="B333" s="3" t="inlineStr">
@@ -4450,7 +4450,7 @@
     <row r="334">
       <c r="A334" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1105</t>
+          <t>Wafer-292</t>
         </is>
       </c>
       <c r="B334" s="3" t="inlineStr">
@@ -4462,7 +4462,7 @@
     <row r="335">
       <c r="A335" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1106</t>
+          <t>Wafer-293</t>
         </is>
       </c>
       <c r="B335" s="3" t="inlineStr">
@@ -4474,7 +4474,7 @@
     <row r="336">
       <c r="A336" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1119</t>
+          <t>Wafer-294</t>
         </is>
       </c>
       <c r="B336" s="3" t="inlineStr">
@@ -4486,7 +4486,7 @@
     <row r="337">
       <c r="A337" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1122</t>
+          <t>Wafer-295</t>
         </is>
       </c>
       <c r="B337" s="3" t="inlineStr">
@@ -4498,7 +4498,7 @@
     <row r="338">
       <c r="A338" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1125</t>
+          <t>Wafer-296</t>
         </is>
       </c>
       <c r="B338" s="3" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="339">
       <c r="A339" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1127</t>
+          <t>Wafer-297</t>
         </is>
       </c>
       <c r="B339" s="3" t="inlineStr">
@@ -4522,7 +4522,7 @@
     <row r="340">
       <c r="A340" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1128</t>
+          <t>Wafer-298</t>
         </is>
       </c>
       <c r="B340" s="3" t="inlineStr">
@@ -4534,7 +4534,7 @@
     <row r="341">
       <c r="A341" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1141</t>
+          <t>Wafer-299</t>
         </is>
       </c>
       <c r="B341" s="3" t="inlineStr">
@@ -4546,7 +4546,7 @@
     <row r="342">
       <c r="A342" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1144</t>
+          <t>Wafer-300</t>
         </is>
       </c>
       <c r="B342" s="3" t="inlineStr">
@@ -4558,7 +4558,7 @@
     <row r="343">
       <c r="A343" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1151</t>
+          <t>Wafer-903</t>
         </is>
       </c>
       <c r="B343" s="3" t="inlineStr">
@@ -4570,7 +4570,7 @@
     <row r="344">
       <c r="A344" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1177</t>
+          <t>Wafer-909</t>
         </is>
       </c>
       <c r="B344" s="3" t="inlineStr">
@@ -4582,7 +4582,7 @@
     <row r="345">
       <c r="A345" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1190</t>
+          <t>Wafer-911</t>
         </is>
       </c>
       <c r="B345" s="3" t="inlineStr">
@@ -4594,7 +4594,7 @@
     <row r="346">
       <c r="A346" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1191</t>
+          <t>Wafer-912</t>
         </is>
       </c>
       <c r="B346" s="3" t="inlineStr">
@@ -4606,7 +4606,7 @@
     <row r="347">
       <c r="A347" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1201</t>
+          <t>Wafer-913</t>
         </is>
       </c>
       <c r="B347" s="3" t="inlineStr">
@@ -4618,7 +4618,7 @@
     <row r="348">
       <c r="A348" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1211</t>
+          <t>Wafer-914</t>
         </is>
       </c>
       <c r="B348" s="3" t="inlineStr">
@@ -4630,7 +4630,7 @@
     <row r="349">
       <c r="A349" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1233</t>
+          <t>Wafer-915</t>
         </is>
       </c>
       <c r="B349" s="3" t="inlineStr">
@@ -4642,7 +4642,7 @@
     <row r="350">
       <c r="A350" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1245</t>
+          <t>Wafer-916</t>
         </is>
       </c>
       <c r="B350" s="3" t="inlineStr">
@@ -4654,7 +4654,7 @@
     <row r="351">
       <c r="A351" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1254</t>
+          <t>Wafer-917</t>
         </is>
       </c>
       <c r="B351" s="3" t="inlineStr">
@@ -4666,7 +4666,7 @@
     <row r="352">
       <c r="A352" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1272</t>
+          <t>Wafer-918</t>
         </is>
       </c>
       <c r="B352" s="3" t="inlineStr">
@@ -4678,7 +4678,7 @@
     <row r="353">
       <c r="A353" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1283</t>
+          <t>Wafer-919</t>
         </is>
       </c>
       <c r="B353" s="3" t="inlineStr">
@@ -4690,7 +4690,7 @@
     <row r="354">
       <c r="A354" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1294</t>
+          <t>Wafer-921</t>
         </is>
       </c>
       <c r="B354" s="3" t="inlineStr">
@@ -4702,7 +4702,7 @@
     <row r="355">
       <c r="A355" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1410</t>
+          <t>Wafer-922</t>
         </is>
       </c>
       <c r="B355" s="3" t="inlineStr">
@@ -4714,7 +4714,7 @@
     <row r="356">
       <c r="A356" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1411</t>
+          <t>Wafer-924</t>
         </is>
       </c>
       <c r="B356" s="3" t="inlineStr">
@@ -4726,7 +4726,7 @@
     <row r="357">
       <c r="A357" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1412</t>
+          <t>Wafer-925</t>
         </is>
       </c>
       <c r="B357" s="3" t="inlineStr">
@@ -4738,7 +4738,7 @@
     <row r="358">
       <c r="A358" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1416</t>
+          <t>Wafer-927</t>
         </is>
       </c>
       <c r="B358" s="3" t="inlineStr">
@@ -4750,7 +4750,7 @@
     <row r="359">
       <c r="A359" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1431</t>
+          <t>Wafer-928</t>
         </is>
       </c>
       <c r="B359" s="3" t="inlineStr">
@@ -4762,7 +4762,7 @@
     <row r="360">
       <c r="A360" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1438</t>
+          <t>Wafer-930</t>
         </is>
       </c>
       <c r="B360" s="3" t="inlineStr">
@@ -4774,7 +4774,7 @@
     <row r="361">
       <c r="A361" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1456</t>
+          <t>Wafer-932</t>
         </is>
       </c>
       <c r="B361" s="3" t="inlineStr">
@@ -4786,7 +4786,7 @@
     <row r="362">
       <c r="A362" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1460</t>
+          <t>Wafer-933</t>
         </is>
       </c>
       <c r="B362" s="3" t="inlineStr">
@@ -4798,7 +4798,7 @@
     <row r="363">
       <c r="A363" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1465</t>
+          <t>Wafer-934</t>
         </is>
       </c>
       <c r="B363" s="3" t="inlineStr">
@@ -4810,7 +4810,7 @@
     <row r="364">
       <c r="A364" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1473</t>
+          <t>Wafer-935</t>
         </is>
       </c>
       <c r="B364" s="3" t="inlineStr">
@@ -4822,7 +4822,7 @@
     <row r="365">
       <c r="A365" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1477</t>
+          <t>Wafer-938</t>
         </is>
       </c>
       <c r="B365" s="3" t="inlineStr">
@@ -4834,7 +4834,7 @@
     <row r="366">
       <c r="A366" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1482</t>
+          <t>Wafer-940</t>
         </is>
       </c>
       <c r="B366" s="3" t="inlineStr">
@@ -4846,7 +4846,7 @@
     <row r="367">
       <c r="A367" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1519</t>
+          <t>Wafer-941</t>
         </is>
       </c>
       <c r="B367" s="3" t="inlineStr">
@@ -4858,7 +4858,7 @@
     <row r="368">
       <c r="A368" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1521</t>
+          <t>Wafer-942</t>
         </is>
       </c>
       <c r="B368" s="3" t="inlineStr">
@@ -4870,7 +4870,7 @@
     <row r="369">
       <c r="A369" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1524</t>
+          <t>Wafer-943</t>
         </is>
       </c>
       <c r="B369" s="3" t="inlineStr">
@@ -4882,7 +4882,7 @@
     <row r="370">
       <c r="A370" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1527</t>
+          <t>Wafer-944</t>
         </is>
       </c>
       <c r="B370" s="3" t="inlineStr">
@@ -4894,7 +4894,7 @@
     <row r="371">
       <c r="A371" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1539</t>
+          <t>Wafer-946</t>
         </is>
       </c>
       <c r="B371" s="3" t="inlineStr">
@@ -4906,7 +4906,7 @@
     <row r="372">
       <c r="A372" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1545</t>
+          <t>Wafer-949</t>
         </is>
       </c>
       <c r="B372" s="3" t="inlineStr">
@@ -4918,7 +4918,7 @@
     <row r="373">
       <c r="A373" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1564</t>
+          <t>Wafer-950</t>
         </is>
       </c>
       <c r="B373" s="3" t="inlineStr">
@@ -4930,7 +4930,7 @@
     <row r="374">
       <c r="A374" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1571</t>
+          <t>Wafer-952</t>
         </is>
       </c>
       <c r="B374" s="3" t="inlineStr">
@@ -4942,7 +4942,7 @@
     <row r="375">
       <c r="A375" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1581</t>
+          <t>Wafer-953</t>
         </is>
       </c>
       <c r="B375" s="3" t="inlineStr">
@@ -4954,7 +4954,7 @@
     <row r="376">
       <c r="A376" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1591</t>
+          <t>Wafer-954</t>
         </is>
       </c>
       <c r="B376" s="3" t="inlineStr">
@@ -4966,7 +4966,7 @@
     <row r="377">
       <c r="A377" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1596</t>
+          <t>Wafer-956</t>
         </is>
       </c>
       <c r="B377" s="3" t="inlineStr">
@@ -4978,7 +4978,7 @@
     <row r="378">
       <c r="A378" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1619</t>
+          <t>Wafer-957</t>
         </is>
       </c>
       <c r="B378" s="3" t="inlineStr">
@@ -4990,7 +4990,7 @@
     <row r="379">
       <c r="A379" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1623</t>
+          <t>Wafer-959</t>
         </is>
       </c>
       <c r="B379" s="3" t="inlineStr">
@@ -5002,7 +5002,7 @@
     <row r="380">
       <c r="A380" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1661</t>
+          <t>Wafer-960</t>
         </is>
       </c>
       <c r="B380" s="3" t="inlineStr">
@@ -5014,7 +5014,7 @@
     <row r="381">
       <c r="A381" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1675</t>
+          <t>Wafer-961</t>
         </is>
       </c>
       <c r="B381" s="3" t="inlineStr">
@@ -5026,7 +5026,7 @@
     <row r="382">
       <c r="A382" s="3" t="inlineStr">
         <is>
-          <t>Wafer-201</t>
+          <t>Wafer-963</t>
         </is>
       </c>
       <c r="B382" s="3" t="inlineStr">
@@ -5038,7 +5038,7 @@
     <row r="383">
       <c r="A383" s="3" t="inlineStr">
         <is>
-          <t>Wafer-202</t>
+          <t>Wafer-966</t>
         </is>
       </c>
       <c r="B383" s="3" t="inlineStr">
@@ -5050,7 +5050,7 @@
     <row r="384">
       <c r="A384" s="3" t="inlineStr">
         <is>
-          <t>Wafer-205</t>
+          <t>Wafer-970</t>
         </is>
       </c>
       <c r="B384" s="3" t="inlineStr">
@@ -5062,7 +5062,7 @@
     <row r="385">
       <c r="A385" s="3" t="inlineStr">
         <is>
-          <t>Wafer-207</t>
+          <t>Wafer-971</t>
         </is>
       </c>
       <c r="B385" s="3" t="inlineStr">
@@ -5074,7 +5074,7 @@
     <row r="386">
       <c r="A386" s="3" t="inlineStr">
         <is>
-          <t>Wafer-212</t>
+          <t>Wafer-972</t>
         </is>
       </c>
       <c r="B386" s="3" t="inlineStr">
@@ -5086,7 +5086,7 @@
     <row r="387">
       <c r="A387" s="3" t="inlineStr">
         <is>
-          <t>Wafer-215</t>
+          <t>Wafer-973</t>
         </is>
       </c>
       <c r="B387" s="3" t="inlineStr">
@@ -5098,7 +5098,7 @@
     <row r="388">
       <c r="A388" s="3" t="inlineStr">
         <is>
-          <t>Wafer-216</t>
+          <t>Wafer-977</t>
         </is>
       </c>
       <c r="B388" s="3" t="inlineStr">
@@ -5110,7 +5110,7 @@
     <row r="389">
       <c r="A389" s="3" t="inlineStr">
         <is>
-          <t>Wafer-218</t>
+          <t>Wafer-978</t>
         </is>
       </c>
       <c r="B389" s="3" t="inlineStr">
@@ -5122,7 +5122,7 @@
     <row r="390">
       <c r="A390" s="3" t="inlineStr">
         <is>
-          <t>Wafer-219</t>
+          <t>Wafer-982</t>
         </is>
       </c>
       <c r="B390" s="3" t="inlineStr">
@@ -5134,7 +5134,7 @@
     <row r="391">
       <c r="A391" s="3" t="inlineStr">
         <is>
-          <t>Wafer-220</t>
+          <t>Wafer-985</t>
         </is>
       </c>
       <c r="B391" s="3" t="inlineStr">
@@ -5146,7 +5146,7 @@
     <row r="392">
       <c r="A392" s="3" t="inlineStr">
         <is>
-          <t>Wafer-222</t>
+          <t>Wafer-986</t>
         </is>
       </c>
       <c r="B392" s="3" t="inlineStr">
@@ -5158,7 +5158,7 @@
     <row r="393">
       <c r="A393" s="3" t="inlineStr">
         <is>
-          <t>Wafer-223</t>
+          <t>Wafer-987</t>
         </is>
       </c>
       <c r="B393" s="3" t="inlineStr">
@@ -5170,7 +5170,7 @@
     <row r="394">
       <c r="A394" s="3" t="inlineStr">
         <is>
-          <t>Wafer-225</t>
+          <t>Wafer-990</t>
         </is>
       </c>
       <c r="B394" s="3" t="inlineStr">
@@ -5182,7 +5182,7 @@
     <row r="395">
       <c r="A395" s="3" t="inlineStr">
         <is>
-          <t>Wafer-226</t>
+          <t>Wafer-992</t>
         </is>
       </c>
       <c r="B395" s="3" t="inlineStr">
@@ -5194,7 +5194,7 @@
     <row r="396">
       <c r="A396" s="3" t="inlineStr">
         <is>
-          <t>Wafer-228</t>
+          <t>Wafer-993</t>
         </is>
       </c>
       <c r="B396" s="3" t="inlineStr">
@@ -5206,7 +5206,7 @@
     <row r="397">
       <c r="A397" s="3" t="inlineStr">
         <is>
-          <t>Wafer-229</t>
+          <t>Wafer-994</t>
         </is>
       </c>
       <c r="B397" s="3" t="inlineStr">
@@ -5218,7 +5218,7 @@
     <row r="398">
       <c r="A398" s="3" t="inlineStr">
         <is>
-          <t>Wafer-231</t>
+          <t>Wafer-996</t>
         </is>
       </c>
       <c r="B398" s="3" t="inlineStr">
@@ -5230,7 +5230,7 @@
     <row r="399">
       <c r="A399" s="3" t="inlineStr">
         <is>
-          <t>Wafer-234</t>
+          <t>Wafer-998</t>
         </is>
       </c>
       <c r="B399" s="3" t="inlineStr">
@@ -5242,7 +5242,7 @@
     <row r="400">
       <c r="A400" s="3" t="inlineStr">
         <is>
-          <t>Wafer-235</t>
+          <t>Wafer-1101</t>
         </is>
       </c>
       <c r="B400" s="3" t="inlineStr">
@@ -5254,7 +5254,7 @@
     <row r="401">
       <c r="A401" s="3" t="inlineStr">
         <is>
-          <t>Wafer-237</t>
+          <t>Wafer-1102</t>
         </is>
       </c>
       <c r="B401" s="3" t="inlineStr">
@@ -5266,7 +5266,7 @@
     <row r="402">
       <c r="A402" s="3" t="inlineStr">
         <is>
-          <t>Wafer-239</t>
+          <t>Wafer-1104</t>
         </is>
       </c>
       <c r="B402" s="3" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="403">
       <c r="A403" s="3" t="inlineStr">
         <is>
-          <t>Wafer-240</t>
+          <t>Wafer-1105</t>
         </is>
       </c>
       <c r="B403" s="3" t="inlineStr">
@@ -5290,7 +5290,7 @@
     <row r="404">
       <c r="A404" s="3" t="inlineStr">
         <is>
-          <t>Wafer-242</t>
+          <t>Wafer-1106</t>
         </is>
       </c>
       <c r="B404" s="3" t="inlineStr">
@@ -5302,7 +5302,7 @@
     <row r="405">
       <c r="A405" s="3" t="inlineStr">
         <is>
-          <t>Wafer-243</t>
+          <t>Wafer-1107</t>
         </is>
       </c>
       <c r="B405" s="3" t="inlineStr">
@@ -5314,7 +5314,7 @@
     <row r="406">
       <c r="A406" s="3" t="inlineStr">
         <is>
-          <t>Wafer-252</t>
+          <t>Wafer-1110</t>
         </is>
       </c>
       <c r="B406" s="3" t="inlineStr">
@@ -5326,7 +5326,7 @@
     <row r="407">
       <c r="A407" s="3" t="inlineStr">
         <is>
-          <t>Wafer-254</t>
+          <t>Wafer-1112</t>
         </is>
       </c>
       <c r="B407" s="3" t="inlineStr">
@@ -5338,7 +5338,7 @@
     <row r="408">
       <c r="A408" s="3" t="inlineStr">
         <is>
-          <t>Wafer-255</t>
+          <t>Wafer-1114</t>
         </is>
       </c>
       <c r="B408" s="3" t="inlineStr">
@@ -5350,7 +5350,7 @@
     <row r="409">
       <c r="A409" s="3" t="inlineStr">
         <is>
-          <t>Wafer-257</t>
+          <t>Wafer-1116</t>
         </is>
       </c>
       <c r="B409" s="3" t="inlineStr">
@@ -5362,7 +5362,7 @@
     <row r="410">
       <c r="A410" s="3" t="inlineStr">
         <is>
-          <t>Wafer-261</t>
+          <t>Wafer-1118</t>
         </is>
       </c>
       <c r="B410" s="3" t="inlineStr">
@@ -5374,7 +5374,7 @@
     <row r="411">
       <c r="A411" s="3" t="inlineStr">
         <is>
-          <t>Wafer-262</t>
+          <t>Wafer-1120</t>
         </is>
       </c>
       <c r="B411" s="3" t="inlineStr">
@@ -5386,7 +5386,7 @@
     <row r="412">
       <c r="A412" s="3" t="inlineStr">
         <is>
-          <t>Wafer-263</t>
+          <t>Wafer-1121</t>
         </is>
       </c>
       <c r="B412" s="3" t="inlineStr">
@@ -5398,7 +5398,7 @@
     <row r="413">
       <c r="A413" s="3" t="inlineStr">
         <is>
-          <t>Wafer-264</t>
+          <t>Wafer-1122</t>
         </is>
       </c>
       <c r="B413" s="3" t="inlineStr">
@@ -5410,7 +5410,7 @@
     <row r="414">
       <c r="A414" s="3" t="inlineStr">
         <is>
-          <t>Wafer-265</t>
+          <t>Wafer-1125</t>
         </is>
       </c>
       <c r="B414" s="3" t="inlineStr">
@@ -5422,7 +5422,7 @@
     <row r="415">
       <c r="A415" s="3" t="inlineStr">
         <is>
-          <t>Wafer-267</t>
+          <t>Wafer-1126</t>
         </is>
       </c>
       <c r="B415" s="3" t="inlineStr">
@@ -5434,7 +5434,7 @@
     <row r="416">
       <c r="A416" s="3" t="inlineStr">
         <is>
-          <t>Wafer-270</t>
+          <t>Wafer-1128</t>
         </is>
       </c>
       <c r="B416" s="3" t="inlineStr">
@@ -5446,7 +5446,7 @@
     <row r="417">
       <c r="A417" s="3" t="inlineStr">
         <is>
-          <t>Wafer-271</t>
+          <t>Wafer-1129</t>
         </is>
       </c>
       <c r="B417" s="3" t="inlineStr">
@@ -5458,7 +5458,7 @@
     <row r="418">
       <c r="A418" s="3" t="inlineStr">
         <is>
-          <t>Wafer-272</t>
+          <t>Wafer-1130</t>
         </is>
       </c>
       <c r="B418" s="3" t="inlineStr">
@@ -5470,7 +5470,7 @@
     <row r="419">
       <c r="A419" s="3" t="inlineStr">
         <is>
-          <t>Wafer-274</t>
+          <t>Wafer-1132</t>
         </is>
       </c>
       <c r="B419" s="3" t="inlineStr">
@@ -5482,7 +5482,7 @@
     <row r="420">
       <c r="A420" s="3" t="inlineStr">
         <is>
-          <t>Wafer-279</t>
+          <t>Wafer-1133</t>
         </is>
       </c>
       <c r="B420" s="3" t="inlineStr">
@@ -5494,7 +5494,7 @@
     <row r="421">
       <c r="A421" s="3" t="inlineStr">
         <is>
-          <t>Wafer-281</t>
+          <t>Wafer-1134</t>
         </is>
       </c>
       <c r="B421" s="3" t="inlineStr">
@@ -5506,7 +5506,7 @@
     <row r="422">
       <c r="A422" s="3" t="inlineStr">
         <is>
-          <t>Wafer-282</t>
+          <t>Wafer-1135</t>
         </is>
       </c>
       <c r="B422" s="3" t="inlineStr">
@@ -5518,7 +5518,7 @@
     <row r="423">
       <c r="A423" s="3" t="inlineStr">
         <is>
-          <t>Wafer-283</t>
+          <t>Wafer-1137</t>
         </is>
       </c>
       <c r="B423" s="3" t="inlineStr">
@@ -5530,7 +5530,7 @@
     <row r="424">
       <c r="A424" s="3" t="inlineStr">
         <is>
-          <t>Wafer-284</t>
+          <t>Wafer-1138</t>
         </is>
       </c>
       <c r="B424" s="3" t="inlineStr">
@@ -5542,7 +5542,7 @@
     <row r="425">
       <c r="A425" s="3" t="inlineStr">
         <is>
-          <t>Wafer-286</t>
+          <t>Wafer-1140</t>
         </is>
       </c>
       <c r="B425" s="3" t="inlineStr">
@@ -5554,7 +5554,7 @@
     <row r="426">
       <c r="A426" s="3" t="inlineStr">
         <is>
-          <t>Wafer-289</t>
+          <t>Wafer-1143</t>
         </is>
       </c>
       <c r="B426" s="3" t="inlineStr">
@@ -5566,7 +5566,7 @@
     <row r="427">
       <c r="A427" s="3" t="inlineStr">
         <is>
-          <t>Wafer-290</t>
+          <t>Wafer-1144</t>
         </is>
       </c>
       <c r="B427" s="3" t="inlineStr">
@@ -5578,7 +5578,7 @@
     <row r="428">
       <c r="A428" s="3" t="inlineStr">
         <is>
-          <t>Wafer-291</t>
+          <t>Wafer-1148</t>
         </is>
       </c>
       <c r="B428" s="3" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="429">
       <c r="A429" s="3" t="inlineStr">
         <is>
-          <t>Wafer-293</t>
+          <t>Wafer-1150</t>
         </is>
       </c>
       <c r="B429" s="3" t="inlineStr">
@@ -5602,7 +5602,7 @@
     <row r="430">
       <c r="A430" s="3" t="inlineStr">
         <is>
-          <t>Wafer-295</t>
+          <t>Wafer-1151</t>
         </is>
       </c>
       <c r="B430" s="3" t="inlineStr">
@@ -5614,7 +5614,7 @@
     <row r="431">
       <c r="A431" s="3" t="inlineStr">
         <is>
-          <t>Wafer-298</t>
+          <t>Wafer-1152</t>
         </is>
       </c>
       <c r="B431" s="3" t="inlineStr">
@@ -5626,7 +5626,7 @@
     <row r="432">
       <c r="A432" s="3" t="inlineStr">
         <is>
-          <t>Wafer-300</t>
+          <t>Wafer-1156</t>
         </is>
       </c>
       <c r="B432" s="3" t="inlineStr">
@@ -5638,7 +5638,7 @@
     <row r="433">
       <c r="A433" s="3" t="inlineStr">
         <is>
-          <t>Wafer-902</t>
+          <t>Wafer-1157</t>
         </is>
       </c>
       <c r="B433" s="3" t="inlineStr">
@@ -5650,7 +5650,7 @@
     <row r="434">
       <c r="A434" s="3" t="inlineStr">
         <is>
-          <t>Wafer-905</t>
+          <t>Wafer-1160</t>
         </is>
       </c>
       <c r="B434" s="3" t="inlineStr">
@@ -5662,7 +5662,7 @@
     <row r="435">
       <c r="A435" s="3" t="inlineStr">
         <is>
-          <t>Wafer-906</t>
+          <t>Wafer-1161</t>
         </is>
       </c>
       <c r="B435" s="3" t="inlineStr">
@@ -5674,7 +5674,7 @@
     <row r="436">
       <c r="A436" s="3" t="inlineStr">
         <is>
-          <t>Wafer-907</t>
+          <t>Wafer-1162</t>
         </is>
       </c>
       <c r="B436" s="3" t="inlineStr">
@@ -5686,7 +5686,7 @@
     <row r="437">
       <c r="A437" s="3" t="inlineStr">
         <is>
-          <t>Wafer-908</t>
+          <t>Wafer-1168</t>
         </is>
       </c>
       <c r="B437" s="3" t="inlineStr">
@@ -5698,7 +5698,7 @@
     <row r="438">
       <c r="A438" s="3" t="inlineStr">
         <is>
-          <t>Wafer-909</t>
+          <t>Wafer-1173</t>
         </is>
       </c>
       <c r="B438" s="3" t="inlineStr">
@@ -5710,7 +5710,7 @@
     <row r="439">
       <c r="A439" s="3" t="inlineStr">
         <is>
-          <t>Wafer-911</t>
+          <t>Wafer-1174</t>
         </is>
       </c>
       <c r="B439" s="3" t="inlineStr">
@@ -5722,7 +5722,7 @@
     <row r="440">
       <c r="A440" s="3" t="inlineStr">
         <is>
-          <t>Wafer-913</t>
+          <t>Wafer-1175</t>
         </is>
       </c>
       <c r="B440" s="3" t="inlineStr">
@@ -5734,7 +5734,7 @@
     <row r="441">
       <c r="A441" s="3" t="inlineStr">
         <is>
-          <t>Wafer-915</t>
+          <t>Wafer-1176</t>
         </is>
       </c>
       <c r="B441" s="3" t="inlineStr">
@@ -5746,7 +5746,7 @@
     <row r="442">
       <c r="A442" s="3" t="inlineStr">
         <is>
-          <t>Wafer-916</t>
+          <t>Wafer-1178</t>
         </is>
       </c>
       <c r="B442" s="3" t="inlineStr">
@@ -5758,7 +5758,7 @@
     <row r="443">
       <c r="A443" s="3" t="inlineStr">
         <is>
-          <t>Wafer-917</t>
+          <t>Wafer-1179</t>
         </is>
       </c>
       <c r="B443" s="3" t="inlineStr">
@@ -5770,7 +5770,7 @@
     <row r="444">
       <c r="A444" s="3" t="inlineStr">
         <is>
-          <t>Wafer-921</t>
+          <t>Wafer-1180</t>
         </is>
       </c>
       <c r="B444" s="3" t="inlineStr">
@@ -5782,7 +5782,7 @@
     <row r="445">
       <c r="A445" s="3" t="inlineStr">
         <is>
-          <t>Wafer-923</t>
+          <t>Wafer-1181</t>
         </is>
       </c>
       <c r="B445" s="3" t="inlineStr">
@@ -5794,7 +5794,7 @@
     <row r="446">
       <c r="A446" s="3" t="inlineStr">
         <is>
-          <t>Wafer-925</t>
+          <t>Wafer-1182</t>
         </is>
       </c>
       <c r="B446" s="3" t="inlineStr">
@@ -5806,7 +5806,7 @@
     <row r="447">
       <c r="A447" s="3" t="inlineStr">
         <is>
-          <t>Wafer-926</t>
+          <t>Wafer-1184</t>
         </is>
       </c>
       <c r="B447" s="3" t="inlineStr">
@@ -5818,7 +5818,7 @@
     <row r="448">
       <c r="A448" s="3" t="inlineStr">
         <is>
-          <t>Wafer-928</t>
+          <t>Wafer-1187</t>
         </is>
       </c>
       <c r="B448" s="3" t="inlineStr">
@@ -5830,7 +5830,7 @@
     <row r="449">
       <c r="A449" s="3" t="inlineStr">
         <is>
-          <t>Wafer-932</t>
+          <t>Wafer-1190</t>
         </is>
       </c>
       <c r="B449" s="3" t="inlineStr">
@@ -5842,7 +5842,7 @@
     <row r="450">
       <c r="A450" s="3" t="inlineStr">
         <is>
-          <t>Wafer-933</t>
+          <t>Wafer-1192</t>
         </is>
       </c>
       <c r="B450" s="3" t="inlineStr">
@@ -5854,7 +5854,7 @@
     <row r="451">
       <c r="A451" s="3" t="inlineStr">
         <is>
-          <t>Wafer-934</t>
+          <t>Wafer-1193</t>
         </is>
       </c>
       <c r="B451" s="3" t="inlineStr">
@@ -5866,7 +5866,7 @@
     <row r="452">
       <c r="A452" s="3" t="inlineStr">
         <is>
-          <t>Wafer-935</t>
+          <t>Wafer-1195</t>
         </is>
       </c>
       <c r="B452" s="3" t="inlineStr">
@@ -5878,7 +5878,7 @@
     <row r="453">
       <c r="A453" s="3" t="inlineStr">
         <is>
-          <t>Wafer-938</t>
+          <t>Wafer-1196</t>
         </is>
       </c>
       <c r="B453" s="3" t="inlineStr">
@@ -5890,7 +5890,7 @@
     <row r="454">
       <c r="A454" s="3" t="inlineStr">
         <is>
-          <t>Wafer-939</t>
+          <t>Wafer-1199</t>
         </is>
       </c>
       <c r="B454" s="3" t="inlineStr">
@@ -5902,7 +5902,7 @@
     <row r="455">
       <c r="A455" s="3" t="inlineStr">
         <is>
-          <t>Wafer-944</t>
+          <t>Wafer-1200</t>
         </is>
       </c>
       <c r="B455" s="3" t="inlineStr">
@@ -5914,7 +5914,7 @@
     <row r="456">
       <c r="A456" s="3" t="inlineStr">
         <is>
-          <t>Wafer-949</t>
+          <t>Wafer-1201</t>
         </is>
       </c>
       <c r="B456" s="3" t="inlineStr">
@@ -5926,7 +5926,7 @@
     <row r="457">
       <c r="A457" s="3" t="inlineStr">
         <is>
-          <t>Wafer-950</t>
+          <t>Wafer-1203</t>
         </is>
       </c>
       <c r="B457" s="3" t="inlineStr">
@@ -5938,7 +5938,7 @@
     <row r="458">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>Wafer-952</t>
+          <t>Wafer-1204</t>
         </is>
       </c>
       <c r="B458" s="3" t="inlineStr">
@@ -5950,7 +5950,7 @@
     <row r="459">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>Wafer-953</t>
+          <t>Wafer-1205</t>
         </is>
       </c>
       <c r="B459" s="3" t="inlineStr">
@@ -5962,7 +5962,7 @@
     <row r="460">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>Wafer-954</t>
+          <t>Wafer-1206</t>
         </is>
       </c>
       <c r="B460" s="3" t="inlineStr">
@@ -5974,19 +5974,19 @@
     <row r="461">
       <c r="A461" s="3" t="inlineStr">
         <is>
-          <t>Wafer-955</t>
+          <t>Wafer-1207</t>
         </is>
       </c>
       <c r="B461" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="3" t="inlineStr">
         <is>
-          <t>Wafer-961</t>
+          <t>Wafer-1208</t>
         </is>
       </c>
       <c r="B462" s="3" t="inlineStr">
@@ -5998,7 +5998,7 @@
     <row r="463">
       <c r="A463" s="3" t="inlineStr">
         <is>
-          <t>Wafer-965</t>
+          <t>Wafer-1209</t>
         </is>
       </c>
       <c r="B463" s="3" t="inlineStr">
@@ -6010,7 +6010,7 @@
     <row r="464">
       <c r="A464" s="3" t="inlineStr">
         <is>
-          <t>Wafer-966</t>
+          <t>Wafer-1211</t>
         </is>
       </c>
       <c r="B464" s="3" t="inlineStr">
@@ -6022,7 +6022,7 @@
     <row r="465">
       <c r="A465" s="3" t="inlineStr">
         <is>
-          <t>Wafer-972</t>
+          <t>Wafer-1212</t>
         </is>
       </c>
       <c r="B465" s="3" t="inlineStr">
@@ -6034,7 +6034,7 @@
     <row r="466">
       <c r="A466" s="3" t="inlineStr">
         <is>
-          <t>Wafer-973</t>
+          <t>Wafer-1215</t>
         </is>
       </c>
       <c r="B466" s="3" t="inlineStr">
@@ -6046,7 +6046,7 @@
     <row r="467">
       <c r="A467" s="3" t="inlineStr">
         <is>
-          <t>Wafer-977</t>
+          <t>Wafer-1216</t>
         </is>
       </c>
       <c r="B467" s="3" t="inlineStr">
@@ -6058,7 +6058,7 @@
     <row r="468">
       <c r="A468" s="3" t="inlineStr">
         <is>
-          <t>Wafer-978</t>
+          <t>Wafer-1217</t>
         </is>
       </c>
       <c r="B468" s="3" t="inlineStr">
@@ -6070,7 +6070,7 @@
     <row r="469">
       <c r="A469" s="3" t="inlineStr">
         <is>
-          <t>Wafer-980</t>
+          <t>Wafer-1218</t>
         </is>
       </c>
       <c r="B469" s="3" t="inlineStr">
@@ -6082,7 +6082,7 @@
     <row r="470">
       <c r="A470" s="3" t="inlineStr">
         <is>
-          <t>Wafer-983</t>
+          <t>Wafer-1221</t>
         </is>
       </c>
       <c r="B470" s="3" t="inlineStr">
@@ -6094,7 +6094,7 @@
     <row r="471">
       <c r="A471" s="3" t="inlineStr">
         <is>
-          <t>Wafer-987</t>
+          <t>Wafer-1222</t>
         </is>
       </c>
       <c r="B471" s="3" t="inlineStr">
@@ -6106,7 +6106,7 @@
     <row r="472">
       <c r="A472" s="3" t="inlineStr">
         <is>
-          <t>Wafer-988</t>
+          <t>Wafer-1223</t>
         </is>
       </c>
       <c r="B472" s="3" t="inlineStr">
@@ -6118,19 +6118,19 @@
     <row r="473">
       <c r="A473" s="3" t="inlineStr">
         <is>
-          <t>Wafer-989</t>
+          <t>Wafer-1224</t>
         </is>
       </c>
       <c r="B473" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="3" t="inlineStr">
         <is>
-          <t>Wafer-993</t>
+          <t>Wafer-1225</t>
         </is>
       </c>
       <c r="B474" s="3" t="inlineStr">
@@ -6142,7 +6142,7 @@
     <row r="475">
       <c r="A475" s="3" t="inlineStr">
         <is>
-          <t>Wafer-994</t>
+          <t>Wafer-1226</t>
         </is>
       </c>
       <c r="B475" s="3" t="inlineStr">
@@ -6154,7 +6154,7 @@
     <row r="476">
       <c r="A476" s="3" t="inlineStr">
         <is>
-          <t>Wafer-995</t>
+          <t>Wafer-1228</t>
         </is>
       </c>
       <c r="B476" s="3" t="inlineStr">
@@ -6166,7 +6166,7 @@
     <row r="477">
       <c r="A477" s="3" t="inlineStr">
         <is>
-          <t>Wafer-996</t>
+          <t>Wafer-1230</t>
         </is>
       </c>
       <c r="B477" s="3" t="inlineStr">
@@ -6178,7 +6178,7 @@
     <row r="478">
       <c r="A478" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1000</t>
+          <t>Wafer-1231</t>
         </is>
       </c>
       <c r="B478" s="3" t="inlineStr">
@@ -6190,7 +6190,7 @@
     <row r="479">
       <c r="A479" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1107</t>
+          <t>Wafer-1232</t>
         </is>
       </c>
       <c r="B479" s="3" t="inlineStr">
@@ -6202,7 +6202,7 @@
     <row r="480">
       <c r="A480" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1108</t>
+          <t>Wafer-1233</t>
         </is>
       </c>
       <c r="B480" s="3" t="inlineStr">
@@ -6214,7 +6214,7 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1112</t>
+          <t>Wafer-1235</t>
         </is>
       </c>
       <c r="B481" s="3" t="inlineStr">
@@ -6226,7 +6226,7 @@
     <row r="482">
       <c r="A482" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1114</t>
+          <t>Wafer-1238</t>
         </is>
       </c>
       <c r="B482" s="3" t="inlineStr">
@@ -6238,7 +6238,7 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1116</t>
+          <t>Wafer-1239</t>
         </is>
       </c>
       <c r="B483" s="3" t="inlineStr">
@@ -6250,19 +6250,19 @@
     <row r="484">
       <c r="A484" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1117</t>
+          <t>Wafer-1240</t>
         </is>
       </c>
       <c r="B484" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1120</t>
+          <t>Wafer-1241</t>
         </is>
       </c>
       <c r="B485" s="3" t="inlineStr">
@@ -6274,7 +6274,7 @@
     <row r="486">
       <c r="A486" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1121</t>
+          <t>Wafer-1242</t>
         </is>
       </c>
       <c r="B486" s="3" t="inlineStr">
@@ -6286,7 +6286,7 @@
     <row r="487">
       <c r="A487" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1124</t>
+          <t>Wafer-1243</t>
         </is>
       </c>
       <c r="B487" s="3" t="inlineStr">
@@ -6298,7 +6298,7 @@
     <row r="488">
       <c r="A488" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1126</t>
+          <t>Wafer-1244</t>
         </is>
       </c>
       <c r="B488" s="3" t="inlineStr">
@@ -6310,7 +6310,7 @@
     <row r="489">
       <c r="A489" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1129</t>
+          <t>Wafer-1245</t>
         </is>
       </c>
       <c r="B489" s="3" t="inlineStr">
@@ -6322,7 +6322,7 @@
     <row r="490">
       <c r="A490" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1131</t>
+          <t>Wafer-1248</t>
         </is>
       </c>
       <c r="B490" s="3" t="inlineStr">
@@ -6334,7 +6334,7 @@
     <row r="491">
       <c r="A491" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1132</t>
+          <t>Wafer-1249</t>
         </is>
       </c>
       <c r="B491" s="3" t="inlineStr">
@@ -6346,7 +6346,7 @@
     <row r="492">
       <c r="A492" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1134</t>
+          <t>Wafer-1250</t>
         </is>
       </c>
       <c r="B492" s="3" t="inlineStr">
@@ -6358,7 +6358,7 @@
     <row r="493">
       <c r="A493" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1135</t>
+          <t>Wafer-1251</t>
         </is>
       </c>
       <c r="B493" s="3" t="inlineStr">
@@ -6370,7 +6370,7 @@
     <row r="494">
       <c r="A494" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1140</t>
+          <t>Wafer-1252</t>
         </is>
       </c>
       <c r="B494" s="3" t="inlineStr">
@@ -6382,7 +6382,7 @@
     <row r="495">
       <c r="A495" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1142</t>
+          <t>Wafer-1253</t>
         </is>
       </c>
       <c r="B495" s="3" t="inlineStr">
@@ -6394,7 +6394,7 @@
     <row r="496">
       <c r="A496" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1146</t>
+          <t>Wafer-1254</t>
         </is>
       </c>
       <c r="B496" s="3" t="inlineStr">
@@ -6406,7 +6406,7 @@
     <row r="497">
       <c r="A497" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1148</t>
+          <t>Wafer-1255</t>
         </is>
       </c>
       <c r="B497" s="3" t="inlineStr">
@@ -6418,7 +6418,7 @@
     <row r="498">
       <c r="A498" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1150</t>
+          <t>Wafer-1256</t>
         </is>
       </c>
       <c r="B498" s="3" t="inlineStr">
@@ -6430,7 +6430,7 @@
     <row r="499">
       <c r="A499" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1153</t>
+          <t>Wafer-1258</t>
         </is>
       </c>
       <c r="B499" s="3" t="inlineStr">
@@ -6442,7 +6442,7 @@
     <row r="500">
       <c r="A500" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1154</t>
+          <t>Wafer-1259</t>
         </is>
       </c>
       <c r="B500" s="3" t="inlineStr">
@@ -6454,7 +6454,7 @@
     <row r="501">
       <c r="A501" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1155</t>
+          <t>Wafer-1260</t>
         </is>
       </c>
       <c r="B501" s="3" t="inlineStr">
@@ -6466,7 +6466,7 @@
     <row r="502">
       <c r="A502" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1156</t>
+          <t>Wafer-1262</t>
         </is>
       </c>
       <c r="B502" s="3" t="inlineStr">
@@ -6478,7 +6478,7 @@
     <row r="503">
       <c r="A503" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1160</t>
+          <t>Wafer-1263</t>
         </is>
       </c>
       <c r="B503" s="3" t="inlineStr">
@@ -6490,7 +6490,7 @@
     <row r="504">
       <c r="A504" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1162</t>
+          <t>Wafer-1264</t>
         </is>
       </c>
       <c r="B504" s="3" t="inlineStr">
@@ -6502,7 +6502,7 @@
     <row r="505">
       <c r="A505" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1163</t>
+          <t>Wafer-1265</t>
         </is>
       </c>
       <c r="B505" s="3" t="inlineStr">
@@ -6514,7 +6514,7 @@
     <row r="506">
       <c r="A506" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1164</t>
+          <t>Wafer-1266</t>
         </is>
       </c>
       <c r="B506" s="3" t="inlineStr">
@@ -6526,7 +6526,7 @@
     <row r="507">
       <c r="A507" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1166</t>
+          <t>Wafer-1268</t>
         </is>
       </c>
       <c r="B507" s="3" t="inlineStr">
@@ -6538,7 +6538,7 @@
     <row r="508">
       <c r="A508" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1168</t>
+          <t>Wafer-1269</t>
         </is>
       </c>
       <c r="B508" s="3" t="inlineStr">
@@ -6550,7 +6550,7 @@
     <row r="509">
       <c r="A509" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1170</t>
+          <t>Wafer-1270</t>
         </is>
       </c>
       <c r="B509" s="3" t="inlineStr">
@@ -6562,7 +6562,7 @@
     <row r="510">
       <c r="A510" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1173</t>
+          <t>Wafer-1271</t>
         </is>
       </c>
       <c r="B510" s="3" t="inlineStr">
@@ -6574,7 +6574,7 @@
     <row r="511">
       <c r="A511" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1174</t>
+          <t>Wafer-1272</t>
         </is>
       </c>
       <c r="B511" s="3" t="inlineStr">
@@ -6586,7 +6586,7 @@
     <row r="512">
       <c r="A512" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1176</t>
+          <t>Wafer-1275</t>
         </is>
       </c>
       <c r="B512" s="3" t="inlineStr">
@@ -6598,7 +6598,7 @@
     <row r="513">
       <c r="A513" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1180</t>
+          <t>Wafer-1276</t>
         </is>
       </c>
       <c r="B513" s="3" t="inlineStr">
@@ -6610,7 +6610,7 @@
     <row r="514">
       <c r="A514" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1181</t>
+          <t>Wafer-1277</t>
         </is>
       </c>
       <c r="B514" s="3" t="inlineStr">
@@ -6622,7 +6622,7 @@
     <row r="515">
       <c r="A515" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1182</t>
+          <t>Wafer-1279</t>
         </is>
       </c>
       <c r="B515" s="3" t="inlineStr">
@@ -6634,7 +6634,7 @@
     <row r="516">
       <c r="A516" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1183</t>
+          <t>Wafer-1280</t>
         </is>
       </c>
       <c r="B516" s="3" t="inlineStr">
@@ -6646,7 +6646,7 @@
     <row r="517">
       <c r="A517" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1185</t>
+          <t>Wafer-1281</t>
         </is>
       </c>
       <c r="B517" s="3" t="inlineStr">
@@ -6658,7 +6658,7 @@
     <row r="518">
       <c r="A518" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1189</t>
+          <t>Wafer-1282</t>
         </is>
       </c>
       <c r="B518" s="3" t="inlineStr">
@@ -6670,7 +6670,7 @@
     <row r="519">
       <c r="A519" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1194</t>
+          <t>Wafer-1283</t>
         </is>
       </c>
       <c r="B519" s="3" t="inlineStr">
@@ -6682,7 +6682,7 @@
     <row r="520">
       <c r="A520" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1195</t>
+          <t>Wafer-1284</t>
         </is>
       </c>
       <c r="B520" s="3" t="inlineStr">
@@ -6694,7 +6694,7 @@
     <row r="521">
       <c r="A521" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1199</t>
+          <t>Wafer-1285</t>
         </is>
       </c>
       <c r="B521" s="3" t="inlineStr">
@@ -6706,7 +6706,7 @@
     <row r="522">
       <c r="A522" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1200</t>
+          <t>Wafer-1287</t>
         </is>
       </c>
       <c r="B522" s="3" t="inlineStr">
@@ -6718,7 +6718,7 @@
     <row r="523">
       <c r="A523" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1204</t>
+          <t>Wafer-1289</t>
         </is>
       </c>
       <c r="B523" s="3" t="inlineStr">
@@ -6730,7 +6730,7 @@
     <row r="524">
       <c r="A524" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1205</t>
+          <t>Wafer-1291</t>
         </is>
       </c>
       <c r="B524" s="3" t="inlineStr">
@@ -6742,7 +6742,7 @@
     <row r="525">
       <c r="A525" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1208</t>
+          <t>Wafer-1292</t>
         </is>
       </c>
       <c r="B525" s="3" t="inlineStr">
@@ -6754,7 +6754,7 @@
     <row r="526">
       <c r="A526" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1209</t>
+          <t>Wafer-1297</t>
         </is>
       </c>
       <c r="B526" s="3" t="inlineStr">
@@ -6766,7 +6766,7 @@
     <row r="527">
       <c r="A527" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1212</t>
+          <t>Wafer-1298</t>
         </is>
       </c>
       <c r="B527" s="3" t="inlineStr">
@@ -6778,7 +6778,7 @@
     <row r="528">
       <c r="A528" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1213</t>
+          <t>Wafer-1299</t>
         </is>
       </c>
       <c r="B528" s="3" t="inlineStr">
@@ -6790,7 +6790,7 @@
     <row r="529">
       <c r="A529" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1216</t>
+          <t>Wafer-1300</t>
         </is>
       </c>
       <c r="B529" s="3" t="inlineStr">
@@ -6802,7 +6802,7 @@
     <row r="530">
       <c r="A530" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1217</t>
+          <t>Wafer-1403</t>
         </is>
       </c>
       <c r="B530" s="3" t="inlineStr">
@@ -6814,7 +6814,7 @@
     <row r="531">
       <c r="A531" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1218</t>
+          <t>Wafer-1404</t>
         </is>
       </c>
       <c r="B531" s="3" t="inlineStr">
@@ -6826,7 +6826,7 @@
     <row r="532">
       <c r="A532" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1220</t>
+          <t>Wafer-1405</t>
         </is>
       </c>
       <c r="B532" s="3" t="inlineStr">
@@ -6838,7 +6838,7 @@
     <row r="533">
       <c r="A533" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1221</t>
+          <t>Wafer-1407</t>
         </is>
       </c>
       <c r="B533" s="3" t="inlineStr">
@@ -6850,7 +6850,7 @@
     <row r="534">
       <c r="A534" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1228</t>
+          <t>Wafer-1408</t>
         </is>
       </c>
       <c r="B534" s="3" t="inlineStr">
@@ -6862,7 +6862,7 @@
     <row r="535">
       <c r="A535" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1230</t>
+          <t>Wafer-1409</t>
         </is>
       </c>
       <c r="B535" s="3" t="inlineStr">
@@ -6874,7 +6874,7 @@
     <row r="536">
       <c r="A536" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1232</t>
+          <t>Wafer-1412</t>
         </is>
       </c>
       <c r="B536" s="3" t="inlineStr">
@@ -6886,7 +6886,7 @@
     <row r="537">
       <c r="A537" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1234</t>
+          <t>Wafer-1413</t>
         </is>
       </c>
       <c r="B537" s="3" t="inlineStr">
@@ -6898,7 +6898,7 @@
     <row r="538">
       <c r="A538" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1235</t>
+          <t>Wafer-1414</t>
         </is>
       </c>
       <c r="B538" s="3" t="inlineStr">
@@ -6910,19 +6910,19 @@
     <row r="539">
       <c r="A539" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1236</t>
+          <t>Wafer-1415</t>
         </is>
       </c>
       <c r="B539" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1237</t>
+          <t>Wafer-1416</t>
         </is>
       </c>
       <c r="B540" s="3" t="inlineStr">
@@ -6934,7 +6934,7 @@
     <row r="541">
       <c r="A541" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1241</t>
+          <t>Wafer-1418</t>
         </is>
       </c>
       <c r="B541" s="3" t="inlineStr">
@@ -6946,7 +6946,7 @@
     <row r="542">
       <c r="A542" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1244</t>
+          <t>Wafer-1419</t>
         </is>
       </c>
       <c r="B542" s="3" t="inlineStr">
@@ -6958,7 +6958,7 @@
     <row r="543">
       <c r="A543" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1246</t>
+          <t>Wafer-1423</t>
         </is>
       </c>
       <c r="B543" s="3" t="inlineStr">
@@ -6970,7 +6970,7 @@
     <row r="544">
       <c r="A544" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1247</t>
+          <t>Wafer-1424</t>
         </is>
       </c>
       <c r="B544" s="3" t="inlineStr">
@@ -6982,7 +6982,7 @@
     <row r="545">
       <c r="A545" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1248</t>
+          <t>Wafer-1425</t>
         </is>
       </c>
       <c r="B545" s="3" t="inlineStr">
@@ -6994,7 +6994,7 @@
     <row r="546">
       <c r="A546" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1249</t>
+          <t>Wafer-1426</t>
         </is>
       </c>
       <c r="B546" s="3" t="inlineStr">
@@ -7006,7 +7006,7 @@
     <row r="547">
       <c r="A547" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1250</t>
+          <t>Wafer-1430</t>
         </is>
       </c>
       <c r="B547" s="3" t="inlineStr">
@@ -7018,7 +7018,7 @@
     <row r="548">
       <c r="A548" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1258</t>
+          <t>Wafer-1433</t>
         </is>
       </c>
       <c r="B548" s="3" t="inlineStr">
@@ -7030,7 +7030,7 @@
     <row r="549">
       <c r="A549" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1259</t>
+          <t>Wafer-1434</t>
         </is>
       </c>
       <c r="B549" s="3" t="inlineStr">
@@ -7042,7 +7042,7 @@
     <row r="550">
       <c r="A550" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1260</t>
+          <t>Wafer-1435</t>
         </is>
       </c>
       <c r="B550" s="3" t="inlineStr">
@@ -7054,7 +7054,7 @@
     <row r="551">
       <c r="A551" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1262</t>
+          <t>Wafer-1436</t>
         </is>
       </c>
       <c r="B551" s="3" t="inlineStr">
@@ -7066,7 +7066,7 @@
     <row r="552">
       <c r="A552" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1263</t>
+          <t>Wafer-1437</t>
         </is>
       </c>
       <c r="B552" s="3" t="inlineStr">
@@ -7078,7 +7078,7 @@
     <row r="553">
       <c r="A553" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1264</t>
+          <t>Wafer-1441</t>
         </is>
       </c>
       <c r="B553" s="3" t="inlineStr">
@@ -7090,7 +7090,7 @@
     <row r="554">
       <c r="A554" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1265</t>
+          <t>Wafer-1442</t>
         </is>
       </c>
       <c r="B554" s="3" t="inlineStr">
@@ -7102,7 +7102,7 @@
     <row r="555">
       <c r="A555" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1267</t>
+          <t>Wafer-1443</t>
         </is>
       </c>
       <c r="B555" s="3" t="inlineStr">
@@ -7114,7 +7114,7 @@
     <row r="556">
       <c r="A556" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1268</t>
+          <t>Wafer-1446</t>
         </is>
       </c>
       <c r="B556" s="3" t="inlineStr">
@@ -7126,7 +7126,7 @@
     <row r="557">
       <c r="A557" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1269</t>
+          <t>Wafer-1447</t>
         </is>
       </c>
       <c r="B557" s="3" t="inlineStr">
@@ -7138,7 +7138,7 @@
     <row r="558">
       <c r="A558" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1270</t>
+          <t>Wafer-1448</t>
         </is>
       </c>
       <c r="B558" s="3" t="inlineStr">
@@ -7150,7 +7150,7 @@
     <row r="559">
       <c r="A559" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1271</t>
+          <t>Wafer-1450</t>
         </is>
       </c>
       <c r="B559" s="3" t="inlineStr">
@@ -7162,7 +7162,7 @@
     <row r="560">
       <c r="A560" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1274</t>
+          <t>Wafer-1453</t>
         </is>
       </c>
       <c r="B560" s="3" t="inlineStr">
@@ -7174,7 +7174,7 @@
     <row r="561">
       <c r="A561" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1275</t>
+          <t>Wafer-1455</t>
         </is>
       </c>
       <c r="B561" s="3" t="inlineStr">
@@ -7186,7 +7186,7 @@
     <row r="562">
       <c r="A562" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1278</t>
+          <t>Wafer-1457</t>
         </is>
       </c>
       <c r="B562" s="3" t="inlineStr">
@@ -7198,7 +7198,7 @@
     <row r="563">
       <c r="A563" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1284</t>
+          <t>Wafer-1462</t>
         </is>
       </c>
       <c r="B563" s="3" t="inlineStr">
@@ -7210,7 +7210,7 @@
     <row r="564">
       <c r="A564" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1288</t>
+          <t>Wafer-1463</t>
         </is>
       </c>
       <c r="B564" s="3" t="inlineStr">
@@ -7222,7 +7222,7 @@
     <row r="565">
       <c r="A565" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1290</t>
+          <t>Wafer-1467</t>
         </is>
       </c>
       <c r="B565" s="3" t="inlineStr">
@@ -7234,7 +7234,7 @@
     <row r="566">
       <c r="A566" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1291</t>
+          <t>Wafer-1468</t>
         </is>
       </c>
       <c r="B566" s="3" t="inlineStr">
@@ -7246,7 +7246,7 @@
     <row r="567">
       <c r="A567" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1299</t>
+          <t>Wafer-1470</t>
         </is>
       </c>
       <c r="B567" s="3" t="inlineStr">
@@ -7258,7 +7258,7 @@
     <row r="568">
       <c r="A568" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1300</t>
+          <t>Wafer-1472</t>
         </is>
       </c>
       <c r="B568" s="3" t="inlineStr">
@@ -7270,7 +7270,7 @@
     <row r="569">
       <c r="A569" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1401</t>
+          <t>Wafer-1473</t>
         </is>
       </c>
       <c r="B569" s="3" t="inlineStr">
@@ -7282,7 +7282,7 @@
     <row r="570">
       <c r="A570" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1403</t>
+          <t>Wafer-1476</t>
         </is>
       </c>
       <c r="B570" s="3" t="inlineStr">
@@ -7294,7 +7294,7 @@
     <row r="571">
       <c r="A571" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1404</t>
+          <t>Wafer-1477</t>
         </is>
       </c>
       <c r="B571" s="3" t="inlineStr">
@@ -7306,7 +7306,7 @@
     <row r="572">
       <c r="A572" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1405</t>
+          <t>Wafer-1478</t>
         </is>
       </c>
       <c r="B572" s="3" t="inlineStr">
@@ -7318,7 +7318,7 @@
     <row r="573">
       <c r="A573" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1408</t>
+          <t>Wafer-1481</t>
         </is>
       </c>
       <c r="B573" s="3" t="inlineStr">
@@ -7330,7 +7330,7 @@
     <row r="574">
       <c r="A574" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1409</t>
+          <t>Wafer-1483</t>
         </is>
       </c>
       <c r="B574" s="3" t="inlineStr">
@@ -7342,7 +7342,7 @@
     <row r="575">
       <c r="A575" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1415</t>
+          <t>Wafer-1485</t>
         </is>
       </c>
       <c r="B575" s="3" t="inlineStr">
@@ -7354,7 +7354,7 @@
     <row r="576">
       <c r="A576" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1419</t>
+          <t>Wafer-1486</t>
         </is>
       </c>
       <c r="B576" s="3" t="inlineStr">
@@ -7366,7 +7366,7 @@
     <row r="577">
       <c r="A577" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1423</t>
+          <t>Wafer-1488</t>
         </is>
       </c>
       <c r="B577" s="3" t="inlineStr">
@@ -7378,7 +7378,7 @@
     <row r="578">
       <c r="A578" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1424</t>
+          <t>Wafer-1489</t>
         </is>
       </c>
       <c r="B578" s="3" t="inlineStr">
@@ -7390,19 +7390,19 @@
     <row r="579">
       <c r="A579" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1428</t>
+          <t>Wafer-1490</t>
         </is>
       </c>
       <c r="B579" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1432</t>
+          <t>Wafer-1496</t>
         </is>
       </c>
       <c r="B580" s="3" t="inlineStr">
@@ -7414,7 +7414,7 @@
     <row r="581">
       <c r="A581" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1435</t>
+          <t>Wafer-1497</t>
         </is>
       </c>
       <c r="B581" s="3" t="inlineStr">
@@ -7426,7 +7426,7 @@
     <row r="582">
       <c r="A582" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1439</t>
+          <t>Wafer-1499</t>
         </is>
       </c>
       <c r="B582" s="3" t="inlineStr">
@@ -7438,7 +7438,7 @@
     <row r="583">
       <c r="A583" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1441</t>
+          <t>Wafer-1502</t>
         </is>
       </c>
       <c r="B583" s="3" t="inlineStr">
@@ -7450,7 +7450,7 @@
     <row r="584">
       <c r="A584" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1444</t>
+          <t>Wafer-1503</t>
         </is>
       </c>
       <c r="B584" s="3" t="inlineStr">
@@ -7462,7 +7462,7 @@
     <row r="585">
       <c r="A585" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1445</t>
+          <t>Wafer-1504</t>
         </is>
       </c>
       <c r="B585" s="3" t="inlineStr">
@@ -7474,7 +7474,7 @@
     <row r="586">
       <c r="A586" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1446</t>
+          <t>Wafer-1508</t>
         </is>
       </c>
       <c r="B586" s="3" t="inlineStr">
@@ -7486,7 +7486,7 @@
     <row r="587">
       <c r="A587" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1447</t>
+          <t>Wafer-1510</t>
         </is>
       </c>
       <c r="B587" s="3" t="inlineStr">
@@ -7498,7 +7498,7 @@
     <row r="588">
       <c r="A588" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1448</t>
+          <t>Wafer-1511</t>
         </is>
       </c>
       <c r="B588" s="3" t="inlineStr">
@@ -7510,7 +7510,7 @@
     <row r="589">
       <c r="A589" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1452</t>
+          <t>Wafer-1513</t>
         </is>
       </c>
       <c r="B589" s="3" t="inlineStr">
@@ -7522,7 +7522,7 @@
     <row r="590">
       <c r="A590" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1453</t>
+          <t>Wafer-1515</t>
         </is>
       </c>
       <c r="B590" s="3" t="inlineStr">
@@ -7534,7 +7534,7 @@
     <row r="591">
       <c r="A591" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1454</t>
+          <t>Wafer-1516</t>
         </is>
       </c>
       <c r="B591" s="3" t="inlineStr">
@@ -7546,7 +7546,7 @@
     <row r="592">
       <c r="A592" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1455</t>
+          <t>Wafer-1518</t>
         </is>
       </c>
       <c r="B592" s="3" t="inlineStr">
@@ -7558,7 +7558,7 @@
     <row r="593">
       <c r="A593" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1458</t>
+          <t>Wafer-1521</t>
         </is>
       </c>
       <c r="B593" s="3" t="inlineStr">
@@ -7570,7 +7570,7 @@
     <row r="594">
       <c r="A594" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1461</t>
+          <t>Wafer-1522</t>
         </is>
       </c>
       <c r="B594" s="3" t="inlineStr">
@@ -7582,7 +7582,7 @@
     <row r="595">
       <c r="A595" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1462</t>
+          <t>Wafer-1524</t>
         </is>
       </c>
       <c r="B595" s="3" t="inlineStr">
@@ -7594,7 +7594,7 @@
     <row r="596">
       <c r="A596" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1463</t>
+          <t>Wafer-1526</t>
         </is>
       </c>
       <c r="B596" s="3" t="inlineStr">
@@ -7606,7 +7606,7 @@
     <row r="597">
       <c r="A597" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1464</t>
+          <t>Wafer-1529</t>
         </is>
       </c>
       <c r="B597" s="3" t="inlineStr">
@@ -7618,7 +7618,7 @@
     <row r="598">
       <c r="A598" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1467</t>
+          <t>Wafer-1530</t>
         </is>
       </c>
       <c r="B598" s="3" t="inlineStr">
@@ -7630,7 +7630,7 @@
     <row r="599">
       <c r="A599" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1470</t>
+          <t>Wafer-1531</t>
         </is>
       </c>
       <c r="B599" s="3" t="inlineStr">
@@ -7642,7 +7642,7 @@
     <row r="600">
       <c r="A600" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1474</t>
+          <t>Wafer-1532</t>
         </is>
       </c>
       <c r="B600" s="3" t="inlineStr">
@@ -7654,7 +7654,7 @@
     <row r="601">
       <c r="A601" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1475</t>
+          <t>Wafer-1533</t>
         </is>
       </c>
       <c r="B601" s="3" t="inlineStr">
@@ -7666,7 +7666,7 @@
     <row r="602">
       <c r="A602" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1476</t>
+          <t>Wafer-1534</t>
         </is>
       </c>
       <c r="B602" s="3" t="inlineStr">
@@ -7678,7 +7678,7 @@
     <row r="603">
       <c r="A603" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1478</t>
+          <t>Wafer-1537</t>
         </is>
       </c>
       <c r="B603" s="3" t="inlineStr">
@@ -7690,19 +7690,19 @@
     <row r="604">
       <c r="A604" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1479</t>
+          <t>Wafer-1539</t>
         </is>
       </c>
       <c r="B604" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1480</t>
+          <t>Wafer-1540</t>
         </is>
       </c>
       <c r="B605" s="3" t="inlineStr">
@@ -7714,7 +7714,7 @@
     <row r="606">
       <c r="A606" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1488</t>
+          <t>Wafer-1541</t>
         </is>
       </c>
       <c r="B606" s="3" t="inlineStr">
@@ -7726,7 +7726,7 @@
     <row r="607">
       <c r="A607" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1489</t>
+          <t>Wafer-1542</t>
         </is>
       </c>
       <c r="B607" s="3" t="inlineStr">
@@ -7738,7 +7738,7 @@
     <row r="608">
       <c r="A608" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1490</t>
+          <t>Wafer-1543</t>
         </is>
       </c>
       <c r="B608" s="3" t="inlineStr">
@@ -7750,7 +7750,7 @@
     <row r="609">
       <c r="A609" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1494</t>
+          <t>Wafer-1544</t>
         </is>
       </c>
       <c r="B609" s="3" t="inlineStr">
@@ -7762,7 +7762,7 @@
     <row r="610">
       <c r="A610" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1496</t>
+          <t>Wafer-1545</t>
         </is>
       </c>
       <c r="B610" s="3" t="inlineStr">
@@ -7774,7 +7774,7 @@
     <row r="611">
       <c r="A611" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1497</t>
+          <t>Wafer-1546</t>
         </is>
       </c>
       <c r="B611" s="3" t="inlineStr">
@@ -7786,7 +7786,7 @@
     <row r="612">
       <c r="A612" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1501</t>
+          <t>Wafer-1549</t>
         </is>
       </c>
       <c r="B612" s="3" t="inlineStr">
@@ -7798,7 +7798,7 @@
     <row r="613">
       <c r="A613" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1502</t>
+          <t>Wafer-1551</t>
         </is>
       </c>
       <c r="B613" s="3" t="inlineStr">
@@ -7810,7 +7810,7 @@
     <row r="614">
       <c r="A614" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1503</t>
+          <t>Wafer-1552</t>
         </is>
       </c>
       <c r="B614" s="3" t="inlineStr">
@@ -7822,7 +7822,7 @@
     <row r="615">
       <c r="A615" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1504</t>
+          <t>Wafer-1553</t>
         </is>
       </c>
       <c r="B615" s="3" t="inlineStr">
@@ -7834,19 +7834,19 @@
     <row r="616">
       <c r="A616" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1506</t>
+          <t>Wafer-1556</t>
         </is>
       </c>
       <c r="B616" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1507</t>
+          <t>Wafer-1557</t>
         </is>
       </c>
       <c r="B617" s="3" t="inlineStr">
@@ -7858,7 +7858,7 @@
     <row r="618">
       <c r="A618" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1513</t>
+          <t>Wafer-1558</t>
         </is>
       </c>
       <c r="B618" s="3" t="inlineStr">
@@ -7870,7 +7870,7 @@
     <row r="619">
       <c r="A619" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1514</t>
+          <t>Wafer-1559</t>
         </is>
       </c>
       <c r="B619" s="3" t="inlineStr">
@@ -7882,7 +7882,7 @@
     <row r="620">
       <c r="A620" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1516</t>
+          <t>Wafer-1560</t>
         </is>
       </c>
       <c r="B620" s="3" t="inlineStr">
@@ -7894,7 +7894,7 @@
     <row r="621">
       <c r="A621" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1517</t>
+          <t>Wafer-1561</t>
         </is>
       </c>
       <c r="B621" s="3" t="inlineStr">
@@ -7906,7 +7906,7 @@
     <row r="622">
       <c r="A622" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1526</t>
+          <t>Wafer-1562</t>
         </is>
       </c>
       <c r="B622" s="3" t="inlineStr">
@@ -7918,7 +7918,7 @@
     <row r="623">
       <c r="A623" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1528</t>
+          <t>Wafer-1563</t>
         </is>
       </c>
       <c r="B623" s="3" t="inlineStr">
@@ -7930,7 +7930,7 @@
     <row r="624">
       <c r="A624" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1531</t>
+          <t>Wafer-1564</t>
         </is>
       </c>
       <c r="B624" s="3" t="inlineStr">
@@ -7942,7 +7942,7 @@
     <row r="625">
       <c r="A625" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1534</t>
+          <t>Wafer-1566</t>
         </is>
       </c>
       <c r="B625" s="3" t="inlineStr">
@@ -7954,7 +7954,7 @@
     <row r="626">
       <c r="A626" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1540</t>
+          <t>Wafer-1568</t>
         </is>
       </c>
       <c r="B626" s="3" t="inlineStr">
@@ -7966,7 +7966,7 @@
     <row r="627">
       <c r="A627" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1541</t>
+          <t>Wafer-1569</t>
         </is>
       </c>
       <c r="B627" s="3" t="inlineStr">
@@ -7978,7 +7978,7 @@
     <row r="628">
       <c r="A628" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1543</t>
+          <t>Wafer-1571</t>
         </is>
       </c>
       <c r="B628" s="3" t="inlineStr">
@@ -7990,7 +7990,7 @@
     <row r="629">
       <c r="A629" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1546</t>
+          <t>Wafer-1573</t>
         </is>
       </c>
       <c r="B629" s="3" t="inlineStr">
@@ -8002,7 +8002,7 @@
     <row r="630">
       <c r="A630" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1547</t>
+          <t>Wafer-1574</t>
         </is>
       </c>
       <c r="B630" s="3" t="inlineStr">
@@ -8014,7 +8014,7 @@
     <row r="631">
       <c r="A631" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1548</t>
+          <t>Wafer-1575</t>
         </is>
       </c>
       <c r="B631" s="3" t="inlineStr">
@@ -8026,7 +8026,7 @@
     <row r="632">
       <c r="A632" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1549</t>
+          <t>Wafer-1578</t>
         </is>
       </c>
       <c r="B632" s="3" t="inlineStr">
@@ -8038,7 +8038,7 @@
     <row r="633">
       <c r="A633" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1551</t>
+          <t>Wafer-1579</t>
         </is>
       </c>
       <c r="B633" s="3" t="inlineStr">
@@ -8050,7 +8050,7 @@
     <row r="634">
       <c r="A634" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1554</t>
+          <t>Wafer-1581</t>
         </is>
       </c>
       <c r="B634" s="3" t="inlineStr">
@@ -8062,7 +8062,7 @@
     <row r="635">
       <c r="A635" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1556</t>
+          <t>Wafer-1582</t>
         </is>
       </c>
       <c r="B635" s="3" t="inlineStr">
@@ -8074,7 +8074,7 @@
     <row r="636">
       <c r="A636" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1557</t>
+          <t>Wafer-1585</t>
         </is>
       </c>
       <c r="B636" s="3" t="inlineStr">
@@ -8086,7 +8086,7 @@
     <row r="637">
       <c r="A637" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1559</t>
+          <t>Wafer-1588</t>
         </is>
       </c>
       <c r="B637" s="3" t="inlineStr">
@@ -8098,7 +8098,7 @@
     <row r="638">
       <c r="A638" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1560</t>
+          <t>Wafer-1589</t>
         </is>
       </c>
       <c r="B638" s="3" t="inlineStr">
@@ -8110,7 +8110,7 @@
     <row r="639">
       <c r="A639" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1562</t>
+          <t>Wafer-1592</t>
         </is>
       </c>
       <c r="B639" s="3" t="inlineStr">
@@ -8122,7 +8122,7 @@
     <row r="640">
       <c r="A640" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1566</t>
+          <t>Wafer-1593</t>
         </is>
       </c>
       <c r="B640" s="3" t="inlineStr">
@@ -8134,7 +8134,7 @@
     <row r="641">
       <c r="A641" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1567</t>
+          <t>Wafer-1597</t>
         </is>
       </c>
       <c r="B641" s="3" t="inlineStr">
@@ -8146,7 +8146,7 @@
     <row r="642">
       <c r="A642" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1568</t>
+          <t>Wafer-1599</t>
         </is>
       </c>
       <c r="B642" s="3" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="643">
       <c r="A643" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1570</t>
+          <t>Wafer-1600</t>
         </is>
       </c>
       <c r="B643" s="3" t="inlineStr">
@@ -8170,7 +8170,7 @@
     <row r="644">
       <c r="A644" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1573</t>
+          <t>Wafer-1601</t>
         </is>
       </c>
       <c r="B644" s="3" t="inlineStr">
@@ -8182,7 +8182,7 @@
     <row r="645">
       <c r="A645" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1574</t>
+          <t>Wafer-1602</t>
         </is>
       </c>
       <c r="B645" s="3" t="inlineStr">
@@ -8194,7 +8194,7 @@
     <row r="646">
       <c r="A646" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1575</t>
+          <t>Wafer-1603</t>
         </is>
       </c>
       <c r="B646" s="3" t="inlineStr">
@@ -8206,7 +8206,7 @@
     <row r="647">
       <c r="A647" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1577</t>
+          <t>Wafer-1609</t>
         </is>
       </c>
       <c r="B647" s="3" t="inlineStr">
@@ -8218,7 +8218,7 @@
     <row r="648">
       <c r="A648" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1580</t>
+          <t>Wafer-1610</t>
         </is>
       </c>
       <c r="B648" s="3" t="inlineStr">
@@ -8230,7 +8230,7 @@
     <row r="649">
       <c r="A649" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1587</t>
+          <t>Wafer-1611</t>
         </is>
       </c>
       <c r="B649" s="3" t="inlineStr">
@@ -8242,7 +8242,7 @@
     <row r="650">
       <c r="A650" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1588</t>
+          <t>Wafer-1612</t>
         </is>
       </c>
       <c r="B650" s="3" t="inlineStr">
@@ -8254,7 +8254,7 @@
     <row r="651">
       <c r="A651" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1590</t>
+          <t>Wafer-1613</t>
         </is>
       </c>
       <c r="B651" s="3" t="inlineStr">
@@ -8266,7 +8266,7 @@
     <row r="652">
       <c r="A652" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1592</t>
+          <t>Wafer-1614</t>
         </is>
       </c>
       <c r="B652" s="3" t="inlineStr">
@@ -8278,7 +8278,7 @@
     <row r="653">
       <c r="A653" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1595</t>
+          <t>Wafer-1616</t>
         </is>
       </c>
       <c r="B653" s="3" t="inlineStr">
@@ -8290,7 +8290,7 @@
     <row r="654">
       <c r="A654" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1598</t>
+          <t>Wafer-1617</t>
         </is>
       </c>
       <c r="B654" s="3" t="inlineStr">
@@ -8302,7 +8302,7 @@
     <row r="655">
       <c r="A655" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1600</t>
+          <t>Wafer-1618</t>
         </is>
       </c>
       <c r="B655" s="3" t="inlineStr">
@@ -8314,7 +8314,7 @@
     <row r="656">
       <c r="A656" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1602</t>
+          <t>Wafer-1619</t>
         </is>
       </c>
       <c r="B656" s="3" t="inlineStr">
@@ -8326,7 +8326,7 @@
     <row r="657">
       <c r="A657" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1603</t>
+          <t>Wafer-1622</t>
         </is>
       </c>
       <c r="B657" s="3" t="inlineStr">
@@ -8338,7 +8338,7 @@
     <row r="658">
       <c r="A658" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1604</t>
+          <t>Wafer-1623</t>
         </is>
       </c>
       <c r="B658" s="3" t="inlineStr">
@@ -8350,7 +8350,7 @@
     <row r="659">
       <c r="A659" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1606</t>
+          <t>Wafer-1624</t>
         </is>
       </c>
       <c r="B659" s="3" t="inlineStr">
@@ -8362,7 +8362,7 @@
     <row r="660">
       <c r="A660" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1610</t>
+          <t>Wafer-1627</t>
         </is>
       </c>
       <c r="B660" s="3" t="inlineStr">
@@ -8374,7 +8374,7 @@
     <row r="661">
       <c r="A661" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1611</t>
+          <t>Wafer-1628</t>
         </is>
       </c>
       <c r="B661" s="3" t="inlineStr">
@@ -8386,7 +8386,7 @@
     <row r="662">
       <c r="A662" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1615</t>
+          <t>Wafer-1630</t>
         </is>
       </c>
       <c r="B662" s="3" t="inlineStr">
@@ -8398,7 +8398,7 @@
     <row r="663">
       <c r="A663" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1616</t>
+          <t>Wafer-1631</t>
         </is>
       </c>
       <c r="B663" s="3" t="inlineStr">
@@ -8410,7 +8410,7 @@
     <row r="664">
       <c r="A664" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1617</t>
+          <t>Wafer-1633</t>
         </is>
       </c>
       <c r="B664" s="3" t="inlineStr">
@@ -8422,7 +8422,7 @@
     <row r="665">
       <c r="A665" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1620</t>
+          <t>Wafer-1634</t>
         </is>
       </c>
       <c r="B665" s="3" t="inlineStr">
@@ -8434,7 +8434,7 @@
     <row r="666">
       <c r="A666" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1621</t>
+          <t>Wafer-1636</t>
         </is>
       </c>
       <c r="B666" s="3" t="inlineStr">
@@ -8446,7 +8446,7 @@
     <row r="667">
       <c r="A667" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1625</t>
+          <t>Wafer-1637</t>
         </is>
       </c>
       <c r="B667" s="3" t="inlineStr">
@@ -8458,7 +8458,7 @@
     <row r="668">
       <c r="A668" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1631</t>
+          <t>Wafer-1639</t>
         </is>
       </c>
       <c r="B668" s="3" t="inlineStr">
@@ -8470,7 +8470,7 @@
     <row r="669">
       <c r="A669" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1634</t>
+          <t>Wafer-1640</t>
         </is>
       </c>
       <c r="B669" s="3" t="inlineStr">
@@ -8482,7 +8482,7 @@
     <row r="670">
       <c r="A670" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1635</t>
+          <t>Wafer-1642</t>
         </is>
       </c>
       <c r="B670" s="3" t="inlineStr">
@@ -8494,7 +8494,7 @@
     <row r="671">
       <c r="A671" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1636</t>
+          <t>Wafer-1645</t>
         </is>
       </c>
       <c r="B671" s="3" t="inlineStr">
@@ -8506,7 +8506,7 @@
     <row r="672">
       <c r="A672" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1637</t>
+          <t>Wafer-1646</t>
         </is>
       </c>
       <c r="B672" s="3" t="inlineStr">
@@ -8518,7 +8518,7 @@
     <row r="673">
       <c r="A673" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1640</t>
+          <t>Wafer-1648</t>
         </is>
       </c>
       <c r="B673" s="3" t="inlineStr">
@@ -8530,7 +8530,7 @@
     <row r="674">
       <c r="A674" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1641</t>
+          <t>Wafer-1649</t>
         </is>
       </c>
       <c r="B674" s="3" t="inlineStr">
@@ -8542,7 +8542,7 @@
     <row r="675">
       <c r="A675" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1643</t>
+          <t>Wafer-1650</t>
         </is>
       </c>
       <c r="B675" s="3" t="inlineStr">
@@ -8554,7 +8554,7 @@
     <row r="676">
       <c r="A676" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1644</t>
+          <t>Wafer-1652</t>
         </is>
       </c>
       <c r="B676" s="3" t="inlineStr">
@@ -8566,7 +8566,7 @@
     <row r="677">
       <c r="A677" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1645</t>
+          <t>Wafer-1653</t>
         </is>
       </c>
       <c r="B677" s="3" t="inlineStr">
@@ -8578,7 +8578,7 @@
     <row r="678">
       <c r="A678" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1648</t>
+          <t>Wafer-1654</t>
         </is>
       </c>
       <c r="B678" s="3" t="inlineStr">
@@ -8590,7 +8590,7 @@
     <row r="679">
       <c r="A679" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1649</t>
+          <t>Wafer-1655</t>
         </is>
       </c>
       <c r="B679" s="3" t="inlineStr">
@@ -8602,7 +8602,7 @@
     <row r="680">
       <c r="A680" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1655</t>
+          <t>Wafer-1656</t>
         </is>
       </c>
       <c r="B680" s="3" t="inlineStr">
@@ -8626,7 +8626,7 @@
     <row r="682">
       <c r="A682" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1663</t>
+          <t>Wafer-1661</t>
         </is>
       </c>
       <c r="B682" s="3" t="inlineStr">
@@ -8638,19 +8638,19 @@
     <row r="683">
       <c r="A683" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1664</t>
+          <t>Wafer-1662</t>
         </is>
       </c>
       <c r="B683" s="3" t="inlineStr">
         <is>
-          <t>NotWorking</t>
+          <t>Working</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1665</t>
+          <t>Wafer-1663</t>
         </is>
       </c>
       <c r="B684" s="3" t="inlineStr">
@@ -8662,7 +8662,7 @@
     <row r="685">
       <c r="A685" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1666</t>
+          <t>Wafer-1665</t>
         </is>
       </c>
       <c r="B685" s="3" t="inlineStr">
@@ -8674,7 +8674,7 @@
     <row r="686">
       <c r="A686" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1671</t>
+          <t>Wafer-1666</t>
         </is>
       </c>
       <c r="B686" s="3" t="inlineStr">
@@ -8686,7 +8686,7 @@
     <row r="687">
       <c r="A687" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1672</t>
+          <t>Wafer-1668</t>
         </is>
       </c>
       <c r="B687" s="3" t="inlineStr">
@@ -8698,7 +8698,7 @@
     <row r="688">
       <c r="A688" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1673</t>
+          <t>Wafer-1670</t>
         </is>
       </c>
       <c r="B688" s="3" t="inlineStr">
@@ -8710,7 +8710,7 @@
     <row r="689">
       <c r="A689" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1676</t>
+          <t>Wafer-1671</t>
         </is>
       </c>
       <c r="B689" s="3" t="inlineStr">
@@ -8722,7 +8722,7 @@
     <row r="690">
       <c r="A690" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1678</t>
+          <t>Wafer-1672</t>
         </is>
       </c>
       <c r="B690" s="3" t="inlineStr">
@@ -8734,7 +8734,7 @@
     <row r="691">
       <c r="A691" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1681</t>
+          <t>Wafer-1680</t>
         </is>
       </c>
       <c r="B691" s="3" t="inlineStr">
@@ -8746,7 +8746,7 @@
     <row r="692">
       <c r="A692" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1683</t>
+          <t>Wafer-1681</t>
         </is>
       </c>
       <c r="B692" s="3" t="inlineStr">
@@ -8758,7 +8758,7 @@
     <row r="693">
       <c r="A693" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1684</t>
+          <t>Wafer-1690</t>
         </is>
       </c>
       <c r="B693" s="3" t="inlineStr">
@@ -8770,7 +8770,7 @@
     <row r="694">
       <c r="A694" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1685</t>
+          <t>Wafer-1693</t>
         </is>
       </c>
       <c r="B694" s="3" t="inlineStr">
@@ -8782,7 +8782,7 @@
     <row r="695">
       <c r="A695" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1687</t>
+          <t>Wafer-1694</t>
         </is>
       </c>
       <c r="B695" s="3" t="inlineStr">
@@ -8794,7 +8794,7 @@
     <row r="696">
       <c r="A696" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1692</t>
+          <t>Wafer-1695</t>
         </is>
       </c>
       <c r="B696" s="3" t="inlineStr">
@@ -8806,7 +8806,7 @@
     <row r="697">
       <c r="A697" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1693</t>
+          <t>Wafer-1696</t>
         </is>
       </c>
       <c r="B697" s="3" t="inlineStr">
@@ -8818,7 +8818,7 @@
     <row r="698">
       <c r="A698" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1694</t>
+          <t>Wafer-1697</t>
         </is>
       </c>
       <c r="B698" s="3" t="inlineStr">
@@ -8830,7 +8830,7 @@
     <row r="699">
       <c r="A699" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1697</t>
+          <t>Wafer-1698</t>
         </is>
       </c>
       <c r="B699" s="3" t="inlineStr">
@@ -8842,7 +8842,7 @@
     <row r="700">
       <c r="A700" s="3" t="inlineStr">
         <is>
-          <t>Wafer-1698</t>
+          <t>Wafer-1699</t>
         </is>
       </c>
       <c r="B700" s="3" t="inlineStr">
